--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\演習プロジェクト\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6705A1-A1B7-4A3A-8081-FCCF7D42B3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F452EE-F5EB-40C3-83AF-B81089FA7FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,6 +1554,19 @@
     <xf numFmtId="49" fontId="2" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1566,37 +1579,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1604,6 +1608,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1617,8 +1639,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1686,51 +1714,23 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2300,92 +2300,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="113" t="s">
+      <c r="D1" s="118"/>
+      <c r="E1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="86">
+      <c r="F1" s="108">
         <v>45901</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="86">
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="109"/>
+      <c r="AH1" s="109"/>
+      <c r="AI1" s="110"/>
+      <c r="AJ1" s="108">
         <v>45931</v>
       </c>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="87"/>
-      <c r="AO1" s="87"/>
-      <c r="AP1" s="87"/>
-      <c r="AQ1" s="87"/>
-      <c r="AR1" s="87"/>
-      <c r="AS1" s="87"/>
-      <c r="AT1" s="87"/>
-      <c r="AU1" s="87"/>
-      <c r="AV1" s="87"/>
-      <c r="AW1" s="87"/>
-      <c r="AX1" s="87"/>
-      <c r="AY1" s="87"/>
-      <c r="AZ1" s="87"/>
-      <c r="BA1" s="87"/>
-      <c r="BB1" s="87"/>
-      <c r="BC1" s="87"/>
-      <c r="BD1" s="87"/>
-      <c r="BE1" s="87"/>
-      <c r="BF1" s="87"/>
-      <c r="BG1" s="87"/>
-      <c r="BH1" s="87"/>
-      <c r="BI1" s="87"/>
-      <c r="BJ1" s="87"/>
-      <c r="BK1" s="87"/>
-      <c r="BL1" s="87"/>
-      <c r="BM1" s="87"/>
+      <c r="AK1" s="109"/>
+      <c r="AL1" s="109"/>
+      <c r="AM1" s="109"/>
+      <c r="AN1" s="109"/>
+      <c r="AO1" s="109"/>
+      <c r="AP1" s="109"/>
+      <c r="AQ1" s="109"/>
+      <c r="AR1" s="109"/>
+      <c r="AS1" s="109"/>
+      <c r="AT1" s="109"/>
+      <c r="AU1" s="109"/>
+      <c r="AV1" s="109"/>
+      <c r="AW1" s="109"/>
+      <c r="AX1" s="109"/>
+      <c r="AY1" s="109"/>
+      <c r="AZ1" s="109"/>
+      <c r="BA1" s="109"/>
+      <c r="BB1" s="109"/>
+      <c r="BC1" s="109"/>
+      <c r="BD1" s="109"/>
+      <c r="BE1" s="109"/>
+      <c r="BF1" s="109"/>
+      <c r="BG1" s="109"/>
+      <c r="BH1" s="109"/>
+      <c r="BI1" s="109"/>
+      <c r="BJ1" s="109"/>
+      <c r="BK1" s="109"/>
+      <c r="BL1" s="109"/>
+      <c r="BM1" s="109"/>
       <c r="BN1" s="50"/>
       <c r="BO1" s="3"/>
     </row>
     <row r="2" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A2" s="102"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="114"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="124"/>
       <c r="F2" s="33">
         <v>42156</v>
       </c>
@@ -2572,11 +2572,11 @@
       <c r="BO2" s="3"/>
     </row>
     <row r="3" spans="1:67" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="103"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="115"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="125"/>
       <c r="F3" s="35" t="s">
         <v>10</v>
       </c>
@@ -2763,17 +2763,17 @@
       <c r="BO3" s="32"/>
     </row>
     <row r="4" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="78">
+      <c r="A4" s="83">
         <v>1</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="120" t="s">
+      <c r="D4" s="127"/>
+      <c r="E4" s="130" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="51"/>
@@ -2841,11 +2841,11 @@
       <c r="BN4" s="44"/>
     </row>
     <row r="5" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="79"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="25"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="121"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="131"/>
       <c r="F5" s="61"/>
       <c r="G5" s="65"/>
       <c r="H5" s="65"/>
@@ -2909,17 +2909,17 @@
       <c r="BN5" s="45"/>
     </row>
     <row r="6" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="78">
+      <c r="A6" s="83">
         <v>2</v>
       </c>
       <c r="B6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="92" t="s">
+      <c r="D6" s="104"/>
+      <c r="E6" s="107" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="26"/>
@@ -2987,11 +2987,11 @@
       <c r="BN6" s="46"/>
     </row>
     <row r="7" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="79"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="67"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="90"/>
       <c r="F7" s="39"/>
       <c r="G7" s="62"/>
       <c r="H7" s="29"/>
@@ -3055,15 +3055,15 @@
       <c r="BN7" s="47"/>
     </row>
     <row r="8" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="78">
+      <c r="A8" s="83">
         <v>3</v>
       </c>
       <c r="B8" s="67"/>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="92" t="s">
+      <c r="D8" s="104"/>
+      <c r="E8" s="107" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="26"/>
@@ -3131,11 +3131,11 @@
       <c r="BN8" s="46"/>
     </row>
     <row r="9" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="79"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="67"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="99"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="90"/>
       <c r="F9" s="39"/>
       <c r="G9" s="62"/>
       <c r="H9" s="63"/>
@@ -3199,15 +3199,15 @@
       <c r="BN9" s="47"/>
     </row>
     <row r="10" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="78">
+      <c r="A10" s="83">
         <v>4</v>
       </c>
       <c r="B10" s="67"/>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="92" t="s">
+      <c r="D10" s="104"/>
+      <c r="E10" s="107" t="s">
         <v>62</v>
       </c>
       <c r="F10" s="26"/>
@@ -3275,11 +3275,11 @@
       <c r="BN10" s="46"/>
     </row>
     <row r="11" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="79"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="67"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="99"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="90"/>
       <c r="F11" s="39"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
@@ -3343,15 +3343,15 @@
       <c r="BN11" s="47"/>
     </row>
     <row r="12" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A12" s="78">
+      <c r="A12" s="83">
         <v>5</v>
       </c>
       <c r="B12" s="67"/>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="96"/>
-      <c r="E12" s="92" t="s">
+      <c r="D12" s="104"/>
+      <c r="E12" s="107" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="26"/>
@@ -3419,11 +3419,11 @@
       <c r="BN12" s="46"/>
     </row>
     <row r="13" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="79"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="68"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="99"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="90"/>
       <c r="F13" s="39"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
@@ -3487,17 +3487,17 @@
       <c r="BN13" s="47"/>
     </row>
     <row r="14" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A14" s="78">
+      <c r="A14" s="83">
         <v>6</v>
       </c>
       <c r="B14" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="84" t="s">
+      <c r="D14" s="98"/>
+      <c r="E14" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="36"/>
@@ -3567,14 +3567,14 @@
       <c r="BN14" s="44"/>
     </row>
     <row r="15" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A15" s="79"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="67"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="85"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="37"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="133"/>
+      <c r="H15" s="78"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="11"/>
@@ -3635,15 +3635,15 @@
       <c r="BN15" s="48"/>
     </row>
     <row r="16" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A16" s="78">
-        <v>11</v>
+      <c r="A16" s="83">
+        <v>7</v>
       </c>
       <c r="B16" s="67"/>
-      <c r="C16" s="129" t="s">
+      <c r="C16" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="84" t="s">
+      <c r="D16" s="98"/>
+      <c r="E16" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="36"/>
@@ -3713,11 +3713,11 @@
       <c r="BN16" s="44"/>
     </row>
     <row r="17" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A17" s="79"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="67"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="37"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -3781,15 +3781,15 @@
       <c r="BN17" s="48"/>
     </row>
     <row r="18" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A18" s="78">
-        <v>12</v>
+      <c r="A18" s="83">
+        <v>8</v>
       </c>
       <c r="B18" s="67"/>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="128"/>
-      <c r="E18" s="85" t="s">
+      <c r="D18" s="102"/>
+      <c r="E18" s="93" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="36"/>
@@ -3859,11 +3859,11 @@
       <c r="BN18" s="44"/>
     </row>
     <row r="19" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A19" s="79"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="67"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="85"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="37"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -3927,15 +3927,15 @@
       <c r="BN19" s="48"/>
     </row>
     <row r="20" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A20" s="78">
-        <v>7</v>
+      <c r="A20" s="83">
+        <v>9</v>
       </c>
       <c r="B20" s="67"/>
-      <c r="C20" s="122" t="s">
+      <c r="C20" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="84" t="s">
+      <c r="D20" s="98"/>
+      <c r="E20" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="36"/>
@@ -4005,11 +4005,11 @@
       <c r="BN20" s="44"/>
     </row>
     <row r="21" spans="1:66" s="3" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A21" s="79"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="67"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="126"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="94"/>
       <c r="F21" s="37"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -4073,15 +4073,15 @@
       <c r="BN21" s="48"/>
     </row>
     <row r="22" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A22" s="78">
-        <v>8</v>
+      <c r="A22" s="83">
+        <v>10</v>
       </c>
       <c r="B22" s="67"/>
-      <c r="C22" s="122" t="s">
+      <c r="C22" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="123"/>
-      <c r="E22" s="84" t="s">
+      <c r="D22" s="98"/>
+      <c r="E22" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="36"/>
@@ -4151,11 +4151,11 @@
       <c r="BN22" s="44"/>
     </row>
     <row r="23" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A23" s="79"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="67"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="126"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="94"/>
       <c r="F23" s="37"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -4219,15 +4219,15 @@
       <c r="BN23" s="48"/>
     </row>
     <row r="24" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A24" s="78">
-        <v>9</v>
+      <c r="A24" s="83">
+        <v>11</v>
       </c>
       <c r="B24" s="67"/>
-      <c r="C24" s="122" t="s">
+      <c r="C24" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="84" t="s">
+      <c r="D24" s="98"/>
+      <c r="E24" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="36"/>
@@ -4297,11 +4297,11 @@
       <c r="BN24" s="44"/>
     </row>
     <row r="25" spans="1:66" s="3" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A25" s="79"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="67"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="126"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="94"/>
       <c r="F25" s="37"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -4365,15 +4365,15 @@
       <c r="BN25" s="48"/>
     </row>
     <row r="26" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A26" s="78">
-        <v>10</v>
+      <c r="A26" s="83">
+        <v>12</v>
       </c>
       <c r="B26" s="67"/>
-      <c r="C26" s="122" t="s">
+      <c r="C26" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="84" t="s">
+      <c r="D26" s="98"/>
+      <c r="E26" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="36"/>
@@ -4443,14 +4443,14 @@
       <c r="BN26" s="44"/>
     </row>
     <row r="27" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A27" s="79"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="67"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="126"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="94"/>
       <c r="F27" s="37"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="133"/>
+      <c r="H27" s="78"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="11"/>
@@ -4511,17 +4511,17 @@
       <c r="BN27" s="48"/>
     </row>
     <row r="28" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="78">
+      <c r="A28" s="83">
         <v>13</v>
       </c>
       <c r="B28" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="92" t="s">
+      <c r="D28" s="133"/>
+      <c r="E28" s="107" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="26"/>
@@ -4589,11 +4589,11 @@
       <c r="BN28" s="46"/>
     </row>
     <row r="29" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A29" s="79"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="67"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="85"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="93"/>
       <c r="F29" s="37"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -4657,15 +4657,15 @@
       <c r="BN29" s="48"/>
     </row>
     <row r="30" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A30" s="78">
+      <c r="A30" s="83">
         <v>14</v>
       </c>
       <c r="B30" s="67"/>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="81"/>
-      <c r="E30" s="84" t="s">
+      <c r="D30" s="86"/>
+      <c r="E30" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F30" s="37"/>
@@ -4733,11 +4733,11 @@
       <c r="BN30" s="48"/>
     </row>
     <row r="31" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A31" s="79"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="67"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="85"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="93"/>
       <c r="F31" s="37"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -4801,15 +4801,15 @@
       <c r="BN31" s="48"/>
     </row>
     <row r="32" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A32" s="78">
+      <c r="A32" s="83">
         <v>15</v>
       </c>
       <c r="B32" s="67"/>
-      <c r="C32" s="80" t="s">
+      <c r="C32" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="81"/>
-      <c r="E32" s="84" t="s">
+      <c r="D32" s="86"/>
+      <c r="E32" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F32" s="37"/>
@@ -4877,11 +4877,11 @@
       <c r="BN32" s="48"/>
     </row>
     <row r="33" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A33" s="79"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="67"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="85"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="93"/>
       <c r="F33" s="37"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -4945,15 +4945,15 @@
       <c r="BN33" s="48"/>
     </row>
     <row r="34" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A34" s="78">
+      <c r="A34" s="83">
         <v>16</v>
       </c>
       <c r="B34" s="67"/>
-      <c r="C34" s="80" t="s">
+      <c r="C34" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="81"/>
-      <c r="E34" s="84" t="s">
+      <c r="D34" s="86"/>
+      <c r="E34" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F34" s="37"/>
@@ -5021,11 +5021,11 @@
       <c r="BN34" s="48"/>
     </row>
     <row r="35" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A35" s="79"/>
+      <c r="A35" s="84"/>
       <c r="B35" s="67"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="85"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="93"/>
       <c r="F35" s="37"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -5089,15 +5089,15 @@
       <c r="BN35" s="48"/>
     </row>
     <row r="36" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A36" s="78">
-        <v>16</v>
+      <c r="A36" s="83">
+        <v>17</v>
       </c>
       <c r="B36" s="67"/>
-      <c r="C36" s="80" t="s">
+      <c r="C36" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="81"/>
-      <c r="E36" s="84" t="s">
+      <c r="D36" s="86"/>
+      <c r="E36" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F36" s="37"/>
@@ -5165,11 +5165,11 @@
       <c r="BN36" s="48"/>
     </row>
     <row r="37" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A37" s="79"/>
+      <c r="A37" s="84"/>
       <c r="B37" s="67"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="85"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="93"/>
       <c r="F37" s="37"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -5233,15 +5233,15 @@
       <c r="BN37" s="48"/>
     </row>
     <row r="38" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="78">
-        <v>16</v>
+      <c r="A38" s="83">
+        <v>18</v>
       </c>
       <c r="B38" s="67"/>
-      <c r="C38" s="80" t="s">
+      <c r="C38" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="81"/>
-      <c r="E38" s="84" t="s">
+      <c r="D38" s="86"/>
+      <c r="E38" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F38" s="37"/>
@@ -5309,11 +5309,11 @@
       <c r="BN38" s="48"/>
     </row>
     <row r="39" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A39" s="79"/>
+      <c r="A39" s="84"/>
       <c r="B39" s="67"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="85"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="93"/>
       <c r="F39" s="37"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -5377,15 +5377,15 @@
       <c r="BN39" s="48"/>
     </row>
     <row r="40" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="78">
-        <v>17</v>
+      <c r="A40" s="83">
+        <v>19</v>
       </c>
       <c r="B40" s="67"/>
-      <c r="C40" s="80" t="s">
+      <c r="C40" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="81"/>
-      <c r="E40" s="84" t="s">
+      <c r="D40" s="86"/>
+      <c r="E40" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F40" s="37"/>
@@ -5453,11 +5453,11 @@
       <c r="BN40" s="48"/>
     </row>
     <row r="41" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="79"/>
+      <c r="A41" s="84"/>
       <c r="B41" s="67"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="85"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="93"/>
       <c r="F41" s="37"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -5521,15 +5521,15 @@
       <c r="BN41" s="48"/>
     </row>
     <row r="42" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="78">
-        <v>19</v>
+      <c r="A42" s="83">
+        <v>20</v>
       </c>
       <c r="B42" s="67"/>
-      <c r="C42" s="80" t="s">
+      <c r="C42" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="81"/>
-      <c r="E42" s="84" t="s">
+      <c r="D42" s="86"/>
+      <c r="E42" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F42" s="37"/>
@@ -5597,11 +5597,11 @@
       <c r="BN42" s="48"/>
     </row>
     <row r="43" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="79"/>
+      <c r="A43" s="84"/>
       <c r="B43" s="67"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="85"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="93"/>
       <c r="F43" s="37"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -5665,15 +5665,15 @@
       <c r="BN43" s="48"/>
     </row>
     <row r="44" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A44" s="78">
-        <v>22</v>
+      <c r="A44" s="83">
+        <v>21</v>
       </c>
       <c r="B44" s="67"/>
-      <c r="C44" s="80" t="s">
+      <c r="C44" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="81"/>
-      <c r="E44" s="84" t="s">
+      <c r="D44" s="86"/>
+      <c r="E44" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F44" s="37"/>
@@ -5741,11 +5741,11 @@
       <c r="BN44" s="48"/>
     </row>
     <row r="45" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A45" s="79"/>
+      <c r="A45" s="84"/>
       <c r="B45" s="67"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="126"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="94"/>
       <c r="F45" s="37"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -5809,15 +5809,15 @@
       <c r="BN45" s="48"/>
     </row>
     <row r="46" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="78">
-        <v>20</v>
+      <c r="A46" s="83">
+        <v>22</v>
       </c>
       <c r="B46" s="67"/>
-      <c r="C46" s="80" t="s">
+      <c r="C46" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="81"/>
-      <c r="E46" s="84" t="s">
+      <c r="D46" s="86"/>
+      <c r="E46" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F46" s="37"/>
@@ -5885,11 +5885,11 @@
       <c r="BN46" s="48"/>
     </row>
     <row r="47" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="79"/>
+      <c r="A47" s="84"/>
       <c r="B47" s="67"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="85"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="93"/>
       <c r="F47" s="37"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -5953,15 +5953,15 @@
       <c r="BN47" s="48"/>
     </row>
     <row r="48" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="78">
-        <v>22</v>
+      <c r="A48" s="83">
+        <v>23</v>
       </c>
       <c r="B48" s="67"/>
-      <c r="C48" s="80" t="s">
+      <c r="C48" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="81"/>
-      <c r="E48" s="84" t="s">
+      <c r="D48" s="86"/>
+      <c r="E48" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="37"/>
@@ -6003,7 +6003,7 @@
       <c r="AP48" s="8"/>
       <c r="AQ48" s="8"/>
       <c r="AR48" s="8"/>
-      <c r="AS48" s="137" t="s">
+      <c r="AS48" s="82" t="s">
         <v>26</v>
       </c>
       <c r="AT48" s="11"/>
@@ -6029,11 +6029,11 @@
       <c r="BN48" s="48"/>
     </row>
     <row r="49" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="79"/>
+      <c r="A49" s="84"/>
       <c r="B49" s="67"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="85"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="93"/>
       <c r="F49" s="37"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -6097,15 +6097,15 @@
       <c r="BN49" s="48"/>
     </row>
     <row r="50" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="78">
-        <v>21</v>
+      <c r="A50" s="83">
+        <v>24</v>
       </c>
       <c r="B50" s="67"/>
-      <c r="C50" s="80" t="s">
+      <c r="C50" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="81"/>
-      <c r="E50" s="84" t="s">
+      <c r="D50" s="86"/>
+      <c r="E50" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F50" s="37"/>
@@ -6173,11 +6173,11 @@
       <c r="BN50" s="48"/>
     </row>
     <row r="51" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="79"/>
+      <c r="A51" s="84"/>
       <c r="B51" s="67"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="85"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="93"/>
       <c r="F51" s="37"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -6241,15 +6241,15 @@
       <c r="BN51" s="48"/>
     </row>
     <row r="52" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="78">
-        <v>23</v>
+      <c r="A52" s="83">
+        <v>25</v>
       </c>
       <c r="B52" s="67"/>
-      <c r="C52" s="80" t="s">
+      <c r="C52" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="81"/>
-      <c r="E52" s="84" t="s">
+      <c r="D52" s="86"/>
+      <c r="E52" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F52" s="37"/>
@@ -6291,7 +6291,7 @@
       <c r="AP52" s="8"/>
       <c r="AQ52" s="8"/>
       <c r="AR52" s="8"/>
-      <c r="AS52" s="137" t="s">
+      <c r="AS52" s="82" t="s">
         <v>26</v>
       </c>
       <c r="AT52" s="11"/>
@@ -6317,11 +6317,11 @@
       <c r="BN52" s="48"/>
     </row>
     <row r="53" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="79"/>
+      <c r="A53" s="84"/>
       <c r="B53" s="67"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="85"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="93"/>
       <c r="F53" s="37"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -6385,15 +6385,15 @@
       <c r="BN53" s="48"/>
     </row>
     <row r="54" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A54" s="78">
-        <v>24</v>
+      <c r="A54" s="83">
+        <v>26</v>
       </c>
       <c r="B54" s="67"/>
-      <c r="C54" s="80" t="s">
+      <c r="C54" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="81"/>
-      <c r="E54" s="84" t="s">
+      <c r="D54" s="86"/>
+      <c r="E54" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F54" s="37"/>
@@ -6461,11 +6461,11 @@
       <c r="BN54" s="48"/>
     </row>
     <row r="55" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A55" s="79"/>
+      <c r="A55" s="84"/>
       <c r="B55" s="67"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="85"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="93"/>
       <c r="F55" s="37"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -6529,15 +6529,15 @@
       <c r="BN55" s="48"/>
     </row>
     <row r="56" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A56" s="78">
-        <v>25</v>
+      <c r="A56" s="83">
+        <v>27</v>
       </c>
       <c r="B56" s="67"/>
-      <c r="C56" s="80" t="s">
+      <c r="C56" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="81"/>
-      <c r="E56" s="84" t="s">
+      <c r="D56" s="86"/>
+      <c r="E56" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F56" s="37"/>
@@ -6605,11 +6605,11 @@
       <c r="BN56" s="48"/>
     </row>
     <row r="57" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A57" s="79"/>
+      <c r="A57" s="84"/>
       <c r="B57" s="67"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="85"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="93"/>
       <c r="F57" s="37"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -6673,15 +6673,15 @@
       <c r="BN57" s="48"/>
     </row>
     <row r="58" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A58" s="78">
-        <v>26</v>
+      <c r="A58" s="83">
+        <v>28</v>
       </c>
       <c r="B58" s="67"/>
-      <c r="C58" s="80" t="s">
+      <c r="C58" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="81"/>
-      <c r="E58" s="84" t="s">
+      <c r="D58" s="86"/>
+      <c r="E58" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F58" s="37"/>
@@ -6749,11 +6749,11 @@
       <c r="BN58" s="48"/>
     </row>
     <row r="59" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A59" s="79"/>
+      <c r="A59" s="84"/>
       <c r="B59" s="67"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="85"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="93"/>
       <c r="F59" s="37"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -6817,15 +6817,15 @@
       <c r="BN59" s="48"/>
     </row>
     <row r="60" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A60" s="78">
-        <v>27</v>
+      <c r="A60" s="83">
+        <v>29</v>
       </c>
       <c r="B60" s="67"/>
-      <c r="C60" s="80" t="s">
+      <c r="C60" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="81"/>
-      <c r="E60" s="84" t="s">
+      <c r="D60" s="86"/>
+      <c r="E60" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F60" s="37"/>
@@ -6871,7 +6871,7 @@
       <c r="AT60" s="11"/>
       <c r="AU60" s="15"/>
       <c r="AV60" s="55"/>
-      <c r="AW60" s="137" t="s">
+      <c r="AW60" s="82" t="s">
         <v>26</v>
       </c>
       <c r="AX60" s="8"/>
@@ -6893,11 +6893,11 @@
       <c r="BN60" s="48"/>
     </row>
     <row r="61" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A61" s="79"/>
+      <c r="A61" s="84"/>
       <c r="B61" s="67"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="85"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="93"/>
       <c r="F61" s="37"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -6961,15 +6961,15 @@
       <c r="BN61" s="48"/>
     </row>
     <row r="62" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A62" s="78">
-        <v>28</v>
+      <c r="A62" s="83">
+        <v>30</v>
       </c>
       <c r="B62" s="67"/>
-      <c r="C62" s="80" t="s">
+      <c r="C62" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="81"/>
-      <c r="E62" s="84" t="s">
+      <c r="D62" s="86"/>
+      <c r="E62" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F62" s="37"/>
@@ -7015,7 +7015,7 @@
       <c r="AT62" s="11"/>
       <c r="AU62" s="15"/>
       <c r="AV62" s="55"/>
-      <c r="AW62" s="137" t="s">
+      <c r="AW62" s="82" t="s">
         <v>26</v>
       </c>
       <c r="AX62" s="8"/>
@@ -7037,11 +7037,11 @@
       <c r="BN62" s="48"/>
     </row>
     <row r="63" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A63" s="79"/>
+      <c r="A63" s="84"/>
       <c r="B63" s="67"/>
-      <c r="C63" s="82"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="85"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="93"/>
       <c r="F63" s="37"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -7105,15 +7105,15 @@
       <c r="BN63" s="48"/>
     </row>
     <row r="64" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A64" s="78">
-        <v>29</v>
+      <c r="A64" s="83">
+        <v>31</v>
       </c>
       <c r="B64" s="67"/>
-      <c r="C64" s="80" t="s">
+      <c r="C64" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="81"/>
-      <c r="E64" s="84" t="s">
+      <c r="D64" s="86"/>
+      <c r="E64" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F64" s="37"/>
@@ -7181,11 +7181,11 @@
       <c r="BN64" s="48"/>
     </row>
     <row r="65" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A65" s="79"/>
+      <c r="A65" s="84"/>
       <c r="B65" s="67"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="85"/>
+      <c r="C65" s="91"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="93"/>
       <c r="F65" s="37"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
@@ -7249,15 +7249,15 @@
       <c r="BN65" s="48"/>
     </row>
     <row r="66" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A66" s="78">
-        <v>30</v>
+      <c r="A66" s="83">
+        <v>32</v>
       </c>
       <c r="B66" s="67"/>
-      <c r="C66" s="80" t="s">
+      <c r="C66" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D66" s="81"/>
-      <c r="E66" s="84" t="s">
+      <c r="D66" s="86"/>
+      <c r="E66" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F66" s="37"/>
@@ -7325,11 +7325,11 @@
       <c r="BN66" s="48"/>
     </row>
     <row r="67" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A67" s="79"/>
+      <c r="A67" s="84"/>
       <c r="B67" s="67"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="85"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="93"/>
       <c r="F67" s="37"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
@@ -7393,15 +7393,15 @@
       <c r="BN67" s="48"/>
     </row>
     <row r="68" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A68" s="78">
-        <v>31</v>
+      <c r="A68" s="83">
+        <v>33</v>
       </c>
       <c r="B68" s="67"/>
-      <c r="C68" s="80" t="s">
+      <c r="C68" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="81"/>
-      <c r="E68" s="84" t="s">
+      <c r="D68" s="86"/>
+      <c r="E68" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F68" s="38"/>
@@ -7469,11 +7469,11 @@
       <c r="BN68" s="45"/>
     </row>
     <row r="69" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A69" s="79"/>
+      <c r="A69" s="84"/>
       <c r="B69" s="68"/>
-      <c r="C69" s="130"/>
-      <c r="D69" s="131"/>
-      <c r="E69" s="99"/>
+      <c r="C69" s="87"/>
+      <c r="D69" s="88"/>
+      <c r="E69" s="90"/>
       <c r="F69" s="40"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
@@ -7537,17 +7537,17 @@
       <c r="BN69" s="49"/>
     </row>
     <row r="70" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A70" s="78">
-        <v>32</v>
+      <c r="A70" s="83">
+        <v>34</v>
       </c>
       <c r="B70" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C70" s="93" t="s">
+      <c r="C70" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="D70" s="94"/>
-      <c r="E70" s="84" t="s">
+      <c r="D70" s="96"/>
+      <c r="E70" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F70" s="37"/>
@@ -7582,7 +7582,7 @@
       <c r="AG70" s="15"/>
       <c r="AH70" s="8"/>
       <c r="AI70" s="46"/>
-      <c r="AJ70" s="134" t="s">
+      <c r="AJ70" s="79" t="s">
         <v>69</v>
       </c>
       <c r="AK70" s="24"/>
@@ -7617,11 +7617,11 @@
       <c r="BN70" s="48"/>
     </row>
     <row r="71" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A71" s="79"/>
+      <c r="A71" s="84"/>
       <c r="B71" s="67"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="85"/>
+      <c r="C71" s="91"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="93"/>
       <c r="F71" s="37"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -7652,7 +7652,7 @@
       <c r="AG71" s="15"/>
       <c r="AH71" s="8"/>
       <c r="AI71" s="48"/>
-      <c r="AJ71" s="135"/>
+      <c r="AJ71" s="80"/>
       <c r="AK71" s="8"/>
       <c r="AL71" s="8"/>
       <c r="AM71" s="11"/>
@@ -7685,15 +7685,15 @@
       <c r="BN71" s="48"/>
     </row>
     <row r="72" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A72" s="78">
-        <v>33</v>
+      <c r="A72" s="83">
+        <v>35</v>
       </c>
       <c r="B72" s="67"/>
-      <c r="C72" s="80" t="s">
+      <c r="C72" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="D72" s="81"/>
-      <c r="E72" s="84" t="s">
+      <c r="D72" s="86"/>
+      <c r="E72" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F72" s="37"/>
@@ -7728,7 +7728,7 @@
       <c r="AI72" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="AJ72" s="134" t="s">
+      <c r="AJ72" s="79" t="s">
         <v>69</v>
       </c>
       <c r="AK72" s="24"/>
@@ -7763,11 +7763,11 @@
       <c r="BN72" s="48"/>
     </row>
     <row r="73" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A73" s="79"/>
+      <c r="A73" s="84"/>
       <c r="B73" s="67"/>
-      <c r="C73" s="82"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="85"/>
+      <c r="C73" s="91"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="93"/>
       <c r="F73" s="37"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
@@ -7798,7 +7798,7 @@
       <c r="AG73" s="15"/>
       <c r="AH73" s="8"/>
       <c r="AI73" s="48"/>
-      <c r="AJ73" s="135"/>
+      <c r="AJ73" s="80"/>
       <c r="AK73" s="8"/>
       <c r="AL73" s="8"/>
       <c r="AM73" s="11"/>
@@ -7831,15 +7831,15 @@
       <c r="BN73" s="48"/>
     </row>
     <row r="74" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A74" s="78">
-        <v>35</v>
+      <c r="A74" s="83">
+        <v>36</v>
       </c>
       <c r="B74" s="67"/>
-      <c r="C74" s="80" t="s">
+      <c r="C74" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D74" s="81"/>
-      <c r="E74" s="84" t="s">
+      <c r="D74" s="86"/>
+      <c r="E74" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F74" s="37"/>
@@ -7874,7 +7874,7 @@
       <c r="AI74" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="AJ74" s="134" t="s">
+      <c r="AJ74" s="79" t="s">
         <v>69</v>
       </c>
       <c r="AK74" s="24"/>
@@ -7909,11 +7909,11 @@
       <c r="BN74" s="48"/>
     </row>
     <row r="75" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A75" s="79"/>
+      <c r="A75" s="84"/>
       <c r="B75" s="67"/>
-      <c r="C75" s="82"/>
-      <c r="D75" s="83"/>
-      <c r="E75" s="85"/>
+      <c r="C75" s="91"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="93"/>
       <c r="F75" s="37"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -7944,7 +7944,7 @@
       <c r="AG75" s="15"/>
       <c r="AH75" s="8"/>
       <c r="AI75" s="48"/>
-      <c r="AJ75" s="135"/>
+      <c r="AJ75" s="80"/>
       <c r="AK75" s="8"/>
       <c r="AL75" s="8"/>
       <c r="AM75" s="11"/>
@@ -7977,15 +7977,15 @@
       <c r="BN75" s="48"/>
     </row>
     <row r="76" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A76" s="78">
-        <v>36</v>
+      <c r="A76" s="83">
+        <v>37</v>
       </c>
       <c r="B76" s="67"/>
-      <c r="C76" s="80" t="s">
+      <c r="C76" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="D76" s="81"/>
-      <c r="E76" s="84" t="s">
+      <c r="D76" s="86"/>
+      <c r="E76" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F76" s="37"/>
@@ -8020,7 +8020,7 @@
       <c r="AI76" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="AJ76" s="134" t="s">
+      <c r="AJ76" s="79" t="s">
         <v>69</v>
       </c>
       <c r="AK76" s="24"/>
@@ -8055,11 +8055,11 @@
       <c r="BN76" s="48"/>
     </row>
     <row r="77" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A77" s="79"/>
+      <c r="A77" s="84"/>
       <c r="B77" s="67"/>
-      <c r="C77" s="82"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="85"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="93"/>
       <c r="F77" s="37"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
@@ -8090,7 +8090,7 @@
       <c r="AG77" s="15"/>
       <c r="AH77" s="8"/>
       <c r="AI77" s="48"/>
-      <c r="AJ77" s="135"/>
+      <c r="AJ77" s="80"/>
       <c r="AK77" s="8"/>
       <c r="AL77" s="8"/>
       <c r="AM77" s="11"/>
@@ -8123,15 +8123,15 @@
       <c r="BN77" s="48"/>
     </row>
     <row r="78" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A78" s="78">
-        <v>37</v>
+      <c r="A78" s="83">
+        <v>38</v>
       </c>
       <c r="B78" s="67"/>
-      <c r="C78" s="80" t="s">
+      <c r="C78" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="D78" s="81"/>
-      <c r="E78" s="84" t="s">
+      <c r="D78" s="86"/>
+      <c r="E78" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F78" s="37"/>
@@ -8166,7 +8166,7 @@
       <c r="AI78" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="AJ78" s="134" t="s">
+      <c r="AJ78" s="79" t="s">
         <v>69</v>
       </c>
       <c r="AK78" s="24"/>
@@ -8201,11 +8201,11 @@
       <c r="BN78" s="48"/>
     </row>
     <row r="79" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A79" s="79"/>
+      <c r="A79" s="84"/>
       <c r="B79" s="67"/>
-      <c r="C79" s="82"/>
-      <c r="D79" s="83"/>
-      <c r="E79" s="85"/>
+      <c r="C79" s="91"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="93"/>
       <c r="F79" s="37"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -8269,15 +8269,15 @@
       <c r="BN79" s="48"/>
     </row>
     <row r="80" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A80" s="78">
-        <v>37</v>
+      <c r="A80" s="83">
+        <v>39</v>
       </c>
       <c r="B80" s="67"/>
-      <c r="C80" s="80" t="s">
+      <c r="C80" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="D80" s="81"/>
-      <c r="E80" s="84" t="s">
+      <c r="D80" s="86"/>
+      <c r="E80" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F80" s="37"/>
@@ -8345,11 +8345,11 @@
       <c r="BN80" s="48"/>
     </row>
     <row r="81" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A81" s="79"/>
+      <c r="A81" s="84"/>
       <c r="B81" s="67"/>
-      <c r="C81" s="82"/>
-      <c r="D81" s="83"/>
-      <c r="E81" s="85"/>
+      <c r="C81" s="91"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="93"/>
       <c r="F81" s="37"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
@@ -8413,15 +8413,15 @@
       <c r="BN81" s="48"/>
     </row>
     <row r="82" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A82" s="78">
-        <v>38</v>
+      <c r="A82" s="83">
+        <v>40</v>
       </c>
       <c r="B82" s="67"/>
-      <c r="C82" s="80" t="s">
+      <c r="C82" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="D82" s="81"/>
-      <c r="E82" s="84" t="s">
+      <c r="D82" s="86"/>
+      <c r="E82" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F82" s="37"/>
@@ -8489,11 +8489,11 @@
       <c r="BN82" s="48"/>
     </row>
     <row r="83" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A83" s="79"/>
+      <c r="A83" s="84"/>
       <c r="B83" s="67"/>
-      <c r="C83" s="82"/>
-      <c r="D83" s="83"/>
-      <c r="E83" s="85"/>
+      <c r="C83" s="91"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="93"/>
       <c r="F83" s="37"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
@@ -8557,15 +8557,15 @@
       <c r="BN83" s="48"/>
     </row>
     <row r="84" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A84" s="78">
-        <v>39</v>
+      <c r="A84" s="83">
+        <v>41</v>
       </c>
       <c r="B84" s="67"/>
-      <c r="C84" s="80" t="s">
+      <c r="C84" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D84" s="81"/>
-      <c r="E84" s="84" t="s">
+      <c r="D84" s="86"/>
+      <c r="E84" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F84" s="37"/>
@@ -8633,11 +8633,11 @@
       <c r="BN84" s="48"/>
     </row>
     <row r="85" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A85" s="79"/>
+      <c r="A85" s="84"/>
       <c r="B85" s="67"/>
-      <c r="C85" s="82"/>
-      <c r="D85" s="83"/>
-      <c r="E85" s="85"/>
+      <c r="C85" s="91"/>
+      <c r="D85" s="92"/>
+      <c r="E85" s="93"/>
       <c r="F85" s="37"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
@@ -8701,15 +8701,15 @@
       <c r="BN85" s="48"/>
     </row>
     <row r="86" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A86" s="78">
-        <v>40</v>
+      <c r="A86" s="83">
+        <v>42</v>
       </c>
       <c r="B86" s="67"/>
-      <c r="C86" s="80" t="s">
+      <c r="C86" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="D86" s="81"/>
-      <c r="E86" s="84" t="s">
+      <c r="D86" s="86"/>
+      <c r="E86" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F86" s="37"/>
@@ -8777,11 +8777,11 @@
       <c r="BN86" s="48"/>
     </row>
     <row r="87" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A87" s="79"/>
+      <c r="A87" s="84"/>
       <c r="B87" s="67"/>
-      <c r="C87" s="82"/>
-      <c r="D87" s="83"/>
-      <c r="E87" s="85"/>
+      <c r="C87" s="91"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="93"/>
       <c r="F87" s="37"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
@@ -8845,15 +8845,15 @@
       <c r="BN87" s="48"/>
     </row>
     <row r="88" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A88" s="78">
-        <v>41</v>
+      <c r="A88" s="83">
+        <v>43</v>
       </c>
       <c r="B88" s="67"/>
-      <c r="C88" s="80" t="s">
+      <c r="C88" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D88" s="81"/>
-      <c r="E88" s="84" t="s">
+      <c r="D88" s="86"/>
+      <c r="E88" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F88" s="37"/>
@@ -8921,11 +8921,11 @@
       <c r="BN88" s="48"/>
     </row>
     <row r="89" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A89" s="79"/>
+      <c r="A89" s="84"/>
       <c r="B89" s="67"/>
-      <c r="C89" s="82"/>
-      <c r="D89" s="83"/>
-      <c r="E89" s="85"/>
+      <c r="C89" s="91"/>
+      <c r="D89" s="92"/>
+      <c r="E89" s="93"/>
       <c r="F89" s="37"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
@@ -8989,15 +8989,15 @@
       <c r="BN89" s="48"/>
     </row>
     <row r="90" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A90" s="78">
-        <v>42</v>
+      <c r="A90" s="83">
+        <v>44</v>
       </c>
       <c r="B90" s="67"/>
-      <c r="C90" s="80" t="s">
+      <c r="C90" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="D90" s="81"/>
-      <c r="E90" s="84" t="s">
+      <c r="D90" s="86"/>
+      <c r="E90" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F90" s="37"/>
@@ -9065,11 +9065,11 @@
       <c r="BN90" s="48"/>
     </row>
     <row r="91" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A91" s="79"/>
+      <c r="A91" s="84"/>
       <c r="B91" s="67"/>
-      <c r="C91" s="82"/>
-      <c r="D91" s="83"/>
-      <c r="E91" s="85"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="92"/>
+      <c r="E91" s="93"/>
       <c r="F91" s="37"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
@@ -9133,15 +9133,15 @@
       <c r="BN91" s="48"/>
     </row>
     <row r="92" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A92" s="78">
-        <v>43</v>
+      <c r="A92" s="83">
+        <v>45</v>
       </c>
       <c r="B92" s="67"/>
-      <c r="C92" s="80" t="s">
+      <c r="C92" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="D92" s="81"/>
-      <c r="E92" s="84" t="s">
+      <c r="D92" s="86"/>
+      <c r="E92" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F92" s="37"/>
@@ -9209,11 +9209,11 @@
       <c r="BN92" s="48"/>
     </row>
     <row r="93" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A93" s="79"/>
+      <c r="A93" s="84"/>
       <c r="B93" s="67"/>
-      <c r="C93" s="82"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="85"/>
+      <c r="C93" s="91"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="93"/>
       <c r="F93" s="37"/>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
@@ -9277,15 +9277,15 @@
       <c r="BN93" s="48"/>
     </row>
     <row r="94" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A94" s="78">
-        <v>44</v>
+      <c r="A94" s="83">
+        <v>46</v>
       </c>
       <c r="B94" s="67"/>
-      <c r="C94" s="80" t="s">
+      <c r="C94" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="D94" s="81"/>
-      <c r="E94" s="84" t="s">
+      <c r="D94" s="86"/>
+      <c r="E94" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F94" s="37"/>
@@ -9353,11 +9353,11 @@
       <c r="BN94" s="48"/>
     </row>
     <row r="95" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A95" s="79"/>
+      <c r="A95" s="84"/>
       <c r="B95" s="67"/>
-      <c r="C95" s="82"/>
-      <c r="D95" s="83"/>
-      <c r="E95" s="85"/>
+      <c r="C95" s="91"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="93"/>
       <c r="F95" s="37"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
@@ -9421,15 +9421,15 @@
       <c r="BN95" s="48"/>
     </row>
     <row r="96" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A96" s="78">
-        <v>45</v>
+      <c r="A96" s="83">
+        <v>47</v>
       </c>
       <c r="B96" s="67"/>
-      <c r="C96" s="80" t="s">
+      <c r="C96" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D96" s="81"/>
-      <c r="E96" s="84" t="s">
+      <c r="D96" s="86"/>
+      <c r="E96" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F96" s="37"/>
@@ -9497,11 +9497,11 @@
       <c r="BN96" s="48"/>
     </row>
     <row r="97" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A97" s="79"/>
+      <c r="A97" s="84"/>
       <c r="B97" s="67"/>
-      <c r="C97" s="82"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="85"/>
+      <c r="C97" s="91"/>
+      <c r="D97" s="92"/>
+      <c r="E97" s="93"/>
       <c r="F97" s="37"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
@@ -9565,15 +9565,15 @@
       <c r="BN97" s="48"/>
     </row>
     <row r="98" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A98" s="78">
-        <v>46</v>
+      <c r="A98" s="83">
+        <v>48</v>
       </c>
       <c r="B98" s="67"/>
-      <c r="C98" s="80" t="s">
+      <c r="C98" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D98" s="81"/>
-      <c r="E98" s="84" t="s">
+      <c r="D98" s="86"/>
+      <c r="E98" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F98" s="37"/>
@@ -9641,11 +9641,11 @@
       <c r="BN98" s="48"/>
     </row>
     <row r="99" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A99" s="79"/>
+      <c r="A99" s="84"/>
       <c r="B99" s="67"/>
-      <c r="C99" s="82"/>
-      <c r="D99" s="83"/>
-      <c r="E99" s="85"/>
+      <c r="C99" s="91"/>
+      <c r="D99" s="92"/>
+      <c r="E99" s="93"/>
       <c r="F99" s="37"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
@@ -9709,15 +9709,15 @@
       <c r="BN99" s="48"/>
     </row>
     <row r="100" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A100" s="78">
-        <v>47</v>
+      <c r="A100" s="83">
+        <v>49</v>
       </c>
       <c r="B100" s="67"/>
-      <c r="C100" s="80" t="s">
+      <c r="C100" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D100" s="81"/>
-      <c r="E100" s="84" t="s">
+      <c r="D100" s="86"/>
+      <c r="E100" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F100" s="37"/>
@@ -9785,11 +9785,11 @@
       <c r="BN100" s="48"/>
     </row>
     <row r="101" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A101" s="79"/>
+      <c r="A101" s="84"/>
       <c r="B101" s="67"/>
-      <c r="C101" s="82"/>
-      <c r="D101" s="83"/>
-      <c r="E101" s="85"/>
+      <c r="C101" s="91"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="93"/>
       <c r="F101" s="37"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
@@ -9853,15 +9853,15 @@
       <c r="BN101" s="48"/>
     </row>
     <row r="102" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A102" s="78">
-        <v>48</v>
+      <c r="A102" s="83">
+        <v>50</v>
       </c>
       <c r="B102" s="67"/>
-      <c r="C102" s="80" t="s">
+      <c r="C102" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D102" s="81"/>
-      <c r="E102" s="84" t="s">
+      <c r="D102" s="86"/>
+      <c r="E102" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F102" s="38"/>
@@ -9929,11 +9929,11 @@
       <c r="BN102" s="45"/>
     </row>
     <row r="103" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A103" s="79"/>
+      <c r="A103" s="84"/>
       <c r="B103" s="68"/>
-      <c r="C103" s="130"/>
-      <c r="D103" s="131"/>
-      <c r="E103" s="99"/>
+      <c r="C103" s="87"/>
+      <c r="D103" s="88"/>
+      <c r="E103" s="90"/>
       <c r="F103" s="40"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
@@ -9997,17 +9997,17 @@
       <c r="BN103" s="49"/>
     </row>
     <row r="104" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A104" s="78">
-        <v>49</v>
+      <c r="A104" s="83">
+        <v>51</v>
       </c>
       <c r="B104" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C104" s="93" t="s">
+      <c r="C104" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="D104" s="94"/>
-      <c r="E104" s="84" t="s">
+      <c r="D104" s="96"/>
+      <c r="E104" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F104" s="37"/>
@@ -10077,11 +10077,11 @@
       <c r="BN104" s="48"/>
     </row>
     <row r="105" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A105" s="79"/>
+      <c r="A105" s="84"/>
       <c r="B105" s="67"/>
-      <c r="C105" s="82"/>
-      <c r="D105" s="83"/>
-      <c r="E105" s="85"/>
+      <c r="C105" s="91"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="93"/>
       <c r="F105" s="37"/>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
@@ -10145,15 +10145,15 @@
       <c r="BN105" s="48"/>
     </row>
     <row r="106" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A106" s="78">
-        <v>50</v>
+      <c r="A106" s="83">
+        <v>52</v>
       </c>
       <c r="B106" s="67"/>
-      <c r="C106" s="80" t="s">
+      <c r="C106" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="D106" s="81"/>
-      <c r="E106" s="84" t="s">
+      <c r="D106" s="86"/>
+      <c r="E106" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F106" s="37"/>
@@ -10223,11 +10223,11 @@
       <c r="BN106" s="48"/>
     </row>
     <row r="107" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A107" s="79"/>
+      <c r="A107" s="84"/>
       <c r="B107" s="67"/>
-      <c r="C107" s="82"/>
-      <c r="D107" s="83"/>
-      <c r="E107" s="85"/>
+      <c r="C107" s="91"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="93"/>
       <c r="F107" s="37"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
@@ -10291,15 +10291,15 @@
       <c r="BN107" s="48"/>
     </row>
     <row r="108" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A108" s="78">
-        <v>51</v>
+      <c r="A108" s="83">
+        <v>53</v>
       </c>
       <c r="B108" s="67"/>
-      <c r="C108" s="80" t="s">
+      <c r="C108" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D108" s="81"/>
-      <c r="E108" s="84" t="s">
+      <c r="D108" s="86"/>
+      <c r="E108" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F108" s="37"/>
@@ -10369,11 +10369,11 @@
       <c r="BN108" s="48"/>
     </row>
     <row r="109" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A109" s="79"/>
+      <c r="A109" s="84"/>
       <c r="B109" s="67"/>
-      <c r="C109" s="82"/>
-      <c r="D109" s="83"/>
-      <c r="E109" s="85"/>
+      <c r="C109" s="91"/>
+      <c r="D109" s="92"/>
+      <c r="E109" s="93"/>
       <c r="F109" s="37"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
@@ -10437,15 +10437,15 @@
       <c r="BN109" s="48"/>
     </row>
     <row r="110" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A110" s="78">
-        <v>52</v>
+      <c r="A110" s="83">
+        <v>54</v>
       </c>
       <c r="B110" s="67"/>
-      <c r="C110" s="80" t="s">
+      <c r="C110" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="D110" s="81"/>
-      <c r="E110" s="84" t="s">
+      <c r="D110" s="86"/>
+      <c r="E110" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F110" s="37"/>
@@ -10515,11 +10515,11 @@
       <c r="BN110" s="48"/>
     </row>
     <row r="111" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A111" s="79"/>
+      <c r="A111" s="84"/>
       <c r="B111" s="67"/>
-      <c r="C111" s="82"/>
-      <c r="D111" s="83"/>
-      <c r="E111" s="85"/>
+      <c r="C111" s="91"/>
+      <c r="D111" s="92"/>
+      <c r="E111" s="93"/>
       <c r="F111" s="37"/>
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
@@ -10583,15 +10583,15 @@
       <c r="BN111" s="48"/>
     </row>
     <row r="112" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A112" s="78">
-        <v>53</v>
+      <c r="A112" s="83">
+        <v>55</v>
       </c>
       <c r="B112" s="67"/>
-      <c r="C112" s="80" t="s">
+      <c r="C112" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="D112" s="81"/>
-      <c r="E112" s="84" t="s">
+      <c r="D112" s="86"/>
+      <c r="E112" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F112" s="37"/>
@@ -10661,11 +10661,11 @@
       <c r="BN112" s="48"/>
     </row>
     <row r="113" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A113" s="79"/>
+      <c r="A113" s="84"/>
       <c r="B113" s="67"/>
-      <c r="C113" s="82"/>
-      <c r="D113" s="83"/>
-      <c r="E113" s="85"/>
+      <c r="C113" s="91"/>
+      <c r="D113" s="92"/>
+      <c r="E113" s="93"/>
       <c r="F113" s="37"/>
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
@@ -10729,15 +10729,15 @@
       <c r="BN113" s="48"/>
     </row>
     <row r="114" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A114" s="78">
-        <v>54</v>
+      <c r="A114" s="83">
+        <v>56</v>
       </c>
       <c r="B114" s="67"/>
-      <c r="C114" s="80" t="s">
+      <c r="C114" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="D114" s="81"/>
-      <c r="E114" s="84" t="s">
+      <c r="D114" s="86"/>
+      <c r="E114" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F114" s="37"/>
@@ -10805,11 +10805,11 @@
       <c r="BN114" s="48"/>
     </row>
     <row r="115" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A115" s="79"/>
+      <c r="A115" s="84"/>
       <c r="B115" s="67"/>
-      <c r="C115" s="82"/>
-      <c r="D115" s="83"/>
-      <c r="E115" s="85"/>
+      <c r="C115" s="91"/>
+      <c r="D115" s="92"/>
+      <c r="E115" s="93"/>
       <c r="F115" s="37"/>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
@@ -10873,15 +10873,15 @@
       <c r="BN115" s="48"/>
     </row>
     <row r="116" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A116" s="78">
-        <v>55</v>
+      <c r="A116" s="83">
+        <v>57</v>
       </c>
       <c r="B116" s="67"/>
-      <c r="C116" s="80" t="s">
+      <c r="C116" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="D116" s="81"/>
-      <c r="E116" s="84" t="s">
+      <c r="D116" s="86"/>
+      <c r="E116" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F116" s="37"/>
@@ -10949,11 +10949,11 @@
       <c r="BN116" s="48"/>
     </row>
     <row r="117" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A117" s="79"/>
+      <c r="A117" s="84"/>
       <c r="B117" s="67"/>
-      <c r="C117" s="82"/>
-      <c r="D117" s="83"/>
-      <c r="E117" s="85"/>
+      <c r="C117" s="91"/>
+      <c r="D117" s="92"/>
+      <c r="E117" s="93"/>
       <c r="F117" s="37"/>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
@@ -11017,15 +11017,15 @@
       <c r="BN117" s="48"/>
     </row>
     <row r="118" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A118" s="78">
-        <v>56</v>
+      <c r="A118" s="83">
+        <v>58</v>
       </c>
       <c r="B118" s="67"/>
-      <c r="C118" s="80" t="s">
+      <c r="C118" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D118" s="81"/>
-      <c r="E118" s="84" t="s">
+      <c r="D118" s="86"/>
+      <c r="E118" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F118" s="37"/>
@@ -11093,11 +11093,11 @@
       <c r="BN118" s="48"/>
     </row>
     <row r="119" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A119" s="79"/>
+      <c r="A119" s="84"/>
       <c r="B119" s="67"/>
-      <c r="C119" s="82"/>
-      <c r="D119" s="83"/>
-      <c r="E119" s="85"/>
+      <c r="C119" s="91"/>
+      <c r="D119" s="92"/>
+      <c r="E119" s="93"/>
       <c r="F119" s="37"/>
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
@@ -11161,15 +11161,15 @@
       <c r="BN119" s="48"/>
     </row>
     <row r="120" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A120" s="78">
-        <v>57</v>
+      <c r="A120" s="83">
+        <v>59</v>
       </c>
       <c r="B120" s="67"/>
-      <c r="C120" s="80" t="s">
+      <c r="C120" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="D120" s="81"/>
-      <c r="E120" s="84" t="s">
+      <c r="D120" s="86"/>
+      <c r="E120" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F120" s="37"/>
@@ -11223,7 +11223,7 @@
       <c r="BB120" s="15"/>
       <c r="BC120" s="8"/>
       <c r="BD120" s="8"/>
-      <c r="BE120" s="137" t="s">
+      <c r="BE120" s="82" t="s">
         <v>26</v>
       </c>
       <c r="BF120" s="8"/>
@@ -11237,11 +11237,11 @@
       <c r="BN120" s="48"/>
     </row>
     <row r="121" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A121" s="79"/>
+      <c r="A121" s="84"/>
       <c r="B121" s="67"/>
-      <c r="C121" s="82"/>
-      <c r="D121" s="83"/>
-      <c r="E121" s="85"/>
+      <c r="C121" s="91"/>
+      <c r="D121" s="92"/>
+      <c r="E121" s="93"/>
       <c r="F121" s="37"/>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
@@ -11305,15 +11305,15 @@
       <c r="BN121" s="48"/>
     </row>
     <row r="122" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A122" s="78">
-        <v>58</v>
+      <c r="A122" s="83">
+        <v>60</v>
       </c>
       <c r="B122" s="67"/>
-      <c r="C122" s="80" t="s">
+      <c r="C122" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D122" s="81"/>
-      <c r="E122" s="84" t="s">
+      <c r="D122" s="86"/>
+      <c r="E122" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F122" s="37"/>
@@ -11381,11 +11381,11 @@
       <c r="BN122" s="48"/>
     </row>
     <row r="123" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A123" s="79"/>
+      <c r="A123" s="84"/>
       <c r="B123" s="67"/>
-      <c r="C123" s="82"/>
-      <c r="D123" s="83"/>
-      <c r="E123" s="85"/>
+      <c r="C123" s="91"/>
+      <c r="D123" s="92"/>
+      <c r="E123" s="93"/>
       <c r="F123" s="37"/>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
@@ -11449,15 +11449,15 @@
       <c r="BN123" s="48"/>
     </row>
     <row r="124" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A124" s="78">
-        <v>59</v>
+      <c r="A124" s="83">
+        <v>61</v>
       </c>
       <c r="B124" s="67"/>
-      <c r="C124" s="80" t="s">
+      <c r="C124" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="D124" s="81"/>
-      <c r="E124" s="84" t="s">
+      <c r="D124" s="86"/>
+      <c r="E124" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F124" s="37"/>
@@ -11525,11 +11525,11 @@
       <c r="BN124" s="48"/>
     </row>
     <row r="125" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A125" s="79"/>
+      <c r="A125" s="84"/>
       <c r="B125" s="67"/>
-      <c r="C125" s="82"/>
-      <c r="D125" s="83"/>
-      <c r="E125" s="85"/>
+      <c r="C125" s="91"/>
+      <c r="D125" s="92"/>
+      <c r="E125" s="93"/>
       <c r="F125" s="37"/>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
@@ -11593,15 +11593,15 @@
       <c r="BN125" s="48"/>
     </row>
     <row r="126" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A126" s="78">
-        <v>60</v>
+      <c r="A126" s="83">
+        <v>62</v>
       </c>
       <c r="B126" s="67"/>
-      <c r="C126" s="80" t="s">
+      <c r="C126" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="D126" s="81"/>
-      <c r="E126" s="84" t="s">
+      <c r="D126" s="86"/>
+      <c r="E126" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F126" s="37"/>
@@ -11656,7 +11656,7 @@
       <c r="BC126" s="8"/>
       <c r="BD126" s="8"/>
       <c r="BE126" s="8"/>
-      <c r="BF126" s="137" t="s">
+      <c r="BF126" s="82" t="s">
         <v>26</v>
       </c>
       <c r="BG126" s="8"/>
@@ -11669,11 +11669,11 @@
       <c r="BN126" s="48"/>
     </row>
     <row r="127" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A127" s="79"/>
+      <c r="A127" s="84"/>
       <c r="B127" s="67"/>
-      <c r="C127" s="82"/>
-      <c r="D127" s="83"/>
-      <c r="E127" s="85"/>
+      <c r="C127" s="91"/>
+      <c r="D127" s="92"/>
+      <c r="E127" s="93"/>
       <c r="F127" s="37"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
@@ -11737,15 +11737,15 @@
       <c r="BN127" s="48"/>
     </row>
     <row r="128" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A128" s="78">
-        <v>61</v>
+      <c r="A128" s="83">
+        <v>63</v>
       </c>
       <c r="B128" s="67"/>
-      <c r="C128" s="80" t="s">
+      <c r="C128" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="D128" s="81"/>
-      <c r="E128" s="84" t="s">
+      <c r="D128" s="86"/>
+      <c r="E128" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F128" s="37"/>
@@ -11800,7 +11800,7 @@
       <c r="BC128" s="8"/>
       <c r="BD128" s="8"/>
       <c r="BE128" s="8"/>
-      <c r="BF128" s="137" t="s">
+      <c r="BF128" s="82" t="s">
         <v>26</v>
       </c>
       <c r="BG128" s="8"/>
@@ -11813,11 +11813,11 @@
       <c r="BN128" s="48"/>
     </row>
     <row r="129" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A129" s="79"/>
+      <c r="A129" s="84"/>
       <c r="B129" s="67"/>
-      <c r="C129" s="82"/>
-      <c r="D129" s="83"/>
-      <c r="E129" s="85"/>
+      <c r="C129" s="91"/>
+      <c r="D129" s="92"/>
+      <c r="E129" s="93"/>
       <c r="F129" s="37"/>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
@@ -11881,15 +11881,15 @@
       <c r="BN129" s="48"/>
     </row>
     <row r="130" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A130" s="78">
-        <v>62</v>
+      <c r="A130" s="83">
+        <v>64</v>
       </c>
       <c r="B130" s="67"/>
-      <c r="C130" s="80" t="s">
+      <c r="C130" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D130" s="81"/>
-      <c r="E130" s="84" t="s">
+      <c r="D130" s="86"/>
+      <c r="E130" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F130" s="37"/>
@@ -11957,11 +11957,11 @@
       <c r="BN130" s="48"/>
     </row>
     <row r="131" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A131" s="79"/>
+      <c r="A131" s="84"/>
       <c r="B131" s="67"/>
-      <c r="C131" s="82"/>
-      <c r="D131" s="83"/>
-      <c r="E131" s="85"/>
+      <c r="C131" s="91"/>
+      <c r="D131" s="92"/>
+      <c r="E131" s="93"/>
       <c r="F131" s="37"/>
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
@@ -12025,15 +12025,15 @@
       <c r="BN131" s="48"/>
     </row>
     <row r="132" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A132" s="78">
-        <v>63</v>
+      <c r="A132" s="83">
+        <v>65</v>
       </c>
       <c r="B132" s="67"/>
-      <c r="C132" s="80" t="s">
+      <c r="C132" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D132" s="81"/>
-      <c r="E132" s="84" t="s">
+      <c r="D132" s="86"/>
+      <c r="E132" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F132" s="37"/>
@@ -12101,11 +12101,11 @@
       <c r="BN132" s="48"/>
     </row>
     <row r="133" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A133" s="79"/>
+      <c r="A133" s="84"/>
       <c r="B133" s="67"/>
-      <c r="C133" s="82"/>
-      <c r="D133" s="83"/>
-      <c r="E133" s="85"/>
+      <c r="C133" s="91"/>
+      <c r="D133" s="92"/>
+      <c r="E133" s="93"/>
       <c r="F133" s="37"/>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
@@ -12169,15 +12169,15 @@
       <c r="BN133" s="48"/>
     </row>
     <row r="134" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A134" s="78">
-        <v>64</v>
+      <c r="A134" s="83">
+        <v>66</v>
       </c>
       <c r="B134" s="67"/>
-      <c r="C134" s="80" t="s">
+      <c r="C134" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D134" s="81"/>
-      <c r="E134" s="84" t="s">
+      <c r="D134" s="86"/>
+      <c r="E134" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F134" s="37"/>
@@ -12245,11 +12245,11 @@
       <c r="BN134" s="48"/>
     </row>
     <row r="135" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A135" s="79"/>
+      <c r="A135" s="84"/>
       <c r="B135" s="67"/>
-      <c r="C135" s="82"/>
-      <c r="D135" s="83"/>
-      <c r="E135" s="85"/>
+      <c r="C135" s="91"/>
+      <c r="D135" s="92"/>
+      <c r="E135" s="93"/>
       <c r="F135" s="37"/>
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
@@ -12313,15 +12313,15 @@
       <c r="BN135" s="48"/>
     </row>
     <row r="136" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A136" s="78">
-        <v>65</v>
+      <c r="A136" s="83">
+        <v>67</v>
       </c>
       <c r="B136" s="67"/>
-      <c r="C136" s="80" t="s">
+      <c r="C136" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D136" s="81"/>
-      <c r="E136" s="84" t="s">
+      <c r="D136" s="86"/>
+      <c r="E136" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F136" s="38"/>
@@ -12389,11 +12389,11 @@
       <c r="BN136" s="45"/>
     </row>
     <row r="137" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A137" s="79"/>
+      <c r="A137" s="84"/>
       <c r="B137" s="68"/>
-      <c r="C137" s="130"/>
-      <c r="D137" s="131"/>
-      <c r="E137" s="99"/>
+      <c r="C137" s="87"/>
+      <c r="D137" s="88"/>
+      <c r="E137" s="90"/>
       <c r="F137" s="40"/>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
@@ -12457,17 +12457,17 @@
       <c r="BN137" s="49"/>
     </row>
     <row r="138" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A138" s="78">
-        <v>49</v>
+      <c r="A138" s="83">
+        <v>68</v>
       </c>
       <c r="B138" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C138" s="93" t="s">
+      <c r="C138" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="D138" s="94"/>
-      <c r="E138" s="84" t="s">
+      <c r="D138" s="96"/>
+      <c r="E138" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F138" s="37"/>
@@ -12537,11 +12537,11 @@
       <c r="BN138" s="48"/>
     </row>
     <row r="139" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A139" s="79"/>
+      <c r="A139" s="84"/>
       <c r="B139" s="67"/>
-      <c r="C139" s="82"/>
-      <c r="D139" s="83"/>
-      <c r="E139" s="85"/>
+      <c r="C139" s="91"/>
+      <c r="D139" s="92"/>
+      <c r="E139" s="93"/>
       <c r="F139" s="37"/>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
@@ -12605,15 +12605,15 @@
       <c r="BN139" s="48"/>
     </row>
     <row r="140" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A140" s="78">
-        <v>50</v>
+      <c r="A140" s="83">
+        <v>69</v>
       </c>
       <c r="B140" s="67"/>
-      <c r="C140" s="80" t="s">
+      <c r="C140" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="D140" s="81"/>
-      <c r="E140" s="84" t="s">
+      <c r="D140" s="86"/>
+      <c r="E140" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F140" s="37"/>
@@ -12683,11 +12683,11 @@
       <c r="BN140" s="48"/>
     </row>
     <row r="141" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A141" s="79"/>
+      <c r="A141" s="84"/>
       <c r="B141" s="67"/>
-      <c r="C141" s="82"/>
-      <c r="D141" s="83"/>
-      <c r="E141" s="85"/>
+      <c r="C141" s="91"/>
+      <c r="D141" s="92"/>
+      <c r="E141" s="93"/>
       <c r="F141" s="37"/>
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
@@ -12751,15 +12751,15 @@
       <c r="BN141" s="48"/>
     </row>
     <row r="142" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A142" s="78">
-        <v>51</v>
+      <c r="A142" s="83">
+        <v>70</v>
       </c>
       <c r="B142" s="67"/>
-      <c r="C142" s="80" t="s">
+      <c r="C142" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D142" s="81"/>
-      <c r="E142" s="84" t="s">
+      <c r="D142" s="86"/>
+      <c r="E142" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F142" s="37"/>
@@ -12829,11 +12829,11 @@
       <c r="BN142" s="48"/>
     </row>
     <row r="143" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A143" s="79"/>
+      <c r="A143" s="84"/>
       <c r="B143" s="67"/>
-      <c r="C143" s="82"/>
-      <c r="D143" s="83"/>
-      <c r="E143" s="85"/>
+      <c r="C143" s="91"/>
+      <c r="D143" s="92"/>
+      <c r="E143" s="93"/>
       <c r="F143" s="37"/>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
@@ -12897,15 +12897,15 @@
       <c r="BN143" s="48"/>
     </row>
     <row r="144" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A144" s="78">
-        <v>52</v>
+      <c r="A144" s="83">
+        <v>71</v>
       </c>
       <c r="B144" s="67"/>
-      <c r="C144" s="80" t="s">
+      <c r="C144" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="D144" s="81"/>
-      <c r="E144" s="84" t="s">
+      <c r="D144" s="86"/>
+      <c r="E144" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F144" s="37"/>
@@ -12975,11 +12975,11 @@
       <c r="BN144" s="48"/>
     </row>
     <row r="145" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A145" s="79"/>
+      <c r="A145" s="84"/>
       <c r="B145" s="67"/>
-      <c r="C145" s="82"/>
-      <c r="D145" s="83"/>
-      <c r="E145" s="85"/>
+      <c r="C145" s="91"/>
+      <c r="D145" s="92"/>
+      <c r="E145" s="93"/>
       <c r="F145" s="37"/>
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
@@ -13043,15 +13043,15 @@
       <c r="BN145" s="48"/>
     </row>
     <row r="146" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A146" s="78">
-        <v>53</v>
+      <c r="A146" s="83">
+        <v>72</v>
       </c>
       <c r="B146" s="67"/>
-      <c r="C146" s="80" t="s">
+      <c r="C146" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="D146" s="81"/>
-      <c r="E146" s="84" t="s">
+      <c r="D146" s="86"/>
+      <c r="E146" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F146" s="37"/>
@@ -13121,11 +13121,11 @@
       <c r="BN146" s="48"/>
     </row>
     <row r="147" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A147" s="79"/>
+      <c r="A147" s="84"/>
       <c r="B147" s="67"/>
-      <c r="C147" s="82"/>
-      <c r="D147" s="83"/>
-      <c r="E147" s="85"/>
+      <c r="C147" s="91"/>
+      <c r="D147" s="92"/>
+      <c r="E147" s="93"/>
       <c r="F147" s="37"/>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
@@ -13189,15 +13189,15 @@
       <c r="BN147" s="48"/>
     </row>
     <row r="148" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A148" s="78">
-        <v>54</v>
+      <c r="A148" s="83">
+        <v>73</v>
       </c>
       <c r="B148" s="67"/>
-      <c r="C148" s="80" t="s">
+      <c r="C148" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="D148" s="81"/>
-      <c r="E148" s="84" t="s">
+      <c r="D148" s="86"/>
+      <c r="E148" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F148" s="37"/>
@@ -13256,7 +13256,7 @@
       <c r="BG148" s="8"/>
       <c r="BH148" s="11"/>
       <c r="BI148" s="15"/>
-      <c r="BJ148" s="137" t="s">
+      <c r="BJ148" s="82" t="s">
         <v>26</v>
       </c>
       <c r="BK148" s="8"/>
@@ -13265,11 +13265,11 @@
       <c r="BN148" s="48"/>
     </row>
     <row r="149" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A149" s="79"/>
+      <c r="A149" s="84"/>
       <c r="B149" s="67"/>
-      <c r="C149" s="82"/>
-      <c r="D149" s="83"/>
-      <c r="E149" s="85"/>
+      <c r="C149" s="91"/>
+      <c r="D149" s="92"/>
+      <c r="E149" s="93"/>
       <c r="F149" s="37"/>
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
@@ -13333,15 +13333,15 @@
       <c r="BN149" s="48"/>
     </row>
     <row r="150" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A150" s="78">
-        <v>55</v>
+      <c r="A150" s="83">
+        <v>74</v>
       </c>
       <c r="B150" s="67"/>
-      <c r="C150" s="80" t="s">
+      <c r="C150" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="D150" s="81"/>
-      <c r="E150" s="84" t="s">
+      <c r="D150" s="86"/>
+      <c r="E150" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F150" s="37"/>
@@ -13409,11 +13409,11 @@
       <c r="BN150" s="48"/>
     </row>
     <row r="151" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A151" s="79"/>
+      <c r="A151" s="84"/>
       <c r="B151" s="67"/>
-      <c r="C151" s="82"/>
-      <c r="D151" s="83"/>
-      <c r="E151" s="85"/>
+      <c r="C151" s="91"/>
+      <c r="D151" s="92"/>
+      <c r="E151" s="93"/>
       <c r="F151" s="37"/>
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
@@ -13477,15 +13477,15 @@
       <c r="BN151" s="48"/>
     </row>
     <row r="152" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A152" s="78">
-        <v>56</v>
+      <c r="A152" s="83">
+        <v>75</v>
       </c>
       <c r="B152" s="67"/>
-      <c r="C152" s="80" t="s">
+      <c r="C152" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D152" s="81"/>
-      <c r="E152" s="84" t="s">
+      <c r="D152" s="86"/>
+      <c r="E152" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F152" s="37"/>
@@ -13544,7 +13544,7 @@
       <c r="BG152" s="8"/>
       <c r="BH152" s="11"/>
       <c r="BI152" s="15"/>
-      <c r="BJ152" s="137" t="s">
+      <c r="BJ152" s="82" t="s">
         <v>26</v>
       </c>
       <c r="BK152" s="8"/>
@@ -13553,11 +13553,11 @@
       <c r="BN152" s="48"/>
     </row>
     <row r="153" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A153" s="79"/>
+      <c r="A153" s="84"/>
       <c r="B153" s="67"/>
-      <c r="C153" s="82"/>
-      <c r="D153" s="83"/>
-      <c r="E153" s="85"/>
+      <c r="C153" s="91"/>
+      <c r="D153" s="92"/>
+      <c r="E153" s="93"/>
       <c r="F153" s="37"/>
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
@@ -13621,15 +13621,15 @@
       <c r="BN153" s="48"/>
     </row>
     <row r="154" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A154" s="78">
-        <v>57</v>
+      <c r="A154" s="83">
+        <v>76</v>
       </c>
       <c r="B154" s="67"/>
-      <c r="C154" s="80" t="s">
+      <c r="C154" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="D154" s="81"/>
-      <c r="E154" s="84" t="s">
+      <c r="D154" s="86"/>
+      <c r="E154" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F154" s="37"/>
@@ -13697,11 +13697,11 @@
       <c r="BN154" s="48"/>
     </row>
     <row r="155" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A155" s="79"/>
+      <c r="A155" s="84"/>
       <c r="B155" s="67"/>
-      <c r="C155" s="82"/>
-      <c r="D155" s="83"/>
-      <c r="E155" s="85"/>
+      <c r="C155" s="91"/>
+      <c r="D155" s="92"/>
+      <c r="E155" s="93"/>
       <c r="F155" s="37"/>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
@@ -13765,15 +13765,15 @@
       <c r="BN155" s="48"/>
     </row>
     <row r="156" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A156" s="78">
-        <v>58</v>
+      <c r="A156" s="83">
+        <v>77</v>
       </c>
       <c r="B156" s="67"/>
-      <c r="C156" s="80" t="s">
+      <c r="C156" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D156" s="81"/>
-      <c r="E156" s="84" t="s">
+      <c r="D156" s="86"/>
+      <c r="E156" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F156" s="37"/>
@@ -13841,11 +13841,11 @@
       <c r="BN156" s="48"/>
     </row>
     <row r="157" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A157" s="79"/>
+      <c r="A157" s="84"/>
       <c r="B157" s="67"/>
-      <c r="C157" s="82"/>
-      <c r="D157" s="83"/>
-      <c r="E157" s="85"/>
+      <c r="C157" s="91"/>
+      <c r="D157" s="92"/>
+      <c r="E157" s="93"/>
       <c r="F157" s="37"/>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
@@ -13909,15 +13909,15 @@
       <c r="BN157" s="48"/>
     </row>
     <row r="158" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A158" s="78">
-        <v>59</v>
+      <c r="A158" s="83">
+        <v>78</v>
       </c>
       <c r="B158" s="67"/>
-      <c r="C158" s="80" t="s">
+      <c r="C158" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="D158" s="81"/>
-      <c r="E158" s="84" t="s">
+      <c r="D158" s="86"/>
+      <c r="E158" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F158" s="37"/>
@@ -13985,11 +13985,11 @@
       <c r="BN158" s="48"/>
     </row>
     <row r="159" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A159" s="79"/>
+      <c r="A159" s="84"/>
       <c r="B159" s="67"/>
-      <c r="C159" s="82"/>
-      <c r="D159" s="83"/>
-      <c r="E159" s="85"/>
+      <c r="C159" s="91"/>
+      <c r="D159" s="92"/>
+      <c r="E159" s="93"/>
       <c r="F159" s="37"/>
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
@@ -14053,15 +14053,15 @@
       <c r="BN159" s="48"/>
     </row>
     <row r="160" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A160" s="78">
-        <v>60</v>
+      <c r="A160" s="83">
+        <v>79</v>
       </c>
       <c r="B160" s="67"/>
-      <c r="C160" s="80" t="s">
+      <c r="C160" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="D160" s="81"/>
-      <c r="E160" s="84" t="s">
+      <c r="D160" s="86"/>
+      <c r="E160" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F160" s="37"/>
@@ -14129,11 +14129,11 @@
       <c r="BN160" s="48"/>
     </row>
     <row r="161" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A161" s="79"/>
+      <c r="A161" s="84"/>
       <c r="B161" s="67"/>
-      <c r="C161" s="82"/>
-      <c r="D161" s="83"/>
-      <c r="E161" s="85"/>
+      <c r="C161" s="91"/>
+      <c r="D161" s="92"/>
+      <c r="E161" s="93"/>
       <c r="F161" s="37"/>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
@@ -14197,15 +14197,15 @@
       <c r="BN161" s="48"/>
     </row>
     <row r="162" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A162" s="78">
-        <v>61</v>
+      <c r="A162" s="83">
+        <v>80</v>
       </c>
       <c r="B162" s="67"/>
-      <c r="C162" s="80" t="s">
+      <c r="C162" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="D162" s="81"/>
-      <c r="E162" s="84" t="s">
+      <c r="D162" s="86"/>
+      <c r="E162" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F162" s="37"/>
@@ -14273,11 +14273,11 @@
       <c r="BN162" s="48"/>
     </row>
     <row r="163" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A163" s="79"/>
+      <c r="A163" s="84"/>
       <c r="B163" s="67"/>
-      <c r="C163" s="82"/>
-      <c r="D163" s="83"/>
-      <c r="E163" s="85"/>
+      <c r="C163" s="91"/>
+      <c r="D163" s="92"/>
+      <c r="E163" s="93"/>
       <c r="F163" s="37"/>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
@@ -14341,15 +14341,15 @@
       <c r="BN163" s="48"/>
     </row>
     <row r="164" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A164" s="78">
-        <v>62</v>
+      <c r="A164" s="83">
+        <v>81</v>
       </c>
       <c r="B164" s="67"/>
-      <c r="C164" s="80" t="s">
+      <c r="C164" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D164" s="81"/>
-      <c r="E164" s="84" t="s">
+      <c r="D164" s="86"/>
+      <c r="E164" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F164" s="37"/>
@@ -14413,15 +14413,15 @@
       <c r="BL164" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="BM164" s="136"/>
+      <c r="BM164" s="81"/>
       <c r="BN164" s="48"/>
     </row>
     <row r="165" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A165" s="79"/>
+      <c r="A165" s="84"/>
       <c r="B165" s="67"/>
-      <c r="C165" s="82"/>
-      <c r="D165" s="83"/>
-      <c r="E165" s="85"/>
+      <c r="C165" s="91"/>
+      <c r="D165" s="92"/>
+      <c r="E165" s="93"/>
       <c r="F165" s="37"/>
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
@@ -14485,15 +14485,15 @@
       <c r="BN165" s="48"/>
     </row>
     <row r="166" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A166" s="78">
-        <v>63</v>
+      <c r="A166" s="83">
+        <v>82</v>
       </c>
       <c r="B166" s="67"/>
-      <c r="C166" s="80" t="s">
+      <c r="C166" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D166" s="81"/>
-      <c r="E166" s="84" t="s">
+      <c r="D166" s="86"/>
+      <c r="E166" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F166" s="37"/>
@@ -14561,11 +14561,11 @@
       <c r="BN166" s="48"/>
     </row>
     <row r="167" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A167" s="79"/>
+      <c r="A167" s="84"/>
       <c r="B167" s="67"/>
-      <c r="C167" s="82"/>
-      <c r="D167" s="83"/>
-      <c r="E167" s="85"/>
+      <c r="C167" s="91"/>
+      <c r="D167" s="92"/>
+      <c r="E167" s="93"/>
       <c r="F167" s="37"/>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
@@ -14629,15 +14629,15 @@
       <c r="BN167" s="48"/>
     </row>
     <row r="168" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A168" s="78">
-        <v>64</v>
+      <c r="A168" s="83">
+        <v>83</v>
       </c>
       <c r="B168" s="67"/>
-      <c r="C168" s="80" t="s">
+      <c r="C168" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D168" s="81"/>
-      <c r="E168" s="84" t="s">
+      <c r="D168" s="86"/>
+      <c r="E168" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F168" s="37"/>
@@ -14698,18 +14698,18 @@
       <c r="BI168" s="15"/>
       <c r="BJ168" s="8"/>
       <c r="BK168" s="8"/>
-      <c r="BL168" s="137" t="s">
+      <c r="BL168" s="82" t="s">
         <v>26</v>
       </c>
       <c r="BM168" s="8"/>
       <c r="BN168" s="48"/>
     </row>
     <row r="169" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A169" s="79"/>
+      <c r="A169" s="84"/>
       <c r="B169" s="67"/>
-      <c r="C169" s="82"/>
-      <c r="D169" s="83"/>
-      <c r="E169" s="85"/>
+      <c r="C169" s="91"/>
+      <c r="D169" s="92"/>
+      <c r="E169" s="93"/>
       <c r="F169" s="37"/>
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
@@ -14773,15 +14773,15 @@
       <c r="BN169" s="48"/>
     </row>
     <row r="170" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A170" s="78">
-        <v>65</v>
+      <c r="A170" s="83">
+        <v>84</v>
       </c>
       <c r="B170" s="67"/>
-      <c r="C170" s="80" t="s">
+      <c r="C170" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D170" s="81"/>
-      <c r="E170" s="84" t="s">
+      <c r="D170" s="86"/>
+      <c r="E170" s="89" t="s">
         <v>25</v>
       </c>
       <c r="F170" s="38"/>
@@ -14849,11 +14849,11 @@
       <c r="BN170" s="45"/>
     </row>
     <row r="171" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A171" s="79"/>
+      <c r="A171" s="84"/>
       <c r="B171" s="68"/>
-      <c r="C171" s="130"/>
-      <c r="D171" s="131"/>
-      <c r="E171" s="99"/>
+      <c r="C171" s="87"/>
+      <c r="D171" s="88"/>
+      <c r="E171" s="90"/>
       <c r="F171" s="40"/>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
@@ -14954,182 +14954,61 @@
     </row>
   </sheetData>
   <mergeCells count="258">
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="C170:D171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="C164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="C166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="C168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="C158:D159"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="C160:D161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="C162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="C152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="C154:D155"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="C156:D157"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="C146:D147"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="C148:D149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="C150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="C140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="C142:D143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="C144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="C80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="C138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="C134:D135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="C136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="C130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="C132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="C126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="C128:D129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="C122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="C124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="C116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="C120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="C112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="C118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="C114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="C108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="C110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="C106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="C102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="C98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="C100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="C94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="C96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="C90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="C92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="C86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="C88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="C84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="C82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="C74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="C76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="C78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="C72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="C70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="AJ1:BM1"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F1:AI1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="C58:D59"/>
     <mergeCell ref="E58:E59"/>
@@ -15154,64 +15033,185 @@
     <mergeCell ref="E46:E47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="C48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="C72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="C74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="C76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="C78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="C86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="C88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="C84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="C94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="C96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="C90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="C92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="C106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="C102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="C98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="C100:D101"/>
+    <mergeCell ref="E100:E101"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="C104:D105"/>
     <mergeCell ref="E104:E105"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F1:AI1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="AJ1:BM1"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="C118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="C114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="C108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="C110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="C134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="C130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="C132:D133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="C126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="C128:D129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="C122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="C80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="C138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="C136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="C124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="C116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="C120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="C112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="C140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="C142:D143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="C144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="C146:D147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="C148:D149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="C150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="C152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="C154:D155"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="C156:D157"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="C158:D159"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="C160:D161"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="C162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="C170:D171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="C164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="C166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="C168:D169"/>
+    <mergeCell ref="E168:E169"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\演習プロジェクト\000-要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\disstrg\業務処理\戦略本部\01_一般用\Ｊａｖａ選抜研修\新人・強化研修_2025\参加メンバー\新卒メンバー\山拓海\10_レビュー依頼\000_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F452EE-F5EB-40C3-83AF-B81089FA7FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A849F81-EA7A-4EBE-A737-C0ED88ADDDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="82">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -427,10 +427,6 @@
   </si>
   <si>
     <t>アスリーレビュー</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>15%</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1331,7 +1327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1567,6 +1563,12 @@
     <xf numFmtId="49" fontId="2" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1579,28 +1581,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1608,6 +1607,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1627,6 +1629,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1641,15 +1652,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2285,7 +2287,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:A3"/>
+      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2300,92 +2302,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="118"/>
-      <c r="E1" s="123" t="s">
+      <c r="D1" s="120"/>
+      <c r="E1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="108">
+      <c r="F1" s="105">
         <v>45901</v>
       </c>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="109"/>
-      <c r="AH1" s="109"/>
-      <c r="AI1" s="110"/>
-      <c r="AJ1" s="108">
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="105">
         <v>45931</v>
       </c>
-      <c r="AK1" s="109"/>
-      <c r="AL1" s="109"/>
-      <c r="AM1" s="109"/>
-      <c r="AN1" s="109"/>
-      <c r="AO1" s="109"/>
-      <c r="AP1" s="109"/>
-      <c r="AQ1" s="109"/>
-      <c r="AR1" s="109"/>
-      <c r="AS1" s="109"/>
-      <c r="AT1" s="109"/>
-      <c r="AU1" s="109"/>
-      <c r="AV1" s="109"/>
-      <c r="AW1" s="109"/>
-      <c r="AX1" s="109"/>
-      <c r="AY1" s="109"/>
-      <c r="AZ1" s="109"/>
-      <c r="BA1" s="109"/>
-      <c r="BB1" s="109"/>
-      <c r="BC1" s="109"/>
-      <c r="BD1" s="109"/>
-      <c r="BE1" s="109"/>
-      <c r="BF1" s="109"/>
-      <c r="BG1" s="109"/>
-      <c r="BH1" s="109"/>
-      <c r="BI1" s="109"/>
-      <c r="BJ1" s="109"/>
-      <c r="BK1" s="109"/>
-      <c r="BL1" s="109"/>
-      <c r="BM1" s="109"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="106"/>
+      <c r="AM1" s="106"/>
+      <c r="AN1" s="106"/>
+      <c r="AO1" s="106"/>
+      <c r="AP1" s="106"/>
+      <c r="AQ1" s="106"/>
+      <c r="AR1" s="106"/>
+      <c r="AS1" s="106"/>
+      <c r="AT1" s="106"/>
+      <c r="AU1" s="106"/>
+      <c r="AV1" s="106"/>
+      <c r="AW1" s="106"/>
+      <c r="AX1" s="106"/>
+      <c r="AY1" s="106"/>
+      <c r="AZ1" s="106"/>
+      <c r="BA1" s="106"/>
+      <c r="BB1" s="106"/>
+      <c r="BC1" s="106"/>
+      <c r="BD1" s="106"/>
+      <c r="BE1" s="106"/>
+      <c r="BF1" s="106"/>
+      <c r="BG1" s="106"/>
+      <c r="BH1" s="106"/>
+      <c r="BI1" s="106"/>
+      <c r="BJ1" s="106"/>
+      <c r="BK1" s="106"/>
+      <c r="BL1" s="106"/>
+      <c r="BM1" s="106"/>
       <c r="BN1" s="50"/>
       <c r="BO1" s="3"/>
     </row>
     <row r="2" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A2" s="112"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="124"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="126"/>
       <c r="F2" s="33">
         <v>42156</v>
       </c>
@@ -2572,11 +2574,11 @@
       <c r="BO2" s="3"/>
     </row>
     <row r="3" spans="1:67" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="125"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="127"/>
       <c r="F3" s="35" t="s">
         <v>10</v>
       </c>
@@ -2763,17 +2765,17 @@
       <c r="BO3" s="32"/>
     </row>
     <row r="4" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="83">
+      <c r="A4" s="85">
         <v>1</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="130" t="s">
+      <c r="D4" s="129"/>
+      <c r="E4" s="132" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="51"/>
@@ -2841,11 +2843,11 @@
       <c r="BN4" s="44"/>
     </row>
     <row r="5" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="84"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="25"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="131"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="133"/>
       <c r="F5" s="61"/>
       <c r="G5" s="65"/>
       <c r="H5" s="65"/>
@@ -2853,7 +2855,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="20"/>
       <c r="L5" s="21"/>
-      <c r="M5" s="19"/>
+      <c r="M5" s="65"/>
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
@@ -2909,17 +2911,17 @@
       <c r="BN5" s="45"/>
     </row>
     <row r="6" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="83">
+      <c r="A6" s="85">
         <v>2</v>
       </c>
       <c r="B6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="107" t="s">
+      <c r="D6" s="109"/>
+      <c r="E6" s="112" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="26"/>
@@ -2987,11 +2989,11 @@
       <c r="BN6" s="46"/>
     </row>
     <row r="7" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="84"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="67"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="90"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="39"/>
       <c r="G7" s="62"/>
       <c r="H7" s="29"/>
@@ -2999,7 +3001,7 @@
       <c r="J7" s="29"/>
       <c r="K7" s="30"/>
       <c r="L7" s="31"/>
-      <c r="M7" s="29"/>
+      <c r="M7" s="62"/>
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
@@ -3055,15 +3057,15 @@
       <c r="BN7" s="47"/>
     </row>
     <row r="8" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="83">
+      <c r="A8" s="85">
         <v>3</v>
       </c>
       <c r="B8" s="67"/>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="107" t="s">
+      <c r="D8" s="109"/>
+      <c r="E8" s="112" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="26"/>
@@ -3131,11 +3133,11 @@
       <c r="BN8" s="46"/>
     </row>
     <row r="9" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="84"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="67"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="90"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="39"/>
       <c r="G9" s="62"/>
       <c r="H9" s="63"/>
@@ -3143,7 +3145,7 @@
       <c r="J9" s="29"/>
       <c r="K9" s="30"/>
       <c r="L9" s="31"/>
-      <c r="M9" s="29"/>
+      <c r="M9" s="62"/>
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
@@ -3199,16 +3201,16 @@
       <c r="BN9" s="47"/>
     </row>
     <row r="10" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="83">
+      <c r="A10" s="85">
         <v>4</v>
       </c>
       <c r="B10" s="67"/>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="107" t="s">
-        <v>62</v>
+      <c r="D10" s="109"/>
+      <c r="E10" s="112" t="s">
+        <v>24</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="7"/>
@@ -3275,11 +3277,11 @@
       <c r="BN10" s="46"/>
     </row>
     <row r="11" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="84"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="67"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="90"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="95"/>
       <c r="F11" s="39"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
@@ -3287,7 +3289,7 @@
       <c r="J11" s="62"/>
       <c r="K11" s="30"/>
       <c r="L11" s="31"/>
-      <c r="M11" s="29"/>
+      <c r="M11" s="62"/>
       <c r="N11" s="29"/>
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
@@ -3343,16 +3345,16 @@
       <c r="BN11" s="47"/>
     </row>
     <row r="12" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A12" s="83">
+      <c r="A12" s="85">
         <v>5</v>
       </c>
       <c r="B12" s="67"/>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="107" t="s">
-        <v>25</v>
+      <c r="D12" s="109"/>
+      <c r="E12" s="112" t="s">
+        <v>24</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="7"/>
@@ -3419,11 +3421,11 @@
       <c r="BN12" s="46"/>
     </row>
     <row r="13" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="84"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="68"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="90"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="95"/>
       <c r="F13" s="39"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
@@ -3434,7 +3436,7 @@
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
+      <c r="P13" s="62"/>
       <c r="Q13" s="29"/>
       <c r="R13" s="30"/>
       <c r="S13" s="31"/>
@@ -3487,18 +3489,18 @@
       <c r="BN13" s="47"/>
     </row>
     <row r="14" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A14" s="83">
+      <c r="A14" s="85">
         <v>6</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="98"/>
-      <c r="E14" s="89" t="s">
-        <v>25</v>
+      <c r="D14" s="100"/>
+      <c r="E14" s="91" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="10"/>
@@ -3508,11 +3510,11 @@
       <c r="K14" s="13"/>
       <c r="L14" s="17"/>
       <c r="M14" s="64"/>
-      <c r="N14" s="64" t="s">
-        <v>68</v>
-      </c>
+      <c r="N14" s="64"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
+      <c r="P14" s="64" t="s">
+        <v>27</v>
+      </c>
       <c r="Q14" s="10"/>
       <c r="R14" s="13"/>
       <c r="S14" s="17"/>
@@ -3520,7 +3522,7 @@
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
       <c r="W14" s="64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X14" s="64"/>
       <c r="Y14" s="13"/>
@@ -3567,11 +3569,11 @@
       <c r="BN14" s="44"/>
     </row>
     <row r="15" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A15" s="84"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="67"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="93"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="92"/>
       <c r="F15" s="37"/>
       <c r="G15" s="8"/>
       <c r="H15" s="78"/>
@@ -3579,10 +3581,10 @@
       <c r="J15" s="8"/>
       <c r="K15" s="11"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
+      <c r="P15" s="83"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="11"/>
       <c r="S15" s="15"/>
@@ -3635,16 +3637,16 @@
       <c r="BN15" s="48"/>
     </row>
     <row r="16" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A16" s="83">
+      <c r="A16" s="85">
         <v>7</v>
       </c>
       <c r="B16" s="67"/>
-      <c r="C16" s="137" t="s">
+      <c r="C16" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="98"/>
-      <c r="E16" s="89" t="s">
-        <v>25</v>
+      <c r="D16" s="100"/>
+      <c r="E16" s="91" t="s">
+        <v>24</v>
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="10"/>
@@ -3657,7 +3659,7 @@
       <c r="N16" s="10"/>
       <c r="O16" s="64"/>
       <c r="P16" s="64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="13"/>
@@ -3666,7 +3668,7 @@
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
       <c r="W16" s="64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X16" s="64"/>
       <c r="Y16" s="13"/>
@@ -3713,11 +3715,11 @@
       <c r="BN16" s="44"/>
     </row>
     <row r="17" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A17" s="84"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="67"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="94"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="98"/>
       <c r="F17" s="37"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -3727,8 +3729,8 @@
       <c r="L17" s="15"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="11"/>
       <c r="S17" s="15"/>
@@ -3781,16 +3783,16 @@
       <c r="BN17" s="48"/>
     </row>
     <row r="18" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A18" s="83">
+      <c r="A18" s="85">
         <v>8</v>
       </c>
       <c r="B18" s="67"/>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="102"/>
-      <c r="E18" s="93" t="s">
-        <v>25</v>
+      <c r="D18" s="104"/>
+      <c r="E18" s="92" t="s">
+        <v>24</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="10"/>
@@ -3804,7 +3806,7 @@
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R18" s="13"/>
       <c r="S18" s="17"/>
@@ -3812,7 +3814,7 @@
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
       <c r="W18" s="64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X18" s="64"/>
       <c r="Y18" s="13"/>
@@ -3859,11 +3861,11 @@
       <c r="BN18" s="44"/>
     </row>
     <row r="19" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A19" s="84"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="67"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="93"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="92"/>
       <c r="F19" s="37"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -3874,8 +3876,8 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="84"/>
       <c r="R19" s="11"/>
       <c r="S19" s="15"/>
       <c r="T19" s="55"/>
@@ -3927,15 +3929,15 @@
       <c r="BN19" s="48"/>
     </row>
     <row r="20" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A20" s="83">
+      <c r="A20" s="85">
         <v>9</v>
       </c>
       <c r="B20" s="67"/>
-      <c r="C20" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="98"/>
-      <c r="E20" s="89" t="s">
+      <c r="C20" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="100"/>
+      <c r="E20" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="36"/>
@@ -3954,11 +3956,11 @@
       <c r="S20" s="17"/>
       <c r="T20" s="72"/>
       <c r="U20" s="64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V20" s="10"/>
       <c r="W20" s="64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X20" s="64"/>
       <c r="Y20" s="13"/>
@@ -4005,11 +4007,11 @@
       <c r="BN20" s="44"/>
     </row>
     <row r="21" spans="1:66" s="3" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A21" s="84"/>
+      <c r="A21" s="86"/>
       <c r="B21" s="67"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="94"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="98"/>
       <c r="F21" s="37"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -4073,15 +4075,15 @@
       <c r="BN21" s="48"/>
     </row>
     <row r="22" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A22" s="83">
+      <c r="A22" s="85">
         <v>10</v>
       </c>
       <c r="B22" s="67"/>
-      <c r="C22" s="97" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="98"/>
-      <c r="E22" s="89" t="s">
+      <c r="C22" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="100"/>
+      <c r="E22" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="36"/>
@@ -4100,11 +4102,11 @@
       <c r="S22" s="17"/>
       <c r="T22" s="72"/>
       <c r="U22" s="64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V22" s="10"/>
       <c r="W22" s="64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X22" s="64"/>
       <c r="Y22" s="13"/>
@@ -4151,11 +4153,11 @@
       <c r="BN22" s="44"/>
     </row>
     <row r="23" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A23" s="84"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="67"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="94"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="98"/>
       <c r="F23" s="37"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -4219,15 +4221,15 @@
       <c r="BN23" s="48"/>
     </row>
     <row r="24" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A24" s="83">
+      <c r="A24" s="85">
         <v>11</v>
       </c>
       <c r="B24" s="67"/>
-      <c r="C24" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="98"/>
-      <c r="E24" s="89" t="s">
+      <c r="C24" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="100"/>
+      <c r="E24" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="36"/>
@@ -4247,10 +4249,10 @@
       <c r="T24" s="72"/>
       <c r="U24" s="10"/>
       <c r="V24" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="W24" s="64" t="s">
         <v>68</v>
-      </c>
-      <c r="W24" s="64" t="s">
-        <v>69</v>
       </c>
       <c r="X24" s="64"/>
       <c r="Y24" s="13"/>
@@ -4297,11 +4299,11 @@
       <c r="BN24" s="44"/>
     </row>
     <row r="25" spans="1:66" s="3" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A25" s="84"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="67"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="94"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="98"/>
       <c r="F25" s="37"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -4365,15 +4367,15 @@
       <c r="BN25" s="48"/>
     </row>
     <row r="26" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A26" s="83">
+      <c r="A26" s="85">
         <v>12</v>
       </c>
       <c r="B26" s="67"/>
-      <c r="C26" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="98"/>
-      <c r="E26" s="89" t="s">
+      <c r="C26" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="100"/>
+      <c r="E26" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="36"/>
@@ -4393,10 +4395,10 @@
       <c r="T26" s="72"/>
       <c r="U26" s="10"/>
       <c r="V26" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="W26" s="64" t="s">
         <v>68</v>
-      </c>
-      <c r="W26" s="64" t="s">
-        <v>69</v>
       </c>
       <c r="X26" s="64"/>
       <c r="Y26" s="13"/>
@@ -4443,11 +4445,11 @@
       <c r="BN26" s="44"/>
     </row>
     <row r="27" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A27" s="84"/>
+      <c r="A27" s="86"/>
       <c r="B27" s="67"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="94"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="98"/>
       <c r="F27" s="37"/>
       <c r="G27" s="8"/>
       <c r="H27" s="78"/>
@@ -4511,17 +4513,17 @@
       <c r="BN27" s="48"/>
     </row>
     <row r="28" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="83">
+      <c r="A28" s="85">
         <v>13</v>
       </c>
       <c r="B28" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="132" t="s">
+      <c r="C28" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="107" t="s">
+      <c r="D28" s="135"/>
+      <c r="E28" s="112" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="26"/>
@@ -4543,7 +4545,7 @@
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y28" s="12"/>
       <c r="Z28" s="16"/>
@@ -4589,11 +4591,11 @@
       <c r="BN28" s="46"/>
     </row>
     <row r="29" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A29" s="84"/>
+      <c r="A29" s="86"/>
       <c r="B29" s="67"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="93"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="37"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -4657,15 +4659,15 @@
       <c r="BN29" s="48"/>
     </row>
     <row r="30" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A30" s="83">
+      <c r="A30" s="85">
         <v>14</v>
       </c>
       <c r="B30" s="67"/>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="86"/>
-      <c r="E30" s="89" t="s">
+      <c r="D30" s="88"/>
+      <c r="E30" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F30" s="37"/>
@@ -4687,7 +4689,7 @@
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
       <c r="X30" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y30" s="11"/>
       <c r="Z30" s="15"/>
@@ -4733,11 +4735,11 @@
       <c r="BN30" s="48"/>
     </row>
     <row r="31" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A31" s="84"/>
+      <c r="A31" s="86"/>
       <c r="B31" s="67"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="93"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="92"/>
       <c r="F31" s="37"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -4801,15 +4803,15 @@
       <c r="BN31" s="48"/>
     </row>
     <row r="32" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A32" s="83">
+      <c r="A32" s="85">
         <v>15</v>
       </c>
       <c r="B32" s="67"/>
-      <c r="C32" s="85" t="s">
+      <c r="C32" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="86"/>
-      <c r="E32" s="89" t="s">
+      <c r="D32" s="88"/>
+      <c r="E32" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F32" s="37"/>
@@ -4831,7 +4833,7 @@
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
       <c r="X32" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y32" s="11"/>
       <c r="Z32" s="15"/>
@@ -4877,11 +4879,11 @@
       <c r="BN32" s="48"/>
     </row>
     <row r="33" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A33" s="84"/>
+      <c r="A33" s="86"/>
       <c r="B33" s="67"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="93"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="92"/>
       <c r="F33" s="37"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -4945,15 +4947,15 @@
       <c r="BN33" s="48"/>
     </row>
     <row r="34" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A34" s="83">
+      <c r="A34" s="85">
         <v>16</v>
       </c>
       <c r="B34" s="67"/>
-      <c r="C34" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="86"/>
-      <c r="E34" s="89" t="s">
+      <c r="C34" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="88"/>
+      <c r="E34" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F34" s="37"/>
@@ -4975,7 +4977,7 @@
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
       <c r="X34" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y34" s="11"/>
       <c r="Z34" s="15"/>
@@ -5021,11 +5023,11 @@
       <c r="BN34" s="48"/>
     </row>
     <row r="35" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A35" s="84"/>
+      <c r="A35" s="86"/>
       <c r="B35" s="67"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="93"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="92"/>
       <c r="F35" s="37"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -5089,15 +5091,15 @@
       <c r="BN35" s="48"/>
     </row>
     <row r="36" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A36" s="83">
+      <c r="A36" s="85">
         <v>17</v>
       </c>
       <c r="B36" s="67"/>
-      <c r="C36" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="86"/>
-      <c r="E36" s="89" t="s">
+      <c r="C36" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="88"/>
+      <c r="E36" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F36" s="37"/>
@@ -5119,7 +5121,7 @@
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
       <c r="X36" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y36" s="11"/>
       <c r="Z36" s="15"/>
@@ -5165,11 +5167,11 @@
       <c r="BN36" s="48"/>
     </row>
     <row r="37" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A37" s="84"/>
+      <c r="A37" s="86"/>
       <c r="B37" s="67"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="93"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="92"/>
       <c r="F37" s="37"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -5233,15 +5235,15 @@
       <c r="BN37" s="48"/>
     </row>
     <row r="38" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="83">
+      <c r="A38" s="85">
         <v>18</v>
       </c>
       <c r="B38" s="67"/>
-      <c r="C38" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="86"/>
-      <c r="E38" s="89" t="s">
+      <c r="C38" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="88"/>
+      <c r="E38" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F38" s="37"/>
@@ -5266,7 +5268,7 @@
       <c r="Y38" s="11"/>
       <c r="Z38" s="15"/>
       <c r="AA38" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB38" s="55"/>
       <c r="AC38" s="8"/>
@@ -5309,11 +5311,11 @@
       <c r="BN38" s="48"/>
     </row>
     <row r="39" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A39" s="84"/>
+      <c r="A39" s="86"/>
       <c r="B39" s="67"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="93"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="92"/>
       <c r="F39" s="37"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -5377,15 +5379,15 @@
       <c r="BN39" s="48"/>
     </row>
     <row r="40" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="83">
+      <c r="A40" s="85">
         <v>19</v>
       </c>
       <c r="B40" s="67"/>
-      <c r="C40" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="86"/>
-      <c r="E40" s="89" t="s">
+      <c r="C40" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="88"/>
+      <c r="E40" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F40" s="37"/>
@@ -5410,7 +5412,7 @@
       <c r="Y40" s="11"/>
       <c r="Z40" s="15"/>
       <c r="AA40" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB40" s="55"/>
       <c r="AC40" s="8"/>
@@ -5453,11 +5455,11 @@
       <c r="BN40" s="48"/>
     </row>
     <row r="41" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="84"/>
+      <c r="A41" s="86"/>
       <c r="B41" s="67"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="93"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="92"/>
       <c r="F41" s="37"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -5521,15 +5523,15 @@
       <c r="BN41" s="48"/>
     </row>
     <row r="42" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="83">
+      <c r="A42" s="85">
         <v>20</v>
       </c>
       <c r="B42" s="67"/>
-      <c r="C42" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" s="86"/>
-      <c r="E42" s="89" t="s">
+      <c r="C42" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="88"/>
+      <c r="E42" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F42" s="37"/>
@@ -5572,7 +5574,7 @@
       <c r="AQ42" s="8"/>
       <c r="AR42" s="8"/>
       <c r="AS42" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AT42" s="11"/>
       <c r="AU42" s="15"/>
@@ -5597,11 +5599,11 @@
       <c r="BN42" s="48"/>
     </row>
     <row r="43" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="84"/>
+      <c r="A43" s="86"/>
       <c r="B43" s="67"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="93"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="92"/>
       <c r="F43" s="37"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -5665,15 +5667,15 @@
       <c r="BN43" s="48"/>
     </row>
     <row r="44" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A44" s="83">
+      <c r="A44" s="85">
         <v>21</v>
       </c>
       <c r="B44" s="67"/>
-      <c r="C44" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="86"/>
-      <c r="E44" s="89" t="s">
+      <c r="C44" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="88"/>
+      <c r="E44" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F44" s="37"/>
@@ -5716,7 +5718,7 @@
       <c r="AQ44" s="8"/>
       <c r="AR44" s="8"/>
       <c r="AS44" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AT44" s="11"/>
       <c r="AU44" s="15"/>
@@ -5741,11 +5743,11 @@
       <c r="BN44" s="48"/>
     </row>
     <row r="45" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A45" s="84"/>
+      <c r="A45" s="86"/>
       <c r="B45" s="67"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="94"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="98"/>
       <c r="F45" s="37"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -5809,15 +5811,15 @@
       <c r="BN45" s="48"/>
     </row>
     <row r="46" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="83">
+      <c r="A46" s="85">
         <v>22</v>
       </c>
       <c r="B46" s="67"/>
-      <c r="C46" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="86"/>
-      <c r="E46" s="89" t="s">
+      <c r="C46" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="88"/>
+      <c r="E46" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F46" s="37"/>
@@ -5860,7 +5862,7 @@
       <c r="AQ46" s="8"/>
       <c r="AR46" s="8"/>
       <c r="AS46" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AT46" s="11"/>
       <c r="AU46" s="15"/>
@@ -5885,11 +5887,11 @@
       <c r="BN46" s="48"/>
     </row>
     <row r="47" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="84"/>
+      <c r="A47" s="86"/>
       <c r="B47" s="67"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="93"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="92"/>
       <c r="F47" s="37"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -5953,15 +5955,15 @@
       <c r="BN47" s="48"/>
     </row>
     <row r="48" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="83">
+      <c r="A48" s="85">
         <v>23</v>
       </c>
       <c r="B48" s="67"/>
-      <c r="C48" s="85" t="s">
+      <c r="C48" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="86"/>
-      <c r="E48" s="89" t="s">
+      <c r="D48" s="88"/>
+      <c r="E48" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="37"/>
@@ -6029,11 +6031,11 @@
       <c r="BN48" s="48"/>
     </row>
     <row r="49" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="84"/>
+      <c r="A49" s="86"/>
       <c r="B49" s="67"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="93"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="92"/>
       <c r="F49" s="37"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -6097,15 +6099,15 @@
       <c r="BN49" s="48"/>
     </row>
     <row r="50" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="83">
+      <c r="A50" s="85">
         <v>24</v>
       </c>
       <c r="B50" s="67"/>
-      <c r="C50" s="85" t="s">
+      <c r="C50" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="86"/>
-      <c r="E50" s="89" t="s">
+      <c r="D50" s="88"/>
+      <c r="E50" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F50" s="37"/>
@@ -6148,7 +6150,7 @@
       <c r="AQ50" s="8"/>
       <c r="AR50" s="8"/>
       <c r="AS50" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AT50" s="11"/>
       <c r="AU50" s="15"/>
@@ -6173,11 +6175,11 @@
       <c r="BN50" s="48"/>
     </row>
     <row r="51" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="84"/>
+      <c r="A51" s="86"/>
       <c r="B51" s="67"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="93"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="92"/>
       <c r="F51" s="37"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -6241,15 +6243,15 @@
       <c r="BN51" s="48"/>
     </row>
     <row r="52" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="83">
+      <c r="A52" s="85">
         <v>25</v>
       </c>
       <c r="B52" s="67"/>
-      <c r="C52" s="85" t="s">
+      <c r="C52" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="86"/>
-      <c r="E52" s="89" t="s">
+      <c r="D52" s="88"/>
+      <c r="E52" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F52" s="37"/>
@@ -6317,11 +6319,11 @@
       <c r="BN52" s="48"/>
     </row>
     <row r="53" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="84"/>
+      <c r="A53" s="86"/>
       <c r="B53" s="67"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="93"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="92"/>
       <c r="F53" s="37"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -6385,15 +6387,15 @@
       <c r="BN53" s="48"/>
     </row>
     <row r="54" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A54" s="83">
+      <c r="A54" s="85">
         <v>26</v>
       </c>
       <c r="B54" s="67"/>
-      <c r="C54" s="85" t="s">
+      <c r="C54" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="86"/>
-      <c r="E54" s="89" t="s">
+      <c r="D54" s="88"/>
+      <c r="E54" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F54" s="37"/>
@@ -6440,7 +6442,7 @@
       <c r="AU54" s="15"/>
       <c r="AV54" s="55"/>
       <c r="AW54" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AX54" s="8"/>
       <c r="AY54" s="8"/>
@@ -6461,11 +6463,11 @@
       <c r="BN54" s="48"/>
     </row>
     <row r="55" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A55" s="84"/>
+      <c r="A55" s="86"/>
       <c r="B55" s="67"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="93"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="92"/>
       <c r="F55" s="37"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -6529,15 +6531,15 @@
       <c r="BN55" s="48"/>
     </row>
     <row r="56" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A56" s="83">
+      <c r="A56" s="85">
         <v>27</v>
       </c>
       <c r="B56" s="67"/>
-      <c r="C56" s="85" t="s">
+      <c r="C56" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="86"/>
-      <c r="E56" s="89" t="s">
+      <c r="D56" s="88"/>
+      <c r="E56" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F56" s="37"/>
@@ -6584,7 +6586,7 @@
       <c r="AU56" s="15"/>
       <c r="AV56" s="55"/>
       <c r="AW56" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AX56" s="8"/>
       <c r="AY56" s="8"/>
@@ -6605,11 +6607,11 @@
       <c r="BN56" s="48"/>
     </row>
     <row r="57" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A57" s="84"/>
+      <c r="A57" s="86"/>
       <c r="B57" s="67"/>
-      <c r="C57" s="91"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="93"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="92"/>
       <c r="F57" s="37"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -6673,15 +6675,15 @@
       <c r="BN57" s="48"/>
     </row>
     <row r="58" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A58" s="83">
+      <c r="A58" s="85">
         <v>28</v>
       </c>
       <c r="B58" s="67"/>
-      <c r="C58" s="85" t="s">
+      <c r="C58" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="86"/>
-      <c r="E58" s="89" t="s">
+      <c r="D58" s="88"/>
+      <c r="E58" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F58" s="37"/>
@@ -6728,7 +6730,7 @@
       <c r="AU58" s="15"/>
       <c r="AV58" s="55"/>
       <c r="AW58" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AX58" s="8"/>
       <c r="AY58" s="8"/>
@@ -6749,11 +6751,11 @@
       <c r="BN58" s="48"/>
     </row>
     <row r="59" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A59" s="84"/>
+      <c r="A59" s="86"/>
       <c r="B59" s="67"/>
-      <c r="C59" s="91"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="93"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="92"/>
       <c r="F59" s="37"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -6817,15 +6819,15 @@
       <c r="BN59" s="48"/>
     </row>
     <row r="60" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A60" s="83">
+      <c r="A60" s="85">
         <v>29</v>
       </c>
       <c r="B60" s="67"/>
-      <c r="C60" s="85" t="s">
+      <c r="C60" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="86"/>
-      <c r="E60" s="89" t="s">
+      <c r="D60" s="88"/>
+      <c r="E60" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F60" s="37"/>
@@ -6893,11 +6895,11 @@
       <c r="BN60" s="48"/>
     </row>
     <row r="61" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A61" s="84"/>
+      <c r="A61" s="86"/>
       <c r="B61" s="67"/>
-      <c r="C61" s="91"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="93"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="92"/>
       <c r="F61" s="37"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -6961,15 +6963,15 @@
       <c r="BN61" s="48"/>
     </row>
     <row r="62" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A62" s="83">
+      <c r="A62" s="85">
         <v>30</v>
       </c>
       <c r="B62" s="67"/>
-      <c r="C62" s="85" t="s">
+      <c r="C62" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="86"/>
-      <c r="E62" s="89" t="s">
+      <c r="D62" s="88"/>
+      <c r="E62" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F62" s="37"/>
@@ -7037,11 +7039,11 @@
       <c r="BN62" s="48"/>
     </row>
     <row r="63" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A63" s="84"/>
+      <c r="A63" s="86"/>
       <c r="B63" s="67"/>
-      <c r="C63" s="91"/>
-      <c r="D63" s="92"/>
-      <c r="E63" s="93"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="92"/>
       <c r="F63" s="37"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -7105,15 +7107,15 @@
       <c r="BN63" s="48"/>
     </row>
     <row r="64" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A64" s="83">
+      <c r="A64" s="85">
         <v>31</v>
       </c>
       <c r="B64" s="67"/>
-      <c r="C64" s="85" t="s">
+      <c r="C64" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="86"/>
-      <c r="E64" s="89" t="s">
+      <c r="D64" s="88"/>
+      <c r="E64" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F64" s="37"/>
@@ -7160,7 +7162,7 @@
       <c r="AU64" s="15"/>
       <c r="AV64" s="55"/>
       <c r="AW64" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AX64" s="8"/>
       <c r="AY64" s="8"/>
@@ -7181,11 +7183,11 @@
       <c r="BN64" s="48"/>
     </row>
     <row r="65" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A65" s="84"/>
+      <c r="A65" s="86"/>
       <c r="B65" s="67"/>
-      <c r="C65" s="91"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="93"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="92"/>
       <c r="F65" s="37"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
@@ -7249,15 +7251,15 @@
       <c r="BN65" s="48"/>
     </row>
     <row r="66" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A66" s="83">
+      <c r="A66" s="85">
         <v>32</v>
       </c>
       <c r="B66" s="67"/>
-      <c r="C66" s="85" t="s">
+      <c r="C66" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D66" s="86"/>
-      <c r="E66" s="89" t="s">
+      <c r="D66" s="88"/>
+      <c r="E66" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F66" s="37"/>
@@ -7305,7 +7307,7 @@
       <c r="AV66" s="55"/>
       <c r="AW66" s="8"/>
       <c r="AX66" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AY66" s="8"/>
       <c r="AZ66" s="8"/>
@@ -7325,11 +7327,11 @@
       <c r="BN66" s="48"/>
     </row>
     <row r="67" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A67" s="84"/>
+      <c r="A67" s="86"/>
       <c r="B67" s="67"/>
-      <c r="C67" s="91"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="93"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="92"/>
       <c r="F67" s="37"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
@@ -7393,15 +7395,15 @@
       <c r="BN67" s="48"/>
     </row>
     <row r="68" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A68" s="83">
+      <c r="A68" s="85">
         <v>33</v>
       </c>
       <c r="B68" s="67"/>
-      <c r="C68" s="85" t="s">
+      <c r="C68" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="86"/>
-      <c r="E68" s="89" t="s">
+      <c r="D68" s="88"/>
+      <c r="E68" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F68" s="38"/>
@@ -7449,7 +7451,7 @@
       <c r="AV68" s="54"/>
       <c r="AW68" s="19"/>
       <c r="AX68" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AY68" s="19"/>
       <c r="AZ68" s="19"/>
@@ -7469,11 +7471,11 @@
       <c r="BN68" s="45"/>
     </row>
     <row r="69" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A69" s="84"/>
+      <c r="A69" s="86"/>
       <c r="B69" s="68"/>
-      <c r="C69" s="87"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="90"/>
+      <c r="C69" s="93"/>
+      <c r="D69" s="94"/>
+      <c r="E69" s="95"/>
       <c r="F69" s="40"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
@@ -7537,17 +7539,17 @@
       <c r="BN69" s="49"/>
     </row>
     <row r="70" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A70" s="83">
+      <c r="A70" s="85">
         <v>34</v>
       </c>
       <c r="B70" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C70" s="95" t="s">
-        <v>78</v>
-      </c>
-      <c r="D70" s="96"/>
-      <c r="E70" s="89" t="s">
+      <c r="C70" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="97"/>
+      <c r="E70" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F70" s="37"/>
@@ -7575,7 +7577,7 @@
       <c r="AB70" s="55"/>
       <c r="AC70" s="24"/>
       <c r="AD70" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE70" s="8"/>
       <c r="AF70" s="11"/>
@@ -7583,7 +7585,7 @@
       <c r="AH70" s="8"/>
       <c r="AI70" s="46"/>
       <c r="AJ70" s="79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AK70" s="24"/>
       <c r="AL70" s="8"/>
@@ -7617,11 +7619,11 @@
       <c r="BN70" s="48"/>
     </row>
     <row r="71" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A71" s="84"/>
+      <c r="A71" s="86"/>
       <c r="B71" s="67"/>
-      <c r="C71" s="91"/>
-      <c r="D71" s="92"/>
-      <c r="E71" s="93"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="90"/>
+      <c r="E71" s="92"/>
       <c r="F71" s="37"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -7685,15 +7687,15 @@
       <c r="BN71" s="48"/>
     </row>
     <row r="72" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A72" s="83">
+      <c r="A72" s="85">
         <v>35</v>
       </c>
       <c r="B72" s="67"/>
-      <c r="C72" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="D72" s="86"/>
-      <c r="E72" s="89" t="s">
+      <c r="C72" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" s="88"/>
+      <c r="E72" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F72" s="37"/>
@@ -7726,10 +7728,10 @@
       <c r="AG72" s="15"/>
       <c r="AH72" s="24"/>
       <c r="AI72" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ72" s="79" t="s">
         <v>68</v>
-      </c>
-      <c r="AJ72" s="79" t="s">
-        <v>69</v>
       </c>
       <c r="AK72" s="24"/>
       <c r="AL72" s="8"/>
@@ -7763,11 +7765,11 @@
       <c r="BN72" s="48"/>
     </row>
     <row r="73" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A73" s="84"/>
+      <c r="A73" s="86"/>
       <c r="B73" s="67"/>
-      <c r="C73" s="91"/>
-      <c r="D73" s="92"/>
-      <c r="E73" s="93"/>
+      <c r="C73" s="89"/>
+      <c r="D73" s="90"/>
+      <c r="E73" s="92"/>
       <c r="F73" s="37"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
@@ -7831,15 +7833,15 @@
       <c r="BN73" s="48"/>
     </row>
     <row r="74" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A74" s="83">
+      <c r="A74" s="85">
         <v>36</v>
       </c>
       <c r="B74" s="67"/>
-      <c r="C74" s="85" t="s">
+      <c r="C74" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="D74" s="86"/>
-      <c r="E74" s="89" t="s">
+      <c r="D74" s="88"/>
+      <c r="E74" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F74" s="37"/>
@@ -7872,10 +7874,10 @@
       <c r="AG74" s="15"/>
       <c r="AH74" s="24"/>
       <c r="AI74" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ74" s="79" t="s">
         <v>68</v>
-      </c>
-      <c r="AJ74" s="79" t="s">
-        <v>69</v>
       </c>
       <c r="AK74" s="24"/>
       <c r="AL74" s="8"/>
@@ -7909,11 +7911,11 @@
       <c r="BN74" s="48"/>
     </row>
     <row r="75" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A75" s="84"/>
+      <c r="A75" s="86"/>
       <c r="B75" s="67"/>
-      <c r="C75" s="91"/>
-      <c r="D75" s="92"/>
-      <c r="E75" s="93"/>
+      <c r="C75" s="89"/>
+      <c r="D75" s="90"/>
+      <c r="E75" s="92"/>
       <c r="F75" s="37"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -7977,15 +7979,15 @@
       <c r="BN75" s="48"/>
     </row>
     <row r="76" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A76" s="83">
+      <c r="A76" s="85">
         <v>37</v>
       </c>
       <c r="B76" s="67"/>
-      <c r="C76" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" s="86"/>
-      <c r="E76" s="89" t="s">
+      <c r="C76" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="88"/>
+      <c r="E76" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F76" s="37"/>
@@ -8018,10 +8020,10 @@
       <c r="AG76" s="15"/>
       <c r="AH76" s="8"/>
       <c r="AI76" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ76" s="79" t="s">
         <v>68</v>
-      </c>
-      <c r="AJ76" s="79" t="s">
-        <v>69</v>
       </c>
       <c r="AK76" s="24"/>
       <c r="AL76" s="8"/>
@@ -8055,11 +8057,11 @@
       <c r="BN76" s="48"/>
     </row>
     <row r="77" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A77" s="84"/>
+      <c r="A77" s="86"/>
       <c r="B77" s="67"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="92"/>
-      <c r="E77" s="93"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="90"/>
+      <c r="E77" s="92"/>
       <c r="F77" s="37"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
@@ -8123,15 +8125,15 @@
       <c r="BN77" s="48"/>
     </row>
     <row r="78" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A78" s="83">
+      <c r="A78" s="85">
         <v>38</v>
       </c>
       <c r="B78" s="67"/>
-      <c r="C78" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="D78" s="86"/>
-      <c r="E78" s="89" t="s">
+      <c r="C78" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" s="88"/>
+      <c r="E78" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F78" s="37"/>
@@ -8164,10 +8166,10 @@
       <c r="AG78" s="15"/>
       <c r="AH78" s="8"/>
       <c r="AI78" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ78" s="79" t="s">
         <v>68</v>
-      </c>
-      <c r="AJ78" s="79" t="s">
-        <v>69</v>
       </c>
       <c r="AK78" s="24"/>
       <c r="AL78" s="8"/>
@@ -8201,11 +8203,11 @@
       <c r="BN78" s="48"/>
     </row>
     <row r="79" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A79" s="84"/>
+      <c r="A79" s="86"/>
       <c r="B79" s="67"/>
-      <c r="C79" s="91"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="93"/>
+      <c r="C79" s="89"/>
+      <c r="D79" s="90"/>
+      <c r="E79" s="92"/>
       <c r="F79" s="37"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -8269,15 +8271,15 @@
       <c r="BN79" s="48"/>
     </row>
     <row r="80" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A80" s="83">
+      <c r="A80" s="85">
         <v>39</v>
       </c>
       <c r="B80" s="67"/>
-      <c r="C80" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="D80" s="86"/>
-      <c r="E80" s="89" t="s">
+      <c r="C80" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" s="88"/>
+      <c r="E80" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F80" s="37"/>
@@ -8326,7 +8328,7 @@
       <c r="AW80" s="8"/>
       <c r="AX80" s="8"/>
       <c r="AY80" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AZ80" s="8"/>
       <c r="BA80" s="11"/>
@@ -8345,11 +8347,11 @@
       <c r="BN80" s="48"/>
     </row>
     <row r="81" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A81" s="84"/>
+      <c r="A81" s="86"/>
       <c r="B81" s="67"/>
-      <c r="C81" s="91"/>
-      <c r="D81" s="92"/>
-      <c r="E81" s="93"/>
+      <c r="C81" s="89"/>
+      <c r="D81" s="90"/>
+      <c r="E81" s="92"/>
       <c r="F81" s="37"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
@@ -8413,15 +8415,15 @@
       <c r="BN81" s="48"/>
     </row>
     <row r="82" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A82" s="83">
+      <c r="A82" s="85">
         <v>40</v>
       </c>
       <c r="B82" s="67"/>
-      <c r="C82" s="85" t="s">
+      <c r="C82" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="D82" s="86"/>
-      <c r="E82" s="89" t="s">
+      <c r="D82" s="88"/>
+      <c r="E82" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F82" s="37"/>
@@ -8470,7 +8472,7 @@
       <c r="AW82" s="8"/>
       <c r="AX82" s="8"/>
       <c r="AY82" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AZ82" s="8"/>
       <c r="BA82" s="11"/>
@@ -8489,11 +8491,11 @@
       <c r="BN82" s="48"/>
     </row>
     <row r="83" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A83" s="84"/>
+      <c r="A83" s="86"/>
       <c r="B83" s="67"/>
-      <c r="C83" s="91"/>
-      <c r="D83" s="92"/>
-      <c r="E83" s="93"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="90"/>
+      <c r="E83" s="92"/>
       <c r="F83" s="37"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
@@ -8557,15 +8559,15 @@
       <c r="BN83" s="48"/>
     </row>
     <row r="84" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A84" s="83">
+      <c r="A84" s="85">
         <v>41</v>
       </c>
       <c r="B84" s="67"/>
-      <c r="C84" s="85" t="s">
+      <c r="C84" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="D84" s="86"/>
-      <c r="E84" s="89" t="s">
+      <c r="D84" s="88"/>
+      <c r="E84" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F84" s="37"/>
@@ -8614,7 +8616,7 @@
       <c r="AW84" s="8"/>
       <c r="AX84" s="8"/>
       <c r="AY84" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AZ84" s="8"/>
       <c r="BA84" s="11"/>
@@ -8633,11 +8635,11 @@
       <c r="BN84" s="48"/>
     </row>
     <row r="85" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A85" s="84"/>
+      <c r="A85" s="86"/>
       <c r="B85" s="67"/>
-      <c r="C85" s="91"/>
-      <c r="D85" s="92"/>
-      <c r="E85" s="93"/>
+      <c r="C85" s="89"/>
+      <c r="D85" s="90"/>
+      <c r="E85" s="92"/>
       <c r="F85" s="37"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
@@ -8701,15 +8703,15 @@
       <c r="BN85" s="48"/>
     </row>
     <row r="86" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A86" s="83">
+      <c r="A86" s="85">
         <v>42</v>
       </c>
       <c r="B86" s="67"/>
-      <c r="C86" s="85" t="s">
+      <c r="C86" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="D86" s="86"/>
-      <c r="E86" s="89" t="s">
+      <c r="D86" s="88"/>
+      <c r="E86" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F86" s="37"/>
@@ -8759,7 +8761,7 @@
       <c r="AX86" s="8"/>
       <c r="AY86" s="8"/>
       <c r="AZ86" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BA86" s="11"/>
       <c r="BB86" s="15"/>
@@ -8777,11 +8779,11 @@
       <c r="BN86" s="48"/>
     </row>
     <row r="87" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A87" s="84"/>
+      <c r="A87" s="86"/>
       <c r="B87" s="67"/>
-      <c r="C87" s="91"/>
-      <c r="D87" s="92"/>
-      <c r="E87" s="93"/>
+      <c r="C87" s="89"/>
+      <c r="D87" s="90"/>
+      <c r="E87" s="92"/>
       <c r="F87" s="37"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
@@ -8845,15 +8847,15 @@
       <c r="BN87" s="48"/>
     </row>
     <row r="88" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A88" s="83">
+      <c r="A88" s="85">
         <v>43</v>
       </c>
       <c r="B88" s="67"/>
-      <c r="C88" s="85" t="s">
+      <c r="C88" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D88" s="86"/>
-      <c r="E88" s="89" t="s">
+      <c r="D88" s="88"/>
+      <c r="E88" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F88" s="37"/>
@@ -8903,7 +8905,7 @@
       <c r="AX88" s="8"/>
       <c r="AY88" s="8"/>
       <c r="AZ88" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BA88" s="11"/>
       <c r="BB88" s="15"/>
@@ -8921,11 +8923,11 @@
       <c r="BN88" s="48"/>
     </row>
     <row r="89" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A89" s="84"/>
+      <c r="A89" s="86"/>
       <c r="B89" s="67"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="92"/>
-      <c r="E89" s="93"/>
+      <c r="C89" s="89"/>
+      <c r="D89" s="90"/>
+      <c r="E89" s="92"/>
       <c r="F89" s="37"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
@@ -8989,15 +8991,15 @@
       <c r="BN89" s="48"/>
     </row>
     <row r="90" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A90" s="83">
+      <c r="A90" s="85">
         <v>44</v>
       </c>
       <c r="B90" s="67"/>
-      <c r="C90" s="85" t="s">
+      <c r="C90" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="D90" s="86"/>
-      <c r="E90" s="89" t="s">
+      <c r="D90" s="88"/>
+      <c r="E90" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F90" s="37"/>
@@ -9047,7 +9049,7 @@
       <c r="AX90" s="8"/>
       <c r="AY90" s="8"/>
       <c r="AZ90" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BA90" s="11"/>
       <c r="BB90" s="15"/>
@@ -9065,11 +9067,11 @@
       <c r="BN90" s="48"/>
     </row>
     <row r="91" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A91" s="84"/>
+      <c r="A91" s="86"/>
       <c r="B91" s="67"/>
-      <c r="C91" s="91"/>
-      <c r="D91" s="92"/>
-      <c r="E91" s="93"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="90"/>
+      <c r="E91" s="92"/>
       <c r="F91" s="37"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
@@ -9133,15 +9135,15 @@
       <c r="BN91" s="48"/>
     </row>
     <row r="92" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A92" s="83">
+      <c r="A92" s="85">
         <v>45</v>
       </c>
       <c r="B92" s="67"/>
-      <c r="C92" s="85" t="s">
+      <c r="C92" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="D92" s="86"/>
-      <c r="E92" s="89" t="s">
+      <c r="D92" s="88"/>
+      <c r="E92" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F92" s="37"/>
@@ -9194,7 +9196,7 @@
       <c r="BA92" s="11"/>
       <c r="BB92" s="15"/>
       <c r="BC92" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BD92" s="8"/>
       <c r="BE92" s="8"/>
@@ -9209,11 +9211,11 @@
       <c r="BN92" s="48"/>
     </row>
     <row r="93" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A93" s="84"/>
+      <c r="A93" s="86"/>
       <c r="B93" s="67"/>
-      <c r="C93" s="91"/>
-      <c r="D93" s="92"/>
-      <c r="E93" s="93"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="90"/>
+      <c r="E93" s="92"/>
       <c r="F93" s="37"/>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
@@ -9277,15 +9279,15 @@
       <c r="BN93" s="48"/>
     </row>
     <row r="94" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A94" s="83">
+      <c r="A94" s="85">
         <v>46</v>
       </c>
       <c r="B94" s="67"/>
-      <c r="C94" s="85" t="s">
+      <c r="C94" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D94" s="86"/>
-      <c r="E94" s="89" t="s">
+      <c r="D94" s="88"/>
+      <c r="E94" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F94" s="37"/>
@@ -9338,7 +9340,7 @@
       <c r="BA94" s="11"/>
       <c r="BB94" s="15"/>
       <c r="BC94" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BD94" s="8"/>
       <c r="BE94" s="8"/>
@@ -9353,11 +9355,11 @@
       <c r="BN94" s="48"/>
     </row>
     <row r="95" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A95" s="84"/>
+      <c r="A95" s="86"/>
       <c r="B95" s="67"/>
-      <c r="C95" s="91"/>
-      <c r="D95" s="92"/>
-      <c r="E95" s="93"/>
+      <c r="C95" s="89"/>
+      <c r="D95" s="90"/>
+      <c r="E95" s="92"/>
       <c r="F95" s="37"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
@@ -9421,15 +9423,15 @@
       <c r="BN95" s="48"/>
     </row>
     <row r="96" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A96" s="83">
+      <c r="A96" s="85">
         <v>47</v>
       </c>
       <c r="B96" s="67"/>
-      <c r="C96" s="85" t="s">
+      <c r="C96" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="D96" s="86"/>
-      <c r="E96" s="89" t="s">
+      <c r="D96" s="88"/>
+      <c r="E96" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F96" s="37"/>
@@ -9482,7 +9484,7 @@
       <c r="BA96" s="11"/>
       <c r="BB96" s="15"/>
       <c r="BC96" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BD96" s="8"/>
       <c r="BE96" s="8"/>
@@ -9497,11 +9499,11 @@
       <c r="BN96" s="48"/>
     </row>
     <row r="97" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A97" s="84"/>
+      <c r="A97" s="86"/>
       <c r="B97" s="67"/>
-      <c r="C97" s="91"/>
-      <c r="D97" s="92"/>
-      <c r="E97" s="93"/>
+      <c r="C97" s="89"/>
+      <c r="D97" s="90"/>
+      <c r="E97" s="92"/>
       <c r="F97" s="37"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
@@ -9565,15 +9567,15 @@
       <c r="BN97" s="48"/>
     </row>
     <row r="98" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A98" s="83">
+      <c r="A98" s="85">
         <v>48</v>
       </c>
       <c r="B98" s="67"/>
-      <c r="C98" s="85" t="s">
+      <c r="C98" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D98" s="86"/>
-      <c r="E98" s="89" t="s">
+      <c r="D98" s="88"/>
+      <c r="E98" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F98" s="37"/>
@@ -9627,7 +9629,7 @@
       <c r="BB98" s="15"/>
       <c r="BC98" s="8"/>
       <c r="BD98" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BE98" s="8"/>
       <c r="BF98" s="8"/>
@@ -9641,11 +9643,11 @@
       <c r="BN98" s="48"/>
     </row>
     <row r="99" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A99" s="84"/>
+      <c r="A99" s="86"/>
       <c r="B99" s="67"/>
-      <c r="C99" s="91"/>
-      <c r="D99" s="92"/>
-      <c r="E99" s="93"/>
+      <c r="C99" s="89"/>
+      <c r="D99" s="90"/>
+      <c r="E99" s="92"/>
       <c r="F99" s="37"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
@@ -9709,15 +9711,15 @@
       <c r="BN99" s="48"/>
     </row>
     <row r="100" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A100" s="83">
+      <c r="A100" s="85">
         <v>49</v>
       </c>
       <c r="B100" s="67"/>
-      <c r="C100" s="85" t="s">
+      <c r="C100" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="D100" s="86"/>
-      <c r="E100" s="89" t="s">
+      <c r="D100" s="88"/>
+      <c r="E100" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F100" s="37"/>
@@ -9771,7 +9773,7 @@
       <c r="BB100" s="15"/>
       <c r="BC100" s="8"/>
       <c r="BD100" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BE100" s="8"/>
       <c r="BF100" s="8"/>
@@ -9785,11 +9787,11 @@
       <c r="BN100" s="48"/>
     </row>
     <row r="101" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A101" s="84"/>
+      <c r="A101" s="86"/>
       <c r="B101" s="67"/>
-      <c r="C101" s="91"/>
-      <c r="D101" s="92"/>
-      <c r="E101" s="93"/>
+      <c r="C101" s="89"/>
+      <c r="D101" s="90"/>
+      <c r="E101" s="92"/>
       <c r="F101" s="37"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
@@ -9853,15 +9855,15 @@
       <c r="BN101" s="48"/>
     </row>
     <row r="102" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A102" s="83">
+      <c r="A102" s="85">
         <v>50</v>
       </c>
       <c r="B102" s="67"/>
-      <c r="C102" s="85" t="s">
+      <c r="C102" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="D102" s="86"/>
-      <c r="E102" s="89" t="s">
+      <c r="D102" s="88"/>
+      <c r="E102" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F102" s="38"/>
@@ -9915,7 +9917,7 @@
       <c r="BB102" s="21"/>
       <c r="BC102" s="19"/>
       <c r="BD102" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BE102" s="19"/>
       <c r="BF102" s="19"/>
@@ -9929,11 +9931,11 @@
       <c r="BN102" s="45"/>
     </row>
     <row r="103" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A103" s="84"/>
+      <c r="A103" s="86"/>
       <c r="B103" s="68"/>
-      <c r="C103" s="87"/>
-      <c r="D103" s="88"/>
-      <c r="E103" s="90"/>
+      <c r="C103" s="93"/>
+      <c r="D103" s="94"/>
+      <c r="E103" s="95"/>
       <c r="F103" s="40"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
@@ -9997,17 +9999,17 @@
       <c r="BN103" s="49"/>
     </row>
     <row r="104" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A104" s="83">
+      <c r="A104" s="85">
         <v>51</v>
       </c>
       <c r="B104" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C104" s="95" t="s">
-        <v>78</v>
-      </c>
-      <c r="D104" s="96"/>
-      <c r="E104" s="89" t="s">
+      <c r="C104" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="D104" s="97"/>
+      <c r="E104" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F104" s="37"/>
@@ -10043,7 +10045,7 @@
       <c r="AJ104" s="37"/>
       <c r="AK104" s="24"/>
       <c r="AL104" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AM104" s="11"/>
       <c r="AN104" s="15"/>
@@ -10051,7 +10053,7 @@
       <c r="AP104" s="8"/>
       <c r="AQ104" s="8"/>
       <c r="AR104" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AS104" s="24"/>
       <c r="AT104" s="11"/>
@@ -10077,11 +10079,11 @@
       <c r="BN104" s="48"/>
     </row>
     <row r="105" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A105" s="84"/>
+      <c r="A105" s="86"/>
       <c r="B105" s="67"/>
-      <c r="C105" s="91"/>
-      <c r="D105" s="92"/>
-      <c r="E105" s="93"/>
+      <c r="C105" s="89"/>
+      <c r="D105" s="90"/>
+      <c r="E105" s="92"/>
       <c r="F105" s="37"/>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
@@ -10145,15 +10147,15 @@
       <c r="BN105" s="48"/>
     </row>
     <row r="106" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A106" s="83">
+      <c r="A106" s="85">
         <v>52</v>
       </c>
       <c r="B106" s="67"/>
-      <c r="C106" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="D106" s="86"/>
-      <c r="E106" s="89" t="s">
+      <c r="C106" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="D106" s="88"/>
+      <c r="E106" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F106" s="37"/>
@@ -10193,11 +10195,11 @@
       <c r="AN106" s="15"/>
       <c r="AO106" s="24"/>
       <c r="AP106" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ106" s="8"/>
       <c r="AR106" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AS106" s="24"/>
       <c r="AT106" s="11"/>
@@ -10223,11 +10225,11 @@
       <c r="BN106" s="48"/>
     </row>
     <row r="107" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A107" s="84"/>
+      <c r="A107" s="86"/>
       <c r="B107" s="67"/>
-      <c r="C107" s="91"/>
-      <c r="D107" s="92"/>
-      <c r="E107" s="93"/>
+      <c r="C107" s="89"/>
+      <c r="D107" s="90"/>
+      <c r="E107" s="92"/>
       <c r="F107" s="37"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
@@ -10291,15 +10293,15 @@
       <c r="BN107" s="48"/>
     </row>
     <row r="108" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A108" s="83">
+      <c r="A108" s="85">
         <v>53</v>
       </c>
       <c r="B108" s="67"/>
-      <c r="C108" s="85" t="s">
+      <c r="C108" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="D108" s="86"/>
-      <c r="E108" s="89" t="s">
+      <c r="D108" s="88"/>
+      <c r="E108" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F108" s="37"/>
@@ -10340,10 +10342,10 @@
       <c r="AO108" s="8"/>
       <c r="AP108" s="8"/>
       <c r="AQ108" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR108" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="AR108" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="AS108" s="24"/>
       <c r="AT108" s="11"/>
@@ -10369,11 +10371,11 @@
       <c r="BN108" s="48"/>
     </row>
     <row r="109" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A109" s="84"/>
+      <c r="A109" s="86"/>
       <c r="B109" s="67"/>
-      <c r="C109" s="91"/>
-      <c r="D109" s="92"/>
-      <c r="E109" s="93"/>
+      <c r="C109" s="89"/>
+      <c r="D109" s="90"/>
+      <c r="E109" s="92"/>
       <c r="F109" s="37"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
@@ -10437,15 +10439,15 @@
       <c r="BN109" s="48"/>
     </row>
     <row r="110" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A110" s="83">
+      <c r="A110" s="85">
         <v>54</v>
       </c>
       <c r="B110" s="67"/>
-      <c r="C110" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="D110" s="86"/>
-      <c r="E110" s="89" t="s">
+      <c r="C110" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="D110" s="88"/>
+      <c r="E110" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F110" s="37"/>
@@ -10486,10 +10488,10 @@
       <c r="AO110" s="8"/>
       <c r="AP110" s="8"/>
       <c r="AQ110" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR110" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="AR110" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="AS110" s="24"/>
       <c r="AT110" s="11"/>
@@ -10515,11 +10517,11 @@
       <c r="BN110" s="48"/>
     </row>
     <row r="111" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A111" s="84"/>
+      <c r="A111" s="86"/>
       <c r="B111" s="67"/>
-      <c r="C111" s="91"/>
-      <c r="D111" s="92"/>
-      <c r="E111" s="93"/>
+      <c r="C111" s="89"/>
+      <c r="D111" s="90"/>
+      <c r="E111" s="92"/>
       <c r="F111" s="37"/>
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
@@ -10583,15 +10585,15 @@
       <c r="BN111" s="48"/>
     </row>
     <row r="112" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A112" s="83">
+      <c r="A112" s="85">
         <v>55</v>
       </c>
       <c r="B112" s="67"/>
-      <c r="C112" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="D112" s="86"/>
-      <c r="E112" s="89" t="s">
+      <c r="C112" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="D112" s="88"/>
+      <c r="E112" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F112" s="37"/>
@@ -10632,10 +10634,10 @@
       <c r="AO112" s="8"/>
       <c r="AP112" s="8"/>
       <c r="AQ112" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR112" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="AR112" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="AS112" s="24"/>
       <c r="AT112" s="11"/>
@@ -10661,11 +10663,11 @@
       <c r="BN112" s="48"/>
     </row>
     <row r="113" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A113" s="84"/>
+      <c r="A113" s="86"/>
       <c r="B113" s="67"/>
-      <c r="C113" s="91"/>
-      <c r="D113" s="92"/>
-      <c r="E113" s="93"/>
+      <c r="C113" s="89"/>
+      <c r="D113" s="90"/>
+      <c r="E113" s="92"/>
       <c r="F113" s="37"/>
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
@@ -10729,15 +10731,15 @@
       <c r="BN113" s="48"/>
     </row>
     <row r="114" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A114" s="83">
+      <c r="A114" s="85">
         <v>56</v>
       </c>
       <c r="B114" s="67"/>
-      <c r="C114" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="D114" s="86"/>
-      <c r="E114" s="89" t="s">
+      <c r="C114" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="D114" s="88"/>
+      <c r="E114" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F114" s="37"/>
@@ -10792,7 +10794,7 @@
       <c r="BC114" s="8"/>
       <c r="BD114" s="8"/>
       <c r="BE114" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BF114" s="8"/>
       <c r="BG114" s="8"/>
@@ -10805,11 +10807,11 @@
       <c r="BN114" s="48"/>
     </row>
     <row r="115" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A115" s="84"/>
+      <c r="A115" s="86"/>
       <c r="B115" s="67"/>
-      <c r="C115" s="91"/>
-      <c r="D115" s="92"/>
-      <c r="E115" s="93"/>
+      <c r="C115" s="89"/>
+      <c r="D115" s="90"/>
+      <c r="E115" s="92"/>
       <c r="F115" s="37"/>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
@@ -10873,15 +10875,15 @@
       <c r="BN115" s="48"/>
     </row>
     <row r="116" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A116" s="83">
+      <c r="A116" s="85">
         <v>57</v>
       </c>
       <c r="B116" s="67"/>
-      <c r="C116" s="85" t="s">
+      <c r="C116" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="D116" s="86"/>
-      <c r="E116" s="89" t="s">
+      <c r="D116" s="88"/>
+      <c r="E116" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F116" s="37"/>
@@ -10936,7 +10938,7 @@
       <c r="BC116" s="8"/>
       <c r="BD116" s="8"/>
       <c r="BE116" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BF116" s="8"/>
       <c r="BG116" s="8"/>
@@ -10949,11 +10951,11 @@
       <c r="BN116" s="48"/>
     </row>
     <row r="117" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A117" s="84"/>
+      <c r="A117" s="86"/>
       <c r="B117" s="67"/>
-      <c r="C117" s="91"/>
-      <c r="D117" s="92"/>
-      <c r="E117" s="93"/>
+      <c r="C117" s="89"/>
+      <c r="D117" s="90"/>
+      <c r="E117" s="92"/>
       <c r="F117" s="37"/>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
@@ -11017,15 +11019,15 @@
       <c r="BN117" s="48"/>
     </row>
     <row r="118" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A118" s="83">
+      <c r="A118" s="85">
         <v>58</v>
       </c>
       <c r="B118" s="67"/>
-      <c r="C118" s="85" t="s">
+      <c r="C118" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="D118" s="86"/>
-      <c r="E118" s="89" t="s">
+      <c r="D118" s="88"/>
+      <c r="E118" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F118" s="37"/>
@@ -11080,7 +11082,7 @@
       <c r="BC118" s="8"/>
       <c r="BD118" s="8"/>
       <c r="BE118" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BF118" s="8"/>
       <c r="BG118" s="8"/>
@@ -11093,11 +11095,11 @@
       <c r="BN118" s="48"/>
     </row>
     <row r="119" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A119" s="84"/>
+      <c r="A119" s="86"/>
       <c r="B119" s="67"/>
-      <c r="C119" s="91"/>
-      <c r="D119" s="92"/>
-      <c r="E119" s="93"/>
+      <c r="C119" s="89"/>
+      <c r="D119" s="90"/>
+      <c r="E119" s="92"/>
       <c r="F119" s="37"/>
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
@@ -11161,15 +11163,15 @@
       <c r="BN119" s="48"/>
     </row>
     <row r="120" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A120" s="83">
+      <c r="A120" s="85">
         <v>59</v>
       </c>
       <c r="B120" s="67"/>
-      <c r="C120" s="85" t="s">
+      <c r="C120" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="D120" s="86"/>
-      <c r="E120" s="89" t="s">
+      <c r="D120" s="88"/>
+      <c r="E120" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F120" s="37"/>
@@ -11237,11 +11239,11 @@
       <c r="BN120" s="48"/>
     </row>
     <row r="121" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A121" s="84"/>
+      <c r="A121" s="86"/>
       <c r="B121" s="67"/>
-      <c r="C121" s="91"/>
-      <c r="D121" s="92"/>
-      <c r="E121" s="93"/>
+      <c r="C121" s="89"/>
+      <c r="D121" s="90"/>
+      <c r="E121" s="92"/>
       <c r="F121" s="37"/>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
@@ -11305,15 +11307,15 @@
       <c r="BN121" s="48"/>
     </row>
     <row r="122" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A122" s="83">
+      <c r="A122" s="85">
         <v>60</v>
       </c>
       <c r="B122" s="67"/>
-      <c r="C122" s="85" t="s">
+      <c r="C122" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D122" s="86"/>
-      <c r="E122" s="89" t="s">
+      <c r="D122" s="88"/>
+      <c r="E122" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F122" s="37"/>
@@ -11368,7 +11370,7 @@
       <c r="BC122" s="8"/>
       <c r="BD122" s="8"/>
       <c r="BE122" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BF122" s="8"/>
       <c r="BG122" s="8"/>
@@ -11381,11 +11383,11 @@
       <c r="BN122" s="48"/>
     </row>
     <row r="123" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A123" s="84"/>
+      <c r="A123" s="86"/>
       <c r="B123" s="67"/>
-      <c r="C123" s="91"/>
-      <c r="D123" s="92"/>
-      <c r="E123" s="93"/>
+      <c r="C123" s="89"/>
+      <c r="D123" s="90"/>
+      <c r="E123" s="92"/>
       <c r="F123" s="37"/>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
@@ -11449,15 +11451,15 @@
       <c r="BN123" s="48"/>
     </row>
     <row r="124" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A124" s="83">
+      <c r="A124" s="85">
         <v>61</v>
       </c>
       <c r="B124" s="67"/>
-      <c r="C124" s="85" t="s">
+      <c r="C124" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="D124" s="86"/>
-      <c r="E124" s="89" t="s">
+      <c r="D124" s="88"/>
+      <c r="E124" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F124" s="37"/>
@@ -11513,7 +11515,7 @@
       <c r="BD124" s="8"/>
       <c r="BE124" s="8"/>
       <c r="BF124" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BG124" s="8"/>
       <c r="BH124" s="11"/>
@@ -11525,11 +11527,11 @@
       <c r="BN124" s="48"/>
     </row>
     <row r="125" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A125" s="84"/>
+      <c r="A125" s="86"/>
       <c r="B125" s="67"/>
-      <c r="C125" s="91"/>
-      <c r="D125" s="92"/>
-      <c r="E125" s="93"/>
+      <c r="C125" s="89"/>
+      <c r="D125" s="90"/>
+      <c r="E125" s="92"/>
       <c r="F125" s="37"/>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
@@ -11593,15 +11595,15 @@
       <c r="BN125" s="48"/>
     </row>
     <row r="126" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A126" s="83">
+      <c r="A126" s="85">
         <v>62</v>
       </c>
       <c r="B126" s="67"/>
-      <c r="C126" s="85" t="s">
+      <c r="C126" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="D126" s="86"/>
-      <c r="E126" s="89" t="s">
+      <c r="D126" s="88"/>
+      <c r="E126" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F126" s="37"/>
@@ -11669,11 +11671,11 @@
       <c r="BN126" s="48"/>
     </row>
     <row r="127" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A127" s="84"/>
+      <c r="A127" s="86"/>
       <c r="B127" s="67"/>
-      <c r="C127" s="91"/>
-      <c r="D127" s="92"/>
-      <c r="E127" s="93"/>
+      <c r="C127" s="89"/>
+      <c r="D127" s="90"/>
+      <c r="E127" s="92"/>
       <c r="F127" s="37"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
@@ -11737,15 +11739,15 @@
       <c r="BN127" s="48"/>
     </row>
     <row r="128" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A128" s="83">
+      <c r="A128" s="85">
         <v>63</v>
       </c>
       <c r="B128" s="67"/>
-      <c r="C128" s="85" t="s">
+      <c r="C128" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D128" s="86"/>
-      <c r="E128" s="89" t="s">
+      <c r="D128" s="88"/>
+      <c r="E128" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F128" s="37"/>
@@ -11813,11 +11815,11 @@
       <c r="BN128" s="48"/>
     </row>
     <row r="129" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A129" s="84"/>
+      <c r="A129" s="86"/>
       <c r="B129" s="67"/>
-      <c r="C129" s="91"/>
-      <c r="D129" s="92"/>
-      <c r="E129" s="93"/>
+      <c r="C129" s="89"/>
+      <c r="D129" s="90"/>
+      <c r="E129" s="92"/>
       <c r="F129" s="37"/>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
@@ -11881,15 +11883,15 @@
       <c r="BN129" s="48"/>
     </row>
     <row r="130" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A130" s="83">
+      <c r="A130" s="85">
         <v>64</v>
       </c>
       <c r="B130" s="67"/>
-      <c r="C130" s="85" t="s">
+      <c r="C130" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="D130" s="86"/>
-      <c r="E130" s="89" t="s">
+      <c r="D130" s="88"/>
+      <c r="E130" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F130" s="37"/>
@@ -11945,7 +11947,7 @@
       <c r="BD130" s="8"/>
       <c r="BE130" s="8"/>
       <c r="BF130" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BG130" s="8"/>
       <c r="BH130" s="11"/>
@@ -11957,11 +11959,11 @@
       <c r="BN130" s="48"/>
     </row>
     <row r="131" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A131" s="84"/>
+      <c r="A131" s="86"/>
       <c r="B131" s="67"/>
-      <c r="C131" s="91"/>
-      <c r="D131" s="92"/>
-      <c r="E131" s="93"/>
+      <c r="C131" s="89"/>
+      <c r="D131" s="90"/>
+      <c r="E131" s="92"/>
       <c r="F131" s="37"/>
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
@@ -12025,15 +12027,15 @@
       <c r="BN131" s="48"/>
     </row>
     <row r="132" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A132" s="83">
+      <c r="A132" s="85">
         <v>65</v>
       </c>
       <c r="B132" s="67"/>
-      <c r="C132" s="85" t="s">
+      <c r="C132" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D132" s="86"/>
-      <c r="E132" s="89" t="s">
+      <c r="D132" s="88"/>
+      <c r="E132" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F132" s="37"/>
@@ -12090,7 +12092,7 @@
       <c r="BE132" s="8"/>
       <c r="BF132" s="8"/>
       <c r="BG132" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BH132" s="11"/>
       <c r="BI132" s="15"/>
@@ -12101,11 +12103,11 @@
       <c r="BN132" s="48"/>
     </row>
     <row r="133" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A133" s="84"/>
+      <c r="A133" s="86"/>
       <c r="B133" s="67"/>
-      <c r="C133" s="91"/>
-      <c r="D133" s="92"/>
-      <c r="E133" s="93"/>
+      <c r="C133" s="89"/>
+      <c r="D133" s="90"/>
+      <c r="E133" s="92"/>
       <c r="F133" s="37"/>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
@@ -12169,15 +12171,15 @@
       <c r="BN133" s="48"/>
     </row>
     <row r="134" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A134" s="83">
+      <c r="A134" s="85">
         <v>66</v>
       </c>
       <c r="B134" s="67"/>
-      <c r="C134" s="85" t="s">
+      <c r="C134" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="D134" s="86"/>
-      <c r="E134" s="89" t="s">
+      <c r="D134" s="88"/>
+      <c r="E134" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F134" s="37"/>
@@ -12234,7 +12236,7 @@
       <c r="BE134" s="8"/>
       <c r="BF134" s="8"/>
       <c r="BG134" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BH134" s="11"/>
       <c r="BI134" s="15"/>
@@ -12245,11 +12247,11 @@
       <c r="BN134" s="48"/>
     </row>
     <row r="135" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A135" s="84"/>
+      <c r="A135" s="86"/>
       <c r="B135" s="67"/>
-      <c r="C135" s="91"/>
-      <c r="D135" s="92"/>
-      <c r="E135" s="93"/>
+      <c r="C135" s="89"/>
+      <c r="D135" s="90"/>
+      <c r="E135" s="92"/>
       <c r="F135" s="37"/>
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
@@ -12313,15 +12315,15 @@
       <c r="BN135" s="48"/>
     </row>
     <row r="136" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A136" s="83">
+      <c r="A136" s="85">
         <v>67</v>
       </c>
       <c r="B136" s="67"/>
-      <c r="C136" s="85" t="s">
+      <c r="C136" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="D136" s="86"/>
-      <c r="E136" s="89" t="s">
+      <c r="D136" s="88"/>
+      <c r="E136" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F136" s="38"/>
@@ -12378,7 +12380,7 @@
       <c r="BE136" s="19"/>
       <c r="BF136" s="19"/>
       <c r="BG136" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BH136" s="20"/>
       <c r="BI136" s="21"/>
@@ -12389,11 +12391,11 @@
       <c r="BN136" s="45"/>
     </row>
     <row r="137" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A137" s="84"/>
+      <c r="A137" s="86"/>
       <c r="B137" s="68"/>
-      <c r="C137" s="87"/>
-      <c r="D137" s="88"/>
-      <c r="E137" s="90"/>
+      <c r="C137" s="93"/>
+      <c r="D137" s="94"/>
+      <c r="E137" s="95"/>
       <c r="F137" s="40"/>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
@@ -12457,17 +12459,17 @@
       <c r="BN137" s="49"/>
     </row>
     <row r="138" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A138" s="83">
+      <c r="A138" s="85">
         <v>68</v>
       </c>
       <c r="B138" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="C138" s="95" t="s">
-        <v>78</v>
-      </c>
-      <c r="D138" s="96"/>
-      <c r="E138" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="C138" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="D138" s="97"/>
+      <c r="E138" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F138" s="37"/>
@@ -12503,7 +12505,7 @@
       <c r="AJ138" s="37"/>
       <c r="AK138" s="8"/>
       <c r="AL138" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AM138" s="11"/>
       <c r="AN138" s="15"/>
@@ -12511,7 +12513,7 @@
       <c r="AP138" s="8"/>
       <c r="AQ138" s="8"/>
       <c r="AR138" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AS138" s="24"/>
       <c r="AT138" s="11"/>
@@ -12537,11 +12539,11 @@
       <c r="BN138" s="48"/>
     </row>
     <row r="139" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A139" s="84"/>
+      <c r="A139" s="86"/>
       <c r="B139" s="67"/>
-      <c r="C139" s="91"/>
-      <c r="D139" s="92"/>
-      <c r="E139" s="93"/>
+      <c r="C139" s="89"/>
+      <c r="D139" s="90"/>
+      <c r="E139" s="92"/>
       <c r="F139" s="37"/>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
@@ -12605,15 +12607,15 @@
       <c r="BN139" s="48"/>
     </row>
     <row r="140" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A140" s="83">
+      <c r="A140" s="85">
         <v>69</v>
       </c>
       <c r="B140" s="67"/>
-      <c r="C140" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="D140" s="86"/>
-      <c r="E140" s="89" t="s">
+      <c r="C140" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="D140" s="88"/>
+      <c r="E140" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F140" s="37"/>
@@ -12653,11 +12655,11 @@
       <c r="AN140" s="15"/>
       <c r="AO140" s="8"/>
       <c r="AP140" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ140" s="8"/>
       <c r="AR140" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AS140" s="24"/>
       <c r="AT140" s="11"/>
@@ -12683,11 +12685,11 @@
       <c r="BN140" s="48"/>
     </row>
     <row r="141" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A141" s="84"/>
+      <c r="A141" s="86"/>
       <c r="B141" s="67"/>
-      <c r="C141" s="91"/>
-      <c r="D141" s="92"/>
-      <c r="E141" s="93"/>
+      <c r="C141" s="89"/>
+      <c r="D141" s="90"/>
+      <c r="E141" s="92"/>
       <c r="F141" s="37"/>
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
@@ -12751,15 +12753,15 @@
       <c r="BN141" s="48"/>
     </row>
     <row r="142" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A142" s="83">
+      <c r="A142" s="85">
         <v>70</v>
       </c>
       <c r="B142" s="67"/>
-      <c r="C142" s="85" t="s">
+      <c r="C142" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="D142" s="86"/>
-      <c r="E142" s="89" t="s">
+      <c r="D142" s="88"/>
+      <c r="E142" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F142" s="37"/>
@@ -12800,10 +12802,10 @@
       <c r="AO142" s="8"/>
       <c r="AP142" s="8"/>
       <c r="AQ142" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR142" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="AR142" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="AS142" s="24"/>
       <c r="AT142" s="11"/>
@@ -12829,11 +12831,11 @@
       <c r="BN142" s="48"/>
     </row>
     <row r="143" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A143" s="84"/>
+      <c r="A143" s="86"/>
       <c r="B143" s="67"/>
-      <c r="C143" s="91"/>
-      <c r="D143" s="92"/>
-      <c r="E143" s="93"/>
+      <c r="C143" s="89"/>
+      <c r="D143" s="90"/>
+      <c r="E143" s="92"/>
       <c r="F143" s="37"/>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
@@ -12897,15 +12899,15 @@
       <c r="BN143" s="48"/>
     </row>
     <row r="144" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A144" s="83">
+      <c r="A144" s="85">
         <v>71</v>
       </c>
       <c r="B144" s="67"/>
-      <c r="C144" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="D144" s="86"/>
-      <c r="E144" s="89" t="s">
+      <c r="C144" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="D144" s="88"/>
+      <c r="E144" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F144" s="37"/>
@@ -12946,10 +12948,10 @@
       <c r="AO144" s="8"/>
       <c r="AP144" s="8"/>
       <c r="AQ144" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR144" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="AR144" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="AS144" s="24"/>
       <c r="AT144" s="11"/>
@@ -12975,11 +12977,11 @@
       <c r="BN144" s="48"/>
     </row>
     <row r="145" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A145" s="84"/>
+      <c r="A145" s="86"/>
       <c r="B145" s="67"/>
-      <c r="C145" s="91"/>
-      <c r="D145" s="92"/>
-      <c r="E145" s="93"/>
+      <c r="C145" s="89"/>
+      <c r="D145" s="90"/>
+      <c r="E145" s="92"/>
       <c r="F145" s="37"/>
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
@@ -13043,15 +13045,15 @@
       <c r="BN145" s="48"/>
     </row>
     <row r="146" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A146" s="83">
+      <c r="A146" s="85">
         <v>72</v>
       </c>
       <c r="B146" s="67"/>
-      <c r="C146" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="D146" s="86"/>
-      <c r="E146" s="89" t="s">
+      <c r="C146" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="D146" s="88"/>
+      <c r="E146" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F146" s="37"/>
@@ -13092,10 +13094,10 @@
       <c r="AO146" s="8"/>
       <c r="AP146" s="8"/>
       <c r="AQ146" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR146" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="AR146" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="AS146" s="24"/>
       <c r="AT146" s="11"/>
@@ -13121,11 +13123,11 @@
       <c r="BN146" s="48"/>
     </row>
     <row r="147" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A147" s="84"/>
+      <c r="A147" s="86"/>
       <c r="B147" s="67"/>
-      <c r="C147" s="91"/>
-      <c r="D147" s="92"/>
-      <c r="E147" s="93"/>
+      <c r="C147" s="89"/>
+      <c r="D147" s="90"/>
+      <c r="E147" s="92"/>
       <c r="F147" s="37"/>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
@@ -13189,15 +13191,15 @@
       <c r="BN147" s="48"/>
     </row>
     <row r="148" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A148" s="83">
+      <c r="A148" s="85">
         <v>73</v>
       </c>
       <c r="B148" s="67"/>
-      <c r="C148" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="D148" s="86"/>
-      <c r="E148" s="89" t="s">
+      <c r="C148" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="D148" s="88"/>
+      <c r="E148" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F148" s="37"/>
@@ -13265,11 +13267,11 @@
       <c r="BN148" s="48"/>
     </row>
     <row r="149" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A149" s="84"/>
+      <c r="A149" s="86"/>
       <c r="B149" s="67"/>
-      <c r="C149" s="91"/>
-      <c r="D149" s="92"/>
-      <c r="E149" s="93"/>
+      <c r="C149" s="89"/>
+      <c r="D149" s="90"/>
+      <c r="E149" s="92"/>
       <c r="F149" s="37"/>
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
@@ -13333,15 +13335,15 @@
       <c r="BN149" s="48"/>
     </row>
     <row r="150" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A150" s="83">
+      <c r="A150" s="85">
         <v>74</v>
       </c>
       <c r="B150" s="67"/>
-      <c r="C150" s="85" t="s">
+      <c r="C150" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="D150" s="86"/>
-      <c r="E150" s="89" t="s">
+      <c r="D150" s="88"/>
+      <c r="E150" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F150" s="37"/>
@@ -13401,7 +13403,7 @@
       <c r="BH150" s="11"/>
       <c r="BI150" s="15"/>
       <c r="BJ150" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BK150" s="8"/>
       <c r="BL150" s="8"/>
@@ -13409,11 +13411,11 @@
       <c r="BN150" s="48"/>
     </row>
     <row r="151" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A151" s="84"/>
+      <c r="A151" s="86"/>
       <c r="B151" s="67"/>
-      <c r="C151" s="91"/>
-      <c r="D151" s="92"/>
-      <c r="E151" s="93"/>
+      <c r="C151" s="89"/>
+      <c r="D151" s="90"/>
+      <c r="E151" s="92"/>
       <c r="F151" s="37"/>
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
@@ -13477,15 +13479,15 @@
       <c r="BN151" s="48"/>
     </row>
     <row r="152" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A152" s="83">
+      <c r="A152" s="85">
         <v>75</v>
       </c>
       <c r="B152" s="67"/>
-      <c r="C152" s="85" t="s">
+      <c r="C152" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="D152" s="86"/>
-      <c r="E152" s="89" t="s">
+      <c r="D152" s="88"/>
+      <c r="E152" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F152" s="37"/>
@@ -13553,11 +13555,11 @@
       <c r="BN152" s="48"/>
     </row>
     <row r="153" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A153" s="84"/>
+      <c r="A153" s="86"/>
       <c r="B153" s="67"/>
-      <c r="C153" s="91"/>
-      <c r="D153" s="92"/>
-      <c r="E153" s="93"/>
+      <c r="C153" s="89"/>
+      <c r="D153" s="90"/>
+      <c r="E153" s="92"/>
       <c r="F153" s="37"/>
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
@@ -13621,15 +13623,15 @@
       <c r="BN153" s="48"/>
     </row>
     <row r="154" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A154" s="83">
+      <c r="A154" s="85">
         <v>76</v>
       </c>
       <c r="B154" s="67"/>
-      <c r="C154" s="85" t="s">
+      <c r="C154" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="D154" s="86"/>
-      <c r="E154" s="89" t="s">
+      <c r="D154" s="88"/>
+      <c r="E154" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F154" s="37"/>
@@ -13689,7 +13691,7 @@
       <c r="BH154" s="11"/>
       <c r="BI154" s="15"/>
       <c r="BJ154" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BK154" s="8"/>
       <c r="BL154" s="8"/>
@@ -13697,11 +13699,11 @@
       <c r="BN154" s="48"/>
     </row>
     <row r="155" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A155" s="84"/>
+      <c r="A155" s="86"/>
       <c r="B155" s="67"/>
-      <c r="C155" s="91"/>
-      <c r="D155" s="92"/>
-      <c r="E155" s="93"/>
+      <c r="C155" s="89"/>
+      <c r="D155" s="90"/>
+      <c r="E155" s="92"/>
       <c r="F155" s="37"/>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
@@ -13765,15 +13767,15 @@
       <c r="BN155" s="48"/>
     </row>
     <row r="156" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A156" s="83">
+      <c r="A156" s="85">
         <v>77</v>
       </c>
       <c r="B156" s="67"/>
-      <c r="C156" s="85" t="s">
+      <c r="C156" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D156" s="86"/>
-      <c r="E156" s="89" t="s">
+      <c r="D156" s="88"/>
+      <c r="E156" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F156" s="37"/>
@@ -13834,18 +13836,18 @@
       <c r="BI156" s="15"/>
       <c r="BJ156" s="8"/>
       <c r="BK156" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BL156" s="8"/>
       <c r="BM156" s="8"/>
       <c r="BN156" s="48"/>
     </row>
     <row r="157" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A157" s="84"/>
+      <c r="A157" s="86"/>
       <c r="B157" s="67"/>
-      <c r="C157" s="91"/>
-      <c r="D157" s="92"/>
-      <c r="E157" s="93"/>
+      <c r="C157" s="89"/>
+      <c r="D157" s="90"/>
+      <c r="E157" s="92"/>
       <c r="F157" s="37"/>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
@@ -13909,15 +13911,15 @@
       <c r="BN157" s="48"/>
     </row>
     <row r="158" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A158" s="83">
+      <c r="A158" s="85">
         <v>78</v>
       </c>
       <c r="B158" s="67"/>
-      <c r="C158" s="85" t="s">
+      <c r="C158" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="D158" s="86"/>
-      <c r="E158" s="89" t="s">
+      <c r="D158" s="88"/>
+      <c r="E158" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F158" s="37"/>
@@ -13978,18 +13980,18 @@
       <c r="BI158" s="15"/>
       <c r="BJ158" s="8"/>
       <c r="BK158" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BL158" s="8"/>
       <c r="BM158" s="8"/>
       <c r="BN158" s="48"/>
     </row>
     <row r="159" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A159" s="84"/>
+      <c r="A159" s="86"/>
       <c r="B159" s="67"/>
-      <c r="C159" s="91"/>
-      <c r="D159" s="92"/>
-      <c r="E159" s="93"/>
+      <c r="C159" s="89"/>
+      <c r="D159" s="90"/>
+      <c r="E159" s="92"/>
       <c r="F159" s="37"/>
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
@@ -14053,15 +14055,15 @@
       <c r="BN159" s="48"/>
     </row>
     <row r="160" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A160" s="83">
+      <c r="A160" s="85">
         <v>79</v>
       </c>
       <c r="B160" s="67"/>
-      <c r="C160" s="85" t="s">
+      <c r="C160" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="D160" s="86"/>
-      <c r="E160" s="89" t="s">
+      <c r="D160" s="88"/>
+      <c r="E160" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F160" s="37"/>
@@ -14122,18 +14124,18 @@
       <c r="BI160" s="15"/>
       <c r="BJ160" s="8"/>
       <c r="BK160" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BL160" s="8"/>
       <c r="BM160" s="8"/>
       <c r="BN160" s="48"/>
     </row>
     <row r="161" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A161" s="84"/>
+      <c r="A161" s="86"/>
       <c r="B161" s="67"/>
-      <c r="C161" s="91"/>
-      <c r="D161" s="92"/>
-      <c r="E161" s="93"/>
+      <c r="C161" s="89"/>
+      <c r="D161" s="90"/>
+      <c r="E161" s="92"/>
       <c r="F161" s="37"/>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
@@ -14197,15 +14199,15 @@
       <c r="BN161" s="48"/>
     </row>
     <row r="162" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A162" s="83">
+      <c r="A162" s="85">
         <v>80</v>
       </c>
       <c r="B162" s="67"/>
-      <c r="C162" s="85" t="s">
+      <c r="C162" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D162" s="86"/>
-      <c r="E162" s="89" t="s">
+      <c r="D162" s="88"/>
+      <c r="E162" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F162" s="37"/>
@@ -14266,18 +14268,18 @@
       <c r="BI162" s="15"/>
       <c r="BJ162" s="8"/>
       <c r="BK162" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BL162" s="8"/>
       <c r="BM162" s="8"/>
       <c r="BN162" s="48"/>
     </row>
     <row r="163" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A163" s="84"/>
+      <c r="A163" s="86"/>
       <c r="B163" s="67"/>
-      <c r="C163" s="91"/>
-      <c r="D163" s="92"/>
-      <c r="E163" s="93"/>
+      <c r="C163" s="89"/>
+      <c r="D163" s="90"/>
+      <c r="E163" s="92"/>
       <c r="F163" s="37"/>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
@@ -14341,15 +14343,15 @@
       <c r="BN163" s="48"/>
     </row>
     <row r="164" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A164" s="83">
+      <c r="A164" s="85">
         <v>81</v>
       </c>
       <c r="B164" s="67"/>
-      <c r="C164" s="85" t="s">
+      <c r="C164" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="D164" s="86"/>
-      <c r="E164" s="89" t="s">
+      <c r="D164" s="88"/>
+      <c r="E164" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F164" s="37"/>
@@ -14411,17 +14413,17 @@
       <c r="BJ164" s="8"/>
       <c r="BK164" s="8"/>
       <c r="BL164" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BM164" s="81"/>
       <c r="BN164" s="48"/>
     </row>
     <row r="165" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A165" s="84"/>
+      <c r="A165" s="86"/>
       <c r="B165" s="67"/>
-      <c r="C165" s="91"/>
-      <c r="D165" s="92"/>
-      <c r="E165" s="93"/>
+      <c r="C165" s="89"/>
+      <c r="D165" s="90"/>
+      <c r="E165" s="92"/>
       <c r="F165" s="37"/>
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
@@ -14485,15 +14487,15 @@
       <c r="BN165" s="48"/>
     </row>
     <row r="166" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A166" s="83">
+      <c r="A166" s="85">
         <v>82</v>
       </c>
       <c r="B166" s="67"/>
-      <c r="C166" s="85" t="s">
+      <c r="C166" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D166" s="86"/>
-      <c r="E166" s="89" t="s">
+      <c r="D166" s="88"/>
+      <c r="E166" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F166" s="37"/>
@@ -14555,17 +14557,17 @@
       <c r="BJ166" s="8"/>
       <c r="BK166" s="8"/>
       <c r="BL166" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BM166" s="8"/>
       <c r="BN166" s="48"/>
     </row>
     <row r="167" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A167" s="84"/>
+      <c r="A167" s="86"/>
       <c r="B167" s="67"/>
-      <c r="C167" s="91"/>
-      <c r="D167" s="92"/>
-      <c r="E167" s="93"/>
+      <c r="C167" s="89"/>
+      <c r="D167" s="90"/>
+      <c r="E167" s="92"/>
       <c r="F167" s="37"/>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
@@ -14629,15 +14631,15 @@
       <c r="BN167" s="48"/>
     </row>
     <row r="168" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A168" s="83">
+      <c r="A168" s="85">
         <v>83</v>
       </c>
       <c r="B168" s="67"/>
-      <c r="C168" s="85" t="s">
+      <c r="C168" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="D168" s="86"/>
-      <c r="E168" s="89" t="s">
+      <c r="D168" s="88"/>
+      <c r="E168" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F168" s="37"/>
@@ -14705,11 +14707,11 @@
       <c r="BN168" s="48"/>
     </row>
     <row r="169" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A169" s="84"/>
+      <c r="A169" s="86"/>
       <c r="B169" s="67"/>
-      <c r="C169" s="91"/>
-      <c r="D169" s="92"/>
-      <c r="E169" s="93"/>
+      <c r="C169" s="89"/>
+      <c r="D169" s="90"/>
+      <c r="E169" s="92"/>
       <c r="F169" s="37"/>
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
@@ -14773,15 +14775,15 @@
       <c r="BN169" s="48"/>
     </row>
     <row r="170" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A170" s="83">
+      <c r="A170" s="85">
         <v>84</v>
       </c>
       <c r="B170" s="67"/>
-      <c r="C170" s="85" t="s">
+      <c r="C170" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="D170" s="86"/>
-      <c r="E170" s="89" t="s">
+      <c r="D170" s="88"/>
+      <c r="E170" s="91" t="s">
         <v>25</v>
       </c>
       <c r="F170" s="38"/>
@@ -14843,17 +14845,17 @@
       <c r="BJ170" s="19"/>
       <c r="BK170" s="19"/>
       <c r="BL170" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BM170" s="19"/>
       <c r="BN170" s="45"/>
     </row>
     <row r="171" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A171" s="84"/>
+      <c r="A171" s="86"/>
       <c r="B171" s="68"/>
-      <c r="C171" s="87"/>
-      <c r="D171" s="88"/>
-      <c r="E171" s="90"/>
+      <c r="C171" s="93"/>
+      <c r="D171" s="94"/>
+      <c r="E171" s="95"/>
       <c r="F171" s="40"/>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
@@ -15009,6 +15011,15 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="C32:D33"/>
     <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="A44:A45"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="C58:D59"/>
     <mergeCell ref="E58:E59"/>
@@ -15068,6 +15079,9 @@
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="C78:D79"/>
     <mergeCell ref="E78:E79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="C80:D81"/>
+    <mergeCell ref="E80:E81"/>
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="C86:D87"/>
     <mergeCell ref="E86:E87"/>
@@ -15116,12 +15130,12 @@
     <mergeCell ref="A110:A111"/>
     <mergeCell ref="C110:D111"/>
     <mergeCell ref="E110:E111"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="C116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="C122:D123"/>
+    <mergeCell ref="E122:E123"/>
     <mergeCell ref="A134:A135"/>
     <mergeCell ref="C134:D135"/>
     <mergeCell ref="E134:E135"/>
@@ -15131,21 +15145,15 @@
     <mergeCell ref="A132:A133"/>
     <mergeCell ref="C132:D133"/>
     <mergeCell ref="E132:E133"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="C126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="C128:D129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="C122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="C80:D81"/>
-    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="C120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="C112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="C140:D141"/>
+    <mergeCell ref="E140:E141"/>
     <mergeCell ref="A138:A139"/>
     <mergeCell ref="C138:D139"/>
     <mergeCell ref="E138:E139"/>
@@ -15155,18 +15163,12 @@
     <mergeCell ref="A124:A125"/>
     <mergeCell ref="C124:D125"/>
     <mergeCell ref="E124:E125"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="C116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="C120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="C112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="C140:D141"/>
-    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="C126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="C128:D129"/>
+    <mergeCell ref="E128:E129"/>
     <mergeCell ref="A142:A143"/>
     <mergeCell ref="C142:D143"/>
     <mergeCell ref="E142:E143"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\disstrg\業務処理\戦略本部\01_一般用\Ｊａｖａ選抜研修\新人・強化研修_2025\参加メンバー\新卒メンバー\山拓海\10_レビュー依頼\000_要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\演習プロジェクト\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A849F81-EA7A-4EBE-A737-C0ED88ADDDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C70879-AEDB-4A8B-A454-A3AC8B090C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1569,11 +1569,38 @@
     <xf numFmtId="49" fontId="5" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1587,30 +1614,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1623,20 +1626,20 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1650,8 +1653,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1716,23 +1722,17 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2284,10 +2284,10 @@
   <dimension ref="A1:BO175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
+      <selection pane="bottomRight" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2302,92 +2302,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="120"/>
-      <c r="E1" s="125" t="s">
+      <c r="D1" s="122"/>
+      <c r="E1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="105">
+      <c r="F1" s="85">
         <v>45901</v>
       </c>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="106"/>
-      <c r="AH1" s="106"/>
-      <c r="AI1" s="107"/>
-      <c r="AJ1" s="105">
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="114"/>
+      <c r="AJ1" s="85">
         <v>45931</v>
       </c>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="106"/>
-      <c r="AM1" s="106"/>
-      <c r="AN1" s="106"/>
-      <c r="AO1" s="106"/>
-      <c r="AP1" s="106"/>
-      <c r="AQ1" s="106"/>
-      <c r="AR1" s="106"/>
-      <c r="AS1" s="106"/>
-      <c r="AT1" s="106"/>
-      <c r="AU1" s="106"/>
-      <c r="AV1" s="106"/>
-      <c r="AW1" s="106"/>
-      <c r="AX1" s="106"/>
-      <c r="AY1" s="106"/>
-      <c r="AZ1" s="106"/>
-      <c r="BA1" s="106"/>
-      <c r="BB1" s="106"/>
-      <c r="BC1" s="106"/>
-      <c r="BD1" s="106"/>
-      <c r="BE1" s="106"/>
-      <c r="BF1" s="106"/>
-      <c r="BG1" s="106"/>
-      <c r="BH1" s="106"/>
-      <c r="BI1" s="106"/>
-      <c r="BJ1" s="106"/>
-      <c r="BK1" s="106"/>
-      <c r="BL1" s="106"/>
-      <c r="BM1" s="106"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+      <c r="AW1" s="86"/>
+      <c r="AX1" s="86"/>
+      <c r="AY1" s="86"/>
+      <c r="AZ1" s="86"/>
+      <c r="BA1" s="86"/>
+      <c r="BB1" s="86"/>
+      <c r="BC1" s="86"/>
+      <c r="BD1" s="86"/>
+      <c r="BE1" s="86"/>
+      <c r="BF1" s="86"/>
+      <c r="BG1" s="86"/>
+      <c r="BH1" s="86"/>
+      <c r="BI1" s="86"/>
+      <c r="BJ1" s="86"/>
+      <c r="BK1" s="86"/>
+      <c r="BL1" s="86"/>
+      <c r="BM1" s="86"/>
       <c r="BN1" s="50"/>
       <c r="BO1" s="3"/>
     </row>
     <row r="2" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A2" s="114"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="126"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="128"/>
       <c r="F2" s="33">
         <v>42156</v>
       </c>
@@ -2574,11 +2574,11 @@
       <c r="BO2" s="3"/>
     </row>
     <row r="3" spans="1:67" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="115"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="127"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="129"/>
       <c r="F3" s="35" t="s">
         <v>10</v>
       </c>
@@ -2765,17 +2765,17 @@
       <c r="BO3" s="32"/>
     </row>
     <row r="4" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="85">
+      <c r="A4" s="89">
         <v>1</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="129"/>
-      <c r="E4" s="132" t="s">
+      <c r="D4" s="131"/>
+      <c r="E4" s="134" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="51"/>
@@ -2843,11 +2843,11 @@
       <c r="BN4" s="44"/>
     </row>
     <row r="5" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="86"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="25"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="133"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="135"/>
       <c r="F5" s="61"/>
       <c r="G5" s="65"/>
       <c r="H5" s="65"/>
@@ -2911,17 +2911,17 @@
       <c r="BN5" s="45"/>
     </row>
     <row r="6" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="85">
+      <c r="A6" s="89">
         <v>2</v>
       </c>
       <c r="B6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="112" t="s">
+      <c r="D6" s="110"/>
+      <c r="E6" s="95" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="26"/>
@@ -2989,11 +2989,11 @@
       <c r="BN6" s="46"/>
     </row>
     <row r="7" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="86"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="67"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="95"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="113"/>
       <c r="F7" s="39"/>
       <c r="G7" s="62"/>
       <c r="H7" s="29"/>
@@ -3057,15 +3057,15 @@
       <c r="BN7" s="47"/>
     </row>
     <row r="8" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="85">
+      <c r="A8" s="89">
         <v>3</v>
       </c>
       <c r="B8" s="67"/>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="112" t="s">
+      <c r="D8" s="110"/>
+      <c r="E8" s="95" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="26"/>
@@ -3133,11 +3133,11 @@
       <c r="BN8" s="46"/>
     </row>
     <row r="9" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="86"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="67"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="95"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="113"/>
       <c r="F9" s="39"/>
       <c r="G9" s="62"/>
       <c r="H9" s="63"/>
@@ -3201,15 +3201,15 @@
       <c r="BN9" s="47"/>
     </row>
     <row r="10" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="85">
+      <c r="A10" s="89">
         <v>4</v>
       </c>
       <c r="B10" s="67"/>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="112" t="s">
+      <c r="D10" s="110"/>
+      <c r="E10" s="95" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="26"/>
@@ -3277,11 +3277,11 @@
       <c r="BN10" s="46"/>
     </row>
     <row r="11" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="86"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="67"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="95"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
       <c r="F11" s="39"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
@@ -3345,15 +3345,15 @@
       <c r="BN11" s="47"/>
     </row>
     <row r="12" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A12" s="85">
+      <c r="A12" s="89">
         <v>5</v>
       </c>
       <c r="B12" s="67"/>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="109"/>
-      <c r="E12" s="112" t="s">
+      <c r="D12" s="110"/>
+      <c r="E12" s="95" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="26"/>
@@ -3421,11 +3421,11 @@
       <c r="BN12" s="46"/>
     </row>
     <row r="13" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="86"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="68"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="95"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="113"/>
       <c r="F13" s="39"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
@@ -3489,17 +3489,17 @@
       <c r="BN13" s="47"/>
     </row>
     <row r="14" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A14" s="85">
+      <c r="A14" s="89">
         <v>6</v>
       </c>
       <c r="B14" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="91" t="s">
+      <c r="D14" s="101"/>
+      <c r="E14" s="87" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="36"/>
@@ -3569,11 +3569,11 @@
       <c r="BN14" s="44"/>
     </row>
     <row r="15" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A15" s="86"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="67"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="92"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="37"/>
       <c r="G15" s="8"/>
       <c r="H15" s="78"/>
@@ -3590,9 +3590,9 @@
       <c r="S15" s="15"/>
       <c r="T15" s="55"/>
       <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="83"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="15"/>
       <c r="AA15" s="8"/>
@@ -3637,15 +3637,15 @@
       <c r="BN15" s="48"/>
     </row>
     <row r="16" spans="1:67" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A16" s="85">
+      <c r="A16" s="89">
         <v>7</v>
       </c>
       <c r="B16" s="67"/>
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="100"/>
-      <c r="E16" s="91" t="s">
+      <c r="D16" s="101"/>
+      <c r="E16" s="87" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="36"/>
@@ -3715,11 +3715,11 @@
       <c r="BN16" s="44"/>
     </row>
     <row r="17" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A17" s="86"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="67"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="98"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="104"/>
       <c r="F17" s="37"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -3737,8 +3737,8 @@
       <c r="T17" s="55"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="83"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="15"/>
       <c r="AA17" s="8"/>
@@ -3783,15 +3783,15 @@
       <c r="BN17" s="48"/>
     </row>
     <row r="18" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A18" s="85">
+      <c r="A18" s="89">
         <v>8</v>
       </c>
       <c r="B18" s="67"/>
-      <c r="C18" s="138" t="s">
+      <c r="C18" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="104"/>
-      <c r="E18" s="92" t="s">
+      <c r="D18" s="106"/>
+      <c r="E18" s="88" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="36"/>
@@ -3861,11 +3861,11 @@
       <c r="BN18" s="44"/>
     </row>
     <row r="19" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A19" s="86"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="67"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="92"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="88"/>
       <c r="F19" s="37"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -3883,8 +3883,8 @@
       <c r="T19" s="55"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
       <c r="Y19" s="11"/>
       <c r="Z19" s="15"/>
       <c r="AA19" s="8"/>
@@ -3929,16 +3929,16 @@
       <c r="BN19" s="48"/>
     </row>
     <row r="20" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A20" s="85">
+      <c r="A20" s="89">
         <v>9</v>
       </c>
       <c r="B20" s="67"/>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="91" t="s">
-        <v>25</v>
+      <c r="D20" s="101"/>
+      <c r="E20" s="87" t="s">
+        <v>24</v>
       </c>
       <c r="F20" s="36"/>
       <c r="G20" s="10"/>
@@ -4007,11 +4007,11 @@
       <c r="BN20" s="44"/>
     </row>
     <row r="21" spans="1:66" s="3" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A21" s="86"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="67"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="98"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="104"/>
       <c r="F21" s="37"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -4027,10 +4027,10 @@
       <c r="R21" s="11"/>
       <c r="S21" s="15"/>
       <c r="T21" s="55"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
+      <c r="U21" s="83"/>
+      <c r="V21" s="83"/>
+      <c r="W21" s="83"/>
+      <c r="X21" s="83"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="15"/>
       <c r="AA21" s="8"/>
@@ -4075,16 +4075,16 @@
       <c r="BN21" s="48"/>
     </row>
     <row r="22" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A22" s="85">
+      <c r="A22" s="89">
         <v>10</v>
       </c>
       <c r="B22" s="67"/>
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="91" t="s">
-        <v>25</v>
+      <c r="D22" s="101"/>
+      <c r="E22" s="87" t="s">
+        <v>24</v>
       </c>
       <c r="F22" s="36"/>
       <c r="G22" s="10"/>
@@ -4153,11 +4153,11 @@
       <c r="BN22" s="44"/>
     </row>
     <row r="23" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A23" s="86"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="67"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="98"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="104"/>
       <c r="F23" s="37"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -4176,7 +4176,7 @@
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
+      <c r="X23" s="83"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="15"/>
       <c r="AA23" s="8"/>
@@ -4221,15 +4221,15 @@
       <c r="BN23" s="48"/>
     </row>
     <row r="24" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A24" s="85">
+      <c r="A24" s="89">
         <v>11</v>
       </c>
       <c r="B24" s="67"/>
-      <c r="C24" s="99" t="s">
+      <c r="C24" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="91" t="s">
+      <c r="D24" s="101"/>
+      <c r="E24" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="36"/>
@@ -4299,11 +4299,11 @@
       <c r="BN24" s="44"/>
     </row>
     <row r="25" spans="1:66" s="3" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A25" s="86"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="67"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="98"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="104"/>
       <c r="F25" s="37"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -4367,15 +4367,15 @@
       <c r="BN25" s="48"/>
     </row>
     <row r="26" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A26" s="85">
+      <c r="A26" s="89">
         <v>12</v>
       </c>
       <c r="B26" s="67"/>
-      <c r="C26" s="99" t="s">
+      <c r="C26" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="91" t="s">
+      <c r="D26" s="101"/>
+      <c r="E26" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="36"/>
@@ -4445,11 +4445,11 @@
       <c r="BN26" s="44"/>
     </row>
     <row r="27" spans="1:66" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A27" s="86"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="67"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="98"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="104"/>
       <c r="F27" s="37"/>
       <c r="G27" s="8"/>
       <c r="H27" s="78"/>
@@ -4513,17 +4513,17 @@
       <c r="BN27" s="48"/>
     </row>
     <row r="28" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="85">
+      <c r="A28" s="89">
         <v>13</v>
       </c>
       <c r="B28" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="134" t="s">
+      <c r="C28" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="135"/>
-      <c r="E28" s="112" t="s">
+      <c r="D28" s="92"/>
+      <c r="E28" s="95" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="26"/>
@@ -4591,11 +4591,11 @@
       <c r="BN28" s="46"/>
     </row>
     <row r="29" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A29" s="86"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="67"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="92"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="88"/>
       <c r="F29" s="37"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -4659,15 +4659,15 @@
       <c r="BN29" s="48"/>
     </row>
     <row r="30" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A30" s="85">
+      <c r="A30" s="89">
         <v>14</v>
       </c>
       <c r="B30" s="67"/>
-      <c r="C30" s="87" t="s">
+      <c r="C30" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="88"/>
-      <c r="E30" s="91" t="s">
+      <c r="D30" s="97"/>
+      <c r="E30" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F30" s="37"/>
@@ -4735,11 +4735,11 @@
       <c r="BN30" s="48"/>
     </row>
     <row r="31" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A31" s="86"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="67"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="92"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="88"/>
       <c r="F31" s="37"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -4803,15 +4803,15 @@
       <c r="BN31" s="48"/>
     </row>
     <row r="32" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A32" s="85">
+      <c r="A32" s="89">
         <v>15</v>
       </c>
       <c r="B32" s="67"/>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="88"/>
-      <c r="E32" s="91" t="s">
+      <c r="D32" s="97"/>
+      <c r="E32" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F32" s="37"/>
@@ -4879,11 +4879,11 @@
       <c r="BN32" s="48"/>
     </row>
     <row r="33" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A33" s="86"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="67"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="92"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="88"/>
       <c r="F33" s="37"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -4947,15 +4947,15 @@
       <c r="BN33" s="48"/>
     </row>
     <row r="34" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A34" s="85">
+      <c r="A34" s="89">
         <v>16</v>
       </c>
       <c r="B34" s="67"/>
-      <c r="C34" s="87" t="s">
+      <c r="C34" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="88"/>
-      <c r="E34" s="91" t="s">
+      <c r="D34" s="97"/>
+      <c r="E34" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F34" s="37"/>
@@ -5023,11 +5023,11 @@
       <c r="BN34" s="48"/>
     </row>
     <row r="35" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A35" s="86"/>
+      <c r="A35" s="90"/>
       <c r="B35" s="67"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="92"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="88"/>
       <c r="F35" s="37"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -5091,15 +5091,15 @@
       <c r="BN35" s="48"/>
     </row>
     <row r="36" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A36" s="85">
+      <c r="A36" s="89">
         <v>17</v>
       </c>
       <c r="B36" s="67"/>
-      <c r="C36" s="87" t="s">
+      <c r="C36" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="88"/>
-      <c r="E36" s="91" t="s">
+      <c r="D36" s="97"/>
+      <c r="E36" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F36" s="37"/>
@@ -5167,11 +5167,11 @@
       <c r="BN36" s="48"/>
     </row>
     <row r="37" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A37" s="86"/>
+      <c r="A37" s="90"/>
       <c r="B37" s="67"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="92"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="88"/>
       <c r="F37" s="37"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -5235,15 +5235,15 @@
       <c r="BN37" s="48"/>
     </row>
     <row r="38" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="85">
+      <c r="A38" s="89">
         <v>18</v>
       </c>
       <c r="B38" s="67"/>
-      <c r="C38" s="87" t="s">
+      <c r="C38" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="88"/>
-      <c r="E38" s="91" t="s">
+      <c r="D38" s="97"/>
+      <c r="E38" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F38" s="37"/>
@@ -5311,11 +5311,11 @@
       <c r="BN38" s="48"/>
     </row>
     <row r="39" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A39" s="86"/>
+      <c r="A39" s="90"/>
       <c r="B39" s="67"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="92"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="88"/>
       <c r="F39" s="37"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -5379,15 +5379,15 @@
       <c r="BN39" s="48"/>
     </row>
     <row r="40" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="85">
+      <c r="A40" s="89">
         <v>19</v>
       </c>
       <c r="B40" s="67"/>
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="88"/>
-      <c r="E40" s="91" t="s">
+      <c r="D40" s="97"/>
+      <c r="E40" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F40" s="37"/>
@@ -5455,11 +5455,11 @@
       <c r="BN40" s="48"/>
     </row>
     <row r="41" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="86"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="67"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="92"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="88"/>
       <c r="F41" s="37"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -5523,15 +5523,15 @@
       <c r="BN41" s="48"/>
     </row>
     <row r="42" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="85">
+      <c r="A42" s="89">
         <v>20</v>
       </c>
       <c r="B42" s="67"/>
-      <c r="C42" s="87" t="s">
+      <c r="C42" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="88"/>
-      <c r="E42" s="91" t="s">
+      <c r="D42" s="97"/>
+      <c r="E42" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F42" s="37"/>
@@ -5599,11 +5599,11 @@
       <c r="BN42" s="48"/>
     </row>
     <row r="43" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="86"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="67"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="92"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="88"/>
       <c r="F43" s="37"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -5667,15 +5667,15 @@
       <c r="BN43" s="48"/>
     </row>
     <row r="44" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A44" s="85">
+      <c r="A44" s="89">
         <v>21</v>
       </c>
       <c r="B44" s="67"/>
-      <c r="C44" s="87" t="s">
+      <c r="C44" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="88"/>
-      <c r="E44" s="91" t="s">
+      <c r="D44" s="97"/>
+      <c r="E44" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F44" s="37"/>
@@ -5743,11 +5743,11 @@
       <c r="BN44" s="48"/>
     </row>
     <row r="45" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A45" s="86"/>
+      <c r="A45" s="90"/>
       <c r="B45" s="67"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="104"/>
       <c r="F45" s="37"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -5811,15 +5811,15 @@
       <c r="BN45" s="48"/>
     </row>
     <row r="46" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="85">
+      <c r="A46" s="89">
         <v>22</v>
       </c>
       <c r="B46" s="67"/>
-      <c r="C46" s="87" t="s">
+      <c r="C46" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="88"/>
-      <c r="E46" s="91" t="s">
+      <c r="D46" s="97"/>
+      <c r="E46" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F46" s="37"/>
@@ -5887,11 +5887,11 @@
       <c r="BN46" s="48"/>
     </row>
     <row r="47" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="86"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="67"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="92"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="88"/>
       <c r="F47" s="37"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -5955,15 +5955,15 @@
       <c r="BN47" s="48"/>
     </row>
     <row r="48" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="85">
+      <c r="A48" s="89">
         <v>23</v>
       </c>
       <c r="B48" s="67"/>
-      <c r="C48" s="87" t="s">
+      <c r="C48" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="88"/>
-      <c r="E48" s="91" t="s">
+      <c r="D48" s="97"/>
+      <c r="E48" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="37"/>
@@ -6031,11 +6031,11 @@
       <c r="BN48" s="48"/>
     </row>
     <row r="49" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="86"/>
+      <c r="A49" s="90"/>
       <c r="B49" s="67"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="92"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="88"/>
       <c r="F49" s="37"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -6099,15 +6099,15 @@
       <c r="BN49" s="48"/>
     </row>
     <row r="50" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="85">
+      <c r="A50" s="89">
         <v>24</v>
       </c>
       <c r="B50" s="67"/>
-      <c r="C50" s="87" t="s">
+      <c r="C50" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="88"/>
-      <c r="E50" s="91" t="s">
+      <c r="D50" s="97"/>
+      <c r="E50" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F50" s="37"/>
@@ -6175,11 +6175,11 @@
       <c r="BN50" s="48"/>
     </row>
     <row r="51" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="86"/>
+      <c r="A51" s="90"/>
       <c r="B51" s="67"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="92"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="88"/>
       <c r="F51" s="37"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -6243,15 +6243,15 @@
       <c r="BN51" s="48"/>
     </row>
     <row r="52" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="85">
+      <c r="A52" s="89">
         <v>25</v>
       </c>
       <c r="B52" s="67"/>
-      <c r="C52" s="87" t="s">
+      <c r="C52" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="88"/>
-      <c r="E52" s="91" t="s">
+      <c r="D52" s="97"/>
+      <c r="E52" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F52" s="37"/>
@@ -6319,11 +6319,11 @@
       <c r="BN52" s="48"/>
     </row>
     <row r="53" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="86"/>
+      <c r="A53" s="90"/>
       <c r="B53" s="67"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="92"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="88"/>
       <c r="F53" s="37"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -6387,15 +6387,15 @@
       <c r="BN53" s="48"/>
     </row>
     <row r="54" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A54" s="85">
+      <c r="A54" s="89">
         <v>26</v>
       </c>
       <c r="B54" s="67"/>
-      <c r="C54" s="87" t="s">
+      <c r="C54" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="88"/>
-      <c r="E54" s="91" t="s">
+      <c r="D54" s="97"/>
+      <c r="E54" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F54" s="37"/>
@@ -6463,11 +6463,11 @@
       <c r="BN54" s="48"/>
     </row>
     <row r="55" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A55" s="86"/>
+      <c r="A55" s="90"/>
       <c r="B55" s="67"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="92"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="88"/>
       <c r="F55" s="37"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -6531,15 +6531,15 @@
       <c r="BN55" s="48"/>
     </row>
     <row r="56" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A56" s="85">
+      <c r="A56" s="89">
         <v>27</v>
       </c>
       <c r="B56" s="67"/>
-      <c r="C56" s="87" t="s">
+      <c r="C56" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="88"/>
-      <c r="E56" s="91" t="s">
+      <c r="D56" s="97"/>
+      <c r="E56" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F56" s="37"/>
@@ -6607,11 +6607,11 @@
       <c r="BN56" s="48"/>
     </row>
     <row r="57" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A57" s="86"/>
+      <c r="A57" s="90"/>
       <c r="B57" s="67"/>
-      <c r="C57" s="89"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="92"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="88"/>
       <c r="F57" s="37"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -6675,15 +6675,15 @@
       <c r="BN57" s="48"/>
     </row>
     <row r="58" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A58" s="85">
+      <c r="A58" s="89">
         <v>28</v>
       </c>
       <c r="B58" s="67"/>
-      <c r="C58" s="87" t="s">
+      <c r="C58" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="88"/>
-      <c r="E58" s="91" t="s">
+      <c r="D58" s="97"/>
+      <c r="E58" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F58" s="37"/>
@@ -6751,11 +6751,11 @@
       <c r="BN58" s="48"/>
     </row>
     <row r="59" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A59" s="86"/>
+      <c r="A59" s="90"/>
       <c r="B59" s="67"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="92"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="88"/>
       <c r="F59" s="37"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -6819,15 +6819,15 @@
       <c r="BN59" s="48"/>
     </row>
     <row r="60" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A60" s="85">
+      <c r="A60" s="89">
         <v>29</v>
       </c>
       <c r="B60" s="67"/>
-      <c r="C60" s="87" t="s">
+      <c r="C60" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="88"/>
-      <c r="E60" s="91" t="s">
+      <c r="D60" s="97"/>
+      <c r="E60" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F60" s="37"/>
@@ -6895,11 +6895,11 @@
       <c r="BN60" s="48"/>
     </row>
     <row r="61" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A61" s="86"/>
+      <c r="A61" s="90"/>
       <c r="B61" s="67"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="90"/>
-      <c r="E61" s="92"/>
+      <c r="C61" s="98"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="88"/>
       <c r="F61" s="37"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -6963,15 +6963,15 @@
       <c r="BN61" s="48"/>
     </row>
     <row r="62" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A62" s="85">
+      <c r="A62" s="89">
         <v>30</v>
       </c>
       <c r="B62" s="67"/>
-      <c r="C62" s="87" t="s">
+      <c r="C62" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="88"/>
-      <c r="E62" s="91" t="s">
+      <c r="D62" s="97"/>
+      <c r="E62" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F62" s="37"/>
@@ -7039,11 +7039,11 @@
       <c r="BN62" s="48"/>
     </row>
     <row r="63" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A63" s="86"/>
+      <c r="A63" s="90"/>
       <c r="B63" s="67"/>
-      <c r="C63" s="89"/>
-      <c r="D63" s="90"/>
-      <c r="E63" s="92"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="88"/>
       <c r="F63" s="37"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -7107,15 +7107,15 @@
       <c r="BN63" s="48"/>
     </row>
     <row r="64" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A64" s="85">
+      <c r="A64" s="89">
         <v>31</v>
       </c>
       <c r="B64" s="67"/>
-      <c r="C64" s="87" t="s">
+      <c r="C64" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="88"/>
-      <c r="E64" s="91" t="s">
+      <c r="D64" s="97"/>
+      <c r="E64" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F64" s="37"/>
@@ -7183,11 +7183,11 @@
       <c r="BN64" s="48"/>
     </row>
     <row r="65" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A65" s="86"/>
+      <c r="A65" s="90"/>
       <c r="B65" s="67"/>
-      <c r="C65" s="89"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="92"/>
+      <c r="C65" s="98"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="88"/>
       <c r="F65" s="37"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
@@ -7251,15 +7251,15 @@
       <c r="BN65" s="48"/>
     </row>
     <row r="66" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A66" s="85">
+      <c r="A66" s="89">
         <v>32</v>
       </c>
       <c r="B66" s="67"/>
-      <c r="C66" s="87" t="s">
+      <c r="C66" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="D66" s="88"/>
-      <c r="E66" s="91" t="s">
+      <c r="D66" s="97"/>
+      <c r="E66" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F66" s="37"/>
@@ -7327,11 +7327,11 @@
       <c r="BN66" s="48"/>
     </row>
     <row r="67" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A67" s="86"/>
+      <c r="A67" s="90"/>
       <c r="B67" s="67"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="92"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="88"/>
       <c r="F67" s="37"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
@@ -7395,15 +7395,15 @@
       <c r="BN67" s="48"/>
     </row>
     <row r="68" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A68" s="85">
+      <c r="A68" s="89">
         <v>33</v>
       </c>
       <c r="B68" s="67"/>
-      <c r="C68" s="87" t="s">
+      <c r="C68" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="88"/>
-      <c r="E68" s="91" t="s">
+      <c r="D68" s="97"/>
+      <c r="E68" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F68" s="38"/>
@@ -7471,11 +7471,11 @@
       <c r="BN68" s="45"/>
     </row>
     <row r="69" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A69" s="86"/>
+      <c r="A69" s="90"/>
       <c r="B69" s="68"/>
-      <c r="C69" s="93"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="95"/>
+      <c r="C69" s="136"/>
+      <c r="D69" s="137"/>
+      <c r="E69" s="113"/>
       <c r="F69" s="40"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
@@ -7539,17 +7539,17 @@
       <c r="BN69" s="49"/>
     </row>
     <row r="70" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A70" s="85">
+      <c r="A70" s="89">
         <v>34</v>
       </c>
       <c r="B70" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C70" s="96" t="s">
+      <c r="C70" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="D70" s="97"/>
-      <c r="E70" s="91" t="s">
+      <c r="D70" s="139"/>
+      <c r="E70" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F70" s="37"/>
@@ -7619,11 +7619,11 @@
       <c r="BN70" s="48"/>
     </row>
     <row r="71" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A71" s="86"/>
+      <c r="A71" s="90"/>
       <c r="B71" s="67"/>
-      <c r="C71" s="89"/>
-      <c r="D71" s="90"/>
-      <c r="E71" s="92"/>
+      <c r="C71" s="98"/>
+      <c r="D71" s="99"/>
+      <c r="E71" s="88"/>
       <c r="F71" s="37"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -7687,15 +7687,15 @@
       <c r="BN71" s="48"/>
     </row>
     <row r="72" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A72" s="85">
+      <c r="A72" s="89">
         <v>35</v>
       </c>
       <c r="B72" s="67"/>
-      <c r="C72" s="87" t="s">
+      <c r="C72" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="D72" s="88"/>
-      <c r="E72" s="91" t="s">
+      <c r="D72" s="97"/>
+      <c r="E72" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F72" s="37"/>
@@ -7765,11 +7765,11 @@
       <c r="BN72" s="48"/>
     </row>
     <row r="73" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A73" s="86"/>
+      <c r="A73" s="90"/>
       <c r="B73" s="67"/>
-      <c r="C73" s="89"/>
-      <c r="D73" s="90"/>
-      <c r="E73" s="92"/>
+      <c r="C73" s="98"/>
+      <c r="D73" s="99"/>
+      <c r="E73" s="88"/>
       <c r="F73" s="37"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
@@ -7833,15 +7833,15 @@
       <c r="BN73" s="48"/>
     </row>
     <row r="74" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A74" s="85">
+      <c r="A74" s="89">
         <v>36</v>
       </c>
       <c r="B74" s="67"/>
-      <c r="C74" s="87" t="s">
+      <c r="C74" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="D74" s="88"/>
-      <c r="E74" s="91" t="s">
+      <c r="D74" s="97"/>
+      <c r="E74" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F74" s="37"/>
@@ -7911,11 +7911,11 @@
       <c r="BN74" s="48"/>
     </row>
     <row r="75" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A75" s="86"/>
+      <c r="A75" s="90"/>
       <c r="B75" s="67"/>
-      <c r="C75" s="89"/>
-      <c r="D75" s="90"/>
-      <c r="E75" s="92"/>
+      <c r="C75" s="98"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="88"/>
       <c r="F75" s="37"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -7979,15 +7979,15 @@
       <c r="BN75" s="48"/>
     </row>
     <row r="76" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A76" s="85">
+      <c r="A76" s="89">
         <v>37</v>
       </c>
       <c r="B76" s="67"/>
-      <c r="C76" s="87" t="s">
+      <c r="C76" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="88"/>
-      <c r="E76" s="91" t="s">
+      <c r="D76" s="97"/>
+      <c r="E76" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F76" s="37"/>
@@ -8057,11 +8057,11 @@
       <c r="BN76" s="48"/>
     </row>
     <row r="77" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A77" s="86"/>
+      <c r="A77" s="90"/>
       <c r="B77" s="67"/>
-      <c r="C77" s="89"/>
-      <c r="D77" s="90"/>
-      <c r="E77" s="92"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="88"/>
       <c r="F77" s="37"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
@@ -8125,15 +8125,15 @@
       <c r="BN77" s="48"/>
     </row>
     <row r="78" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A78" s="85">
+      <c r="A78" s="89">
         <v>38</v>
       </c>
       <c r="B78" s="67"/>
-      <c r="C78" s="87" t="s">
+      <c r="C78" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="D78" s="88"/>
-      <c r="E78" s="91" t="s">
+      <c r="D78" s="97"/>
+      <c r="E78" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F78" s="37"/>
@@ -8203,11 +8203,11 @@
       <c r="BN78" s="48"/>
     </row>
     <row r="79" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A79" s="86"/>
+      <c r="A79" s="90"/>
       <c r="B79" s="67"/>
-      <c r="C79" s="89"/>
-      <c r="D79" s="90"/>
-      <c r="E79" s="92"/>
+      <c r="C79" s="98"/>
+      <c r="D79" s="99"/>
+      <c r="E79" s="88"/>
       <c r="F79" s="37"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -8271,15 +8271,15 @@
       <c r="BN79" s="48"/>
     </row>
     <row r="80" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A80" s="85">
+      <c r="A80" s="89">
         <v>39</v>
       </c>
       <c r="B80" s="67"/>
-      <c r="C80" s="87" t="s">
+      <c r="C80" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="D80" s="88"/>
-      <c r="E80" s="91" t="s">
+      <c r="D80" s="97"/>
+      <c r="E80" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F80" s="37"/>
@@ -8347,11 +8347,11 @@
       <c r="BN80" s="48"/>
     </row>
     <row r="81" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A81" s="86"/>
+      <c r="A81" s="90"/>
       <c r="B81" s="67"/>
-      <c r="C81" s="89"/>
-      <c r="D81" s="90"/>
-      <c r="E81" s="92"/>
+      <c r="C81" s="98"/>
+      <c r="D81" s="99"/>
+      <c r="E81" s="88"/>
       <c r="F81" s="37"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
@@ -8415,15 +8415,15 @@
       <c r="BN81" s="48"/>
     </row>
     <row r="82" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A82" s="85">
+      <c r="A82" s="89">
         <v>40</v>
       </c>
       <c r="B82" s="67"/>
-      <c r="C82" s="87" t="s">
+      <c r="C82" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="D82" s="88"/>
-      <c r="E82" s="91" t="s">
+      <c r="D82" s="97"/>
+      <c r="E82" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F82" s="37"/>
@@ -8491,11 +8491,11 @@
       <c r="BN82" s="48"/>
     </row>
     <row r="83" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A83" s="86"/>
+      <c r="A83" s="90"/>
       <c r="B83" s="67"/>
-      <c r="C83" s="89"/>
-      <c r="D83" s="90"/>
-      <c r="E83" s="92"/>
+      <c r="C83" s="98"/>
+      <c r="D83" s="99"/>
+      <c r="E83" s="88"/>
       <c r="F83" s="37"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
@@ -8559,15 +8559,15 @@
       <c r="BN83" s="48"/>
     </row>
     <row r="84" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A84" s="85">
+      <c r="A84" s="89">
         <v>41</v>
       </c>
       <c r="B84" s="67"/>
-      <c r="C84" s="87" t="s">
+      <c r="C84" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="D84" s="88"/>
-      <c r="E84" s="91" t="s">
+      <c r="D84" s="97"/>
+      <c r="E84" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F84" s="37"/>
@@ -8635,11 +8635,11 @@
       <c r="BN84" s="48"/>
     </row>
     <row r="85" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A85" s="86"/>
+      <c r="A85" s="90"/>
       <c r="B85" s="67"/>
-      <c r="C85" s="89"/>
-      <c r="D85" s="90"/>
-      <c r="E85" s="92"/>
+      <c r="C85" s="98"/>
+      <c r="D85" s="99"/>
+      <c r="E85" s="88"/>
       <c r="F85" s="37"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
@@ -8703,15 +8703,15 @@
       <c r="BN85" s="48"/>
     </row>
     <row r="86" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A86" s="85">
+      <c r="A86" s="89">
         <v>42</v>
       </c>
       <c r="B86" s="67"/>
-      <c r="C86" s="87" t="s">
+      <c r="C86" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="D86" s="88"/>
-      <c r="E86" s="91" t="s">
+      <c r="D86" s="97"/>
+      <c r="E86" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F86" s="37"/>
@@ -8779,11 +8779,11 @@
       <c r="BN86" s="48"/>
     </row>
     <row r="87" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A87" s="86"/>
+      <c r="A87" s="90"/>
       <c r="B87" s="67"/>
-      <c r="C87" s="89"/>
-      <c r="D87" s="90"/>
-      <c r="E87" s="92"/>
+      <c r="C87" s="98"/>
+      <c r="D87" s="99"/>
+      <c r="E87" s="88"/>
       <c r="F87" s="37"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
@@ -8847,15 +8847,15 @@
       <c r="BN87" s="48"/>
     </row>
     <row r="88" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A88" s="85">
+      <c r="A88" s="89">
         <v>43</v>
       </c>
       <c r="B88" s="67"/>
-      <c r="C88" s="87" t="s">
+      <c r="C88" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="D88" s="88"/>
-      <c r="E88" s="91" t="s">
+      <c r="D88" s="97"/>
+      <c r="E88" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F88" s="37"/>
@@ -8923,11 +8923,11 @@
       <c r="BN88" s="48"/>
     </row>
     <row r="89" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A89" s="86"/>
+      <c r="A89" s="90"/>
       <c r="B89" s="67"/>
-      <c r="C89" s="89"/>
-      <c r="D89" s="90"/>
-      <c r="E89" s="92"/>
+      <c r="C89" s="98"/>
+      <c r="D89" s="99"/>
+      <c r="E89" s="88"/>
       <c r="F89" s="37"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
@@ -8991,15 +8991,15 @@
       <c r="BN89" s="48"/>
     </row>
     <row r="90" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A90" s="85">
+      <c r="A90" s="89">
         <v>44</v>
       </c>
       <c r="B90" s="67"/>
-      <c r="C90" s="87" t="s">
+      <c r="C90" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="D90" s="88"/>
-      <c r="E90" s="91" t="s">
+      <c r="D90" s="97"/>
+      <c r="E90" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F90" s="37"/>
@@ -9067,11 +9067,11 @@
       <c r="BN90" s="48"/>
     </row>
     <row r="91" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A91" s="86"/>
+      <c r="A91" s="90"/>
       <c r="B91" s="67"/>
-      <c r="C91" s="89"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="92"/>
+      <c r="C91" s="98"/>
+      <c r="D91" s="99"/>
+      <c r="E91" s="88"/>
       <c r="F91" s="37"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
@@ -9135,15 +9135,15 @@
       <c r="BN91" s="48"/>
     </row>
     <row r="92" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A92" s="85">
+      <c r="A92" s="89">
         <v>45</v>
       </c>
       <c r="B92" s="67"/>
-      <c r="C92" s="87" t="s">
+      <c r="C92" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="D92" s="88"/>
-      <c r="E92" s="91" t="s">
+      <c r="D92" s="97"/>
+      <c r="E92" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F92" s="37"/>
@@ -9211,11 +9211,11 @@
       <c r="BN92" s="48"/>
     </row>
     <row r="93" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A93" s="86"/>
+      <c r="A93" s="90"/>
       <c r="B93" s="67"/>
-      <c r="C93" s="89"/>
-      <c r="D93" s="90"/>
-      <c r="E93" s="92"/>
+      <c r="C93" s="98"/>
+      <c r="D93" s="99"/>
+      <c r="E93" s="88"/>
       <c r="F93" s="37"/>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
@@ -9279,15 +9279,15 @@
       <c r="BN93" s="48"/>
     </row>
     <row r="94" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A94" s="85">
+      <c r="A94" s="89">
         <v>46</v>
       </c>
       <c r="B94" s="67"/>
-      <c r="C94" s="87" t="s">
+      <c r="C94" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="D94" s="88"/>
-      <c r="E94" s="91" t="s">
+      <c r="D94" s="97"/>
+      <c r="E94" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F94" s="37"/>
@@ -9355,11 +9355,11 @@
       <c r="BN94" s="48"/>
     </row>
     <row r="95" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A95" s="86"/>
+      <c r="A95" s="90"/>
       <c r="B95" s="67"/>
-      <c r="C95" s="89"/>
-      <c r="D95" s="90"/>
-      <c r="E95" s="92"/>
+      <c r="C95" s="98"/>
+      <c r="D95" s="99"/>
+      <c r="E95" s="88"/>
       <c r="F95" s="37"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
@@ -9423,15 +9423,15 @@
       <c r="BN95" s="48"/>
     </row>
     <row r="96" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A96" s="85">
+      <c r="A96" s="89">
         <v>47</v>
       </c>
       <c r="B96" s="67"/>
-      <c r="C96" s="87" t="s">
+      <c r="C96" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="D96" s="88"/>
-      <c r="E96" s="91" t="s">
+      <c r="D96" s="97"/>
+      <c r="E96" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F96" s="37"/>
@@ -9499,11 +9499,11 @@
       <c r="BN96" s="48"/>
     </row>
     <row r="97" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A97" s="86"/>
+      <c r="A97" s="90"/>
       <c r="B97" s="67"/>
-      <c r="C97" s="89"/>
-      <c r="D97" s="90"/>
-      <c r="E97" s="92"/>
+      <c r="C97" s="98"/>
+      <c r="D97" s="99"/>
+      <c r="E97" s="88"/>
       <c r="F97" s="37"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
@@ -9567,15 +9567,15 @@
       <c r="BN97" s="48"/>
     </row>
     <row r="98" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A98" s="85">
+      <c r="A98" s="89">
         <v>48</v>
       </c>
       <c r="B98" s="67"/>
-      <c r="C98" s="87" t="s">
+      <c r="C98" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="D98" s="88"/>
-      <c r="E98" s="91" t="s">
+      <c r="D98" s="97"/>
+      <c r="E98" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F98" s="37"/>
@@ -9643,11 +9643,11 @@
       <c r="BN98" s="48"/>
     </row>
     <row r="99" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A99" s="86"/>
+      <c r="A99" s="90"/>
       <c r="B99" s="67"/>
-      <c r="C99" s="89"/>
-      <c r="D99" s="90"/>
-      <c r="E99" s="92"/>
+      <c r="C99" s="98"/>
+      <c r="D99" s="99"/>
+      <c r="E99" s="88"/>
       <c r="F99" s="37"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
@@ -9711,15 +9711,15 @@
       <c r="BN99" s="48"/>
     </row>
     <row r="100" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A100" s="85">
+      <c r="A100" s="89">
         <v>49</v>
       </c>
       <c r="B100" s="67"/>
-      <c r="C100" s="87" t="s">
+      <c r="C100" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="D100" s="88"/>
-      <c r="E100" s="91" t="s">
+      <c r="D100" s="97"/>
+      <c r="E100" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F100" s="37"/>
@@ -9787,11 +9787,11 @@
       <c r="BN100" s="48"/>
     </row>
     <row r="101" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A101" s="86"/>
+      <c r="A101" s="90"/>
       <c r="B101" s="67"/>
-      <c r="C101" s="89"/>
-      <c r="D101" s="90"/>
-      <c r="E101" s="92"/>
+      <c r="C101" s="98"/>
+      <c r="D101" s="99"/>
+      <c r="E101" s="88"/>
       <c r="F101" s="37"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
@@ -9855,15 +9855,15 @@
       <c r="BN101" s="48"/>
     </row>
     <row r="102" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A102" s="85">
+      <c r="A102" s="89">
         <v>50</v>
       </c>
       <c r="B102" s="67"/>
-      <c r="C102" s="87" t="s">
+      <c r="C102" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="D102" s="88"/>
-      <c r="E102" s="91" t="s">
+      <c r="D102" s="97"/>
+      <c r="E102" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F102" s="38"/>
@@ -9931,11 +9931,11 @@
       <c r="BN102" s="45"/>
     </row>
     <row r="103" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A103" s="86"/>
+      <c r="A103" s="90"/>
       <c r="B103" s="68"/>
-      <c r="C103" s="93"/>
-      <c r="D103" s="94"/>
-      <c r="E103" s="95"/>
+      <c r="C103" s="136"/>
+      <c r="D103" s="137"/>
+      <c r="E103" s="113"/>
       <c r="F103" s="40"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
@@ -9999,17 +9999,17 @@
       <c r="BN103" s="49"/>
     </row>
     <row r="104" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A104" s="85">
+      <c r="A104" s="89">
         <v>51</v>
       </c>
       <c r="B104" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C104" s="96" t="s">
+      <c r="C104" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="D104" s="97"/>
-      <c r="E104" s="91" t="s">
+      <c r="D104" s="139"/>
+      <c r="E104" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F104" s="37"/>
@@ -10079,11 +10079,11 @@
       <c r="BN104" s="48"/>
     </row>
     <row r="105" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A105" s="86"/>
+      <c r="A105" s="90"/>
       <c r="B105" s="67"/>
-      <c r="C105" s="89"/>
-      <c r="D105" s="90"/>
-      <c r="E105" s="92"/>
+      <c r="C105" s="98"/>
+      <c r="D105" s="99"/>
+      <c r="E105" s="88"/>
       <c r="F105" s="37"/>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
@@ -10147,15 +10147,15 @@
       <c r="BN105" s="48"/>
     </row>
     <row r="106" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A106" s="85">
+      <c r="A106" s="89">
         <v>52</v>
       </c>
       <c r="B106" s="67"/>
-      <c r="C106" s="87" t="s">
+      <c r="C106" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="D106" s="88"/>
-      <c r="E106" s="91" t="s">
+      <c r="D106" s="97"/>
+      <c r="E106" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F106" s="37"/>
@@ -10225,11 +10225,11 @@
       <c r="BN106" s="48"/>
     </row>
     <row r="107" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A107" s="86"/>
+      <c r="A107" s="90"/>
       <c r="B107" s="67"/>
-      <c r="C107" s="89"/>
-      <c r="D107" s="90"/>
-      <c r="E107" s="92"/>
+      <c r="C107" s="98"/>
+      <c r="D107" s="99"/>
+      <c r="E107" s="88"/>
       <c r="F107" s="37"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
@@ -10293,15 +10293,15 @@
       <c r="BN107" s="48"/>
     </row>
     <row r="108" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A108" s="85">
+      <c r="A108" s="89">
         <v>53</v>
       </c>
       <c r="B108" s="67"/>
-      <c r="C108" s="87" t="s">
+      <c r="C108" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="D108" s="88"/>
-      <c r="E108" s="91" t="s">
+      <c r="D108" s="97"/>
+      <c r="E108" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F108" s="37"/>
@@ -10371,11 +10371,11 @@
       <c r="BN108" s="48"/>
     </row>
     <row r="109" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A109" s="86"/>
+      <c r="A109" s="90"/>
       <c r="B109" s="67"/>
-      <c r="C109" s="89"/>
-      <c r="D109" s="90"/>
-      <c r="E109" s="92"/>
+      <c r="C109" s="98"/>
+      <c r="D109" s="99"/>
+      <c r="E109" s="88"/>
       <c r="F109" s="37"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
@@ -10439,15 +10439,15 @@
       <c r="BN109" s="48"/>
     </row>
     <row r="110" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A110" s="85">
+      <c r="A110" s="89">
         <v>54</v>
       </c>
       <c r="B110" s="67"/>
-      <c r="C110" s="87" t="s">
+      <c r="C110" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="D110" s="88"/>
-      <c r="E110" s="91" t="s">
+      <c r="D110" s="97"/>
+      <c r="E110" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F110" s="37"/>
@@ -10517,11 +10517,11 @@
       <c r="BN110" s="48"/>
     </row>
     <row r="111" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A111" s="86"/>
+      <c r="A111" s="90"/>
       <c r="B111" s="67"/>
-      <c r="C111" s="89"/>
-      <c r="D111" s="90"/>
-      <c r="E111" s="92"/>
+      <c r="C111" s="98"/>
+      <c r="D111" s="99"/>
+      <c r="E111" s="88"/>
       <c r="F111" s="37"/>
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
@@ -10585,15 +10585,15 @@
       <c r="BN111" s="48"/>
     </row>
     <row r="112" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A112" s="85">
+      <c r="A112" s="89">
         <v>55</v>
       </c>
       <c r="B112" s="67"/>
-      <c r="C112" s="87" t="s">
+      <c r="C112" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="D112" s="88"/>
-      <c r="E112" s="91" t="s">
+      <c r="D112" s="97"/>
+      <c r="E112" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F112" s="37"/>
@@ -10663,11 +10663,11 @@
       <c r="BN112" s="48"/>
     </row>
     <row r="113" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A113" s="86"/>
+      <c r="A113" s="90"/>
       <c r="B113" s="67"/>
-      <c r="C113" s="89"/>
-      <c r="D113" s="90"/>
-      <c r="E113" s="92"/>
+      <c r="C113" s="98"/>
+      <c r="D113" s="99"/>
+      <c r="E113" s="88"/>
       <c r="F113" s="37"/>
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
@@ -10731,15 +10731,15 @@
       <c r="BN113" s="48"/>
     </row>
     <row r="114" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A114" s="85">
+      <c r="A114" s="89">
         <v>56</v>
       </c>
       <c r="B114" s="67"/>
-      <c r="C114" s="87" t="s">
+      <c r="C114" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="D114" s="88"/>
-      <c r="E114" s="91" t="s">
+      <c r="D114" s="97"/>
+      <c r="E114" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F114" s="37"/>
@@ -10807,11 +10807,11 @@
       <c r="BN114" s="48"/>
     </row>
     <row r="115" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A115" s="86"/>
+      <c r="A115" s="90"/>
       <c r="B115" s="67"/>
-      <c r="C115" s="89"/>
-      <c r="D115" s="90"/>
-      <c r="E115" s="92"/>
+      <c r="C115" s="98"/>
+      <c r="D115" s="99"/>
+      <c r="E115" s="88"/>
       <c r="F115" s="37"/>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
@@ -10875,15 +10875,15 @@
       <c r="BN115" s="48"/>
     </row>
     <row r="116" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A116" s="85">
+      <c r="A116" s="89">
         <v>57</v>
       </c>
       <c r="B116" s="67"/>
-      <c r="C116" s="87" t="s">
+      <c r="C116" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="D116" s="88"/>
-      <c r="E116" s="91" t="s">
+      <c r="D116" s="97"/>
+      <c r="E116" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F116" s="37"/>
@@ -10951,11 +10951,11 @@
       <c r="BN116" s="48"/>
     </row>
     <row r="117" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A117" s="86"/>
+      <c r="A117" s="90"/>
       <c r="B117" s="67"/>
-      <c r="C117" s="89"/>
-      <c r="D117" s="90"/>
-      <c r="E117" s="92"/>
+      <c r="C117" s="98"/>
+      <c r="D117" s="99"/>
+      <c r="E117" s="88"/>
       <c r="F117" s="37"/>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
@@ -11019,15 +11019,15 @@
       <c r="BN117" s="48"/>
     </row>
     <row r="118" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A118" s="85">
+      <c r="A118" s="89">
         <v>58</v>
       </c>
       <c r="B118" s="67"/>
-      <c r="C118" s="87" t="s">
+      <c r="C118" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="D118" s="88"/>
-      <c r="E118" s="91" t="s">
+      <c r="D118" s="97"/>
+      <c r="E118" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F118" s="37"/>
@@ -11095,11 +11095,11 @@
       <c r="BN118" s="48"/>
     </row>
     <row r="119" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A119" s="86"/>
+      <c r="A119" s="90"/>
       <c r="B119" s="67"/>
-      <c r="C119" s="89"/>
-      <c r="D119" s="90"/>
-      <c r="E119" s="92"/>
+      <c r="C119" s="98"/>
+      <c r="D119" s="99"/>
+      <c r="E119" s="88"/>
       <c r="F119" s="37"/>
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
@@ -11163,15 +11163,15 @@
       <c r="BN119" s="48"/>
     </row>
     <row r="120" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A120" s="85">
+      <c r="A120" s="89">
         <v>59</v>
       </c>
       <c r="B120" s="67"/>
-      <c r="C120" s="87" t="s">
+      <c r="C120" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="D120" s="88"/>
-      <c r="E120" s="91" t="s">
+      <c r="D120" s="97"/>
+      <c r="E120" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F120" s="37"/>
@@ -11239,11 +11239,11 @@
       <c r="BN120" s="48"/>
     </row>
     <row r="121" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A121" s="86"/>
+      <c r="A121" s="90"/>
       <c r="B121" s="67"/>
-      <c r="C121" s="89"/>
-      <c r="D121" s="90"/>
-      <c r="E121" s="92"/>
+      <c r="C121" s="98"/>
+      <c r="D121" s="99"/>
+      <c r="E121" s="88"/>
       <c r="F121" s="37"/>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
@@ -11307,15 +11307,15 @@
       <c r="BN121" s="48"/>
     </row>
     <row r="122" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A122" s="85">
+      <c r="A122" s="89">
         <v>60</v>
       </c>
       <c r="B122" s="67"/>
-      <c r="C122" s="87" t="s">
+      <c r="C122" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="D122" s="88"/>
-      <c r="E122" s="91" t="s">
+      <c r="D122" s="97"/>
+      <c r="E122" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F122" s="37"/>
@@ -11383,11 +11383,11 @@
       <c r="BN122" s="48"/>
     </row>
     <row r="123" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A123" s="86"/>
+      <c r="A123" s="90"/>
       <c r="B123" s="67"/>
-      <c r="C123" s="89"/>
-      <c r="D123" s="90"/>
-      <c r="E123" s="92"/>
+      <c r="C123" s="98"/>
+      <c r="D123" s="99"/>
+      <c r="E123" s="88"/>
       <c r="F123" s="37"/>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
@@ -11451,15 +11451,15 @@
       <c r="BN123" s="48"/>
     </row>
     <row r="124" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A124" s="85">
+      <c r="A124" s="89">
         <v>61</v>
       </c>
       <c r="B124" s="67"/>
-      <c r="C124" s="87" t="s">
+      <c r="C124" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="D124" s="88"/>
-      <c r="E124" s="91" t="s">
+      <c r="D124" s="97"/>
+      <c r="E124" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F124" s="37"/>
@@ -11527,11 +11527,11 @@
       <c r="BN124" s="48"/>
     </row>
     <row r="125" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A125" s="86"/>
+      <c r="A125" s="90"/>
       <c r="B125" s="67"/>
-      <c r="C125" s="89"/>
-      <c r="D125" s="90"/>
-      <c r="E125" s="92"/>
+      <c r="C125" s="98"/>
+      <c r="D125" s="99"/>
+      <c r="E125" s="88"/>
       <c r="F125" s="37"/>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
@@ -11595,15 +11595,15 @@
       <c r="BN125" s="48"/>
     </row>
     <row r="126" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A126" s="85">
+      <c r="A126" s="89">
         <v>62</v>
       </c>
       <c r="B126" s="67"/>
-      <c r="C126" s="87" t="s">
+      <c r="C126" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="D126" s="88"/>
-      <c r="E126" s="91" t="s">
+      <c r="D126" s="97"/>
+      <c r="E126" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F126" s="37"/>
@@ -11671,11 +11671,11 @@
       <c r="BN126" s="48"/>
     </row>
     <row r="127" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A127" s="86"/>
+      <c r="A127" s="90"/>
       <c r="B127" s="67"/>
-      <c r="C127" s="89"/>
-      <c r="D127" s="90"/>
-      <c r="E127" s="92"/>
+      <c r="C127" s="98"/>
+      <c r="D127" s="99"/>
+      <c r="E127" s="88"/>
       <c r="F127" s="37"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
@@ -11739,15 +11739,15 @@
       <c r="BN127" s="48"/>
     </row>
     <row r="128" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A128" s="85">
+      <c r="A128" s="89">
         <v>63</v>
       </c>
       <c r="B128" s="67"/>
-      <c r="C128" s="87" t="s">
+      <c r="C128" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="D128" s="88"/>
-      <c r="E128" s="91" t="s">
+      <c r="D128" s="97"/>
+      <c r="E128" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F128" s="37"/>
@@ -11815,11 +11815,11 @@
       <c r="BN128" s="48"/>
     </row>
     <row r="129" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A129" s="86"/>
+      <c r="A129" s="90"/>
       <c r="B129" s="67"/>
-      <c r="C129" s="89"/>
-      <c r="D129" s="90"/>
-      <c r="E129" s="92"/>
+      <c r="C129" s="98"/>
+      <c r="D129" s="99"/>
+      <c r="E129" s="88"/>
       <c r="F129" s="37"/>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
@@ -11883,15 +11883,15 @@
       <c r="BN129" s="48"/>
     </row>
     <row r="130" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A130" s="85">
+      <c r="A130" s="89">
         <v>64</v>
       </c>
       <c r="B130" s="67"/>
-      <c r="C130" s="87" t="s">
+      <c r="C130" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="D130" s="88"/>
-      <c r="E130" s="91" t="s">
+      <c r="D130" s="97"/>
+      <c r="E130" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F130" s="37"/>
@@ -11959,11 +11959,11 @@
       <c r="BN130" s="48"/>
     </row>
     <row r="131" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A131" s="86"/>
+      <c r="A131" s="90"/>
       <c r="B131" s="67"/>
-      <c r="C131" s="89"/>
-      <c r="D131" s="90"/>
-      <c r="E131" s="92"/>
+      <c r="C131" s="98"/>
+      <c r="D131" s="99"/>
+      <c r="E131" s="88"/>
       <c r="F131" s="37"/>
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
@@ -12027,15 +12027,15 @@
       <c r="BN131" s="48"/>
     </row>
     <row r="132" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A132" s="85">
+      <c r="A132" s="89">
         <v>65</v>
       </c>
       <c r="B132" s="67"/>
-      <c r="C132" s="87" t="s">
+      <c r="C132" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="D132" s="88"/>
-      <c r="E132" s="91" t="s">
+      <c r="D132" s="97"/>
+      <c r="E132" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F132" s="37"/>
@@ -12103,11 +12103,11 @@
       <c r="BN132" s="48"/>
     </row>
     <row r="133" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A133" s="86"/>
+      <c r="A133" s="90"/>
       <c r="B133" s="67"/>
-      <c r="C133" s="89"/>
-      <c r="D133" s="90"/>
-      <c r="E133" s="92"/>
+      <c r="C133" s="98"/>
+      <c r="D133" s="99"/>
+      <c r="E133" s="88"/>
       <c r="F133" s="37"/>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
@@ -12171,15 +12171,15 @@
       <c r="BN133" s="48"/>
     </row>
     <row r="134" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A134" s="85">
+      <c r="A134" s="89">
         <v>66</v>
       </c>
       <c r="B134" s="67"/>
-      <c r="C134" s="87" t="s">
+      <c r="C134" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="D134" s="88"/>
-      <c r="E134" s="91" t="s">
+      <c r="D134" s="97"/>
+      <c r="E134" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F134" s="37"/>
@@ -12247,11 +12247,11 @@
       <c r="BN134" s="48"/>
     </row>
     <row r="135" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A135" s="86"/>
+      <c r="A135" s="90"/>
       <c r="B135" s="67"/>
-      <c r="C135" s="89"/>
-      <c r="D135" s="90"/>
-      <c r="E135" s="92"/>
+      <c r="C135" s="98"/>
+      <c r="D135" s="99"/>
+      <c r="E135" s="88"/>
       <c r="F135" s="37"/>
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
@@ -12315,15 +12315,15 @@
       <c r="BN135" s="48"/>
     </row>
     <row r="136" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A136" s="85">
+      <c r="A136" s="89">
         <v>67</v>
       </c>
       <c r="B136" s="67"/>
-      <c r="C136" s="87" t="s">
+      <c r="C136" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="D136" s="88"/>
-      <c r="E136" s="91" t="s">
+      <c r="D136" s="97"/>
+      <c r="E136" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F136" s="38"/>
@@ -12391,11 +12391,11 @@
       <c r="BN136" s="45"/>
     </row>
     <row r="137" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A137" s="86"/>
+      <c r="A137" s="90"/>
       <c r="B137" s="68"/>
-      <c r="C137" s="93"/>
-      <c r="D137" s="94"/>
-      <c r="E137" s="95"/>
+      <c r="C137" s="136"/>
+      <c r="D137" s="137"/>
+      <c r="E137" s="113"/>
       <c r="F137" s="40"/>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
@@ -12459,17 +12459,17 @@
       <c r="BN137" s="49"/>
     </row>
     <row r="138" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A138" s="85">
+      <c r="A138" s="89">
         <v>68</v>
       </c>
       <c r="B138" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="C138" s="96" t="s">
+      <c r="C138" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="D138" s="97"/>
-      <c r="E138" s="91" t="s">
+      <c r="D138" s="139"/>
+      <c r="E138" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F138" s="37"/>
@@ -12539,11 +12539,11 @@
       <c r="BN138" s="48"/>
     </row>
     <row r="139" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A139" s="86"/>
+      <c r="A139" s="90"/>
       <c r="B139" s="67"/>
-      <c r="C139" s="89"/>
-      <c r="D139" s="90"/>
-      <c r="E139" s="92"/>
+      <c r="C139" s="98"/>
+      <c r="D139" s="99"/>
+      <c r="E139" s="88"/>
       <c r="F139" s="37"/>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
@@ -12607,15 +12607,15 @@
       <c r="BN139" s="48"/>
     </row>
     <row r="140" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A140" s="85">
+      <c r="A140" s="89">
         <v>69</v>
       </c>
       <c r="B140" s="67"/>
-      <c r="C140" s="87" t="s">
+      <c r="C140" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="D140" s="88"/>
-      <c r="E140" s="91" t="s">
+      <c r="D140" s="97"/>
+      <c r="E140" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F140" s="37"/>
@@ -12685,11 +12685,11 @@
       <c r="BN140" s="48"/>
     </row>
     <row r="141" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A141" s="86"/>
+      <c r="A141" s="90"/>
       <c r="B141" s="67"/>
-      <c r="C141" s="89"/>
-      <c r="D141" s="90"/>
-      <c r="E141" s="92"/>
+      <c r="C141" s="98"/>
+      <c r="D141" s="99"/>
+      <c r="E141" s="88"/>
       <c r="F141" s="37"/>
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
@@ -12753,15 +12753,15 @@
       <c r="BN141" s="48"/>
     </row>
     <row r="142" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A142" s="85">
+      <c r="A142" s="89">
         <v>70</v>
       </c>
       <c r="B142" s="67"/>
-      <c r="C142" s="87" t="s">
+      <c r="C142" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="D142" s="88"/>
-      <c r="E142" s="91" t="s">
+      <c r="D142" s="97"/>
+      <c r="E142" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F142" s="37"/>
@@ -12831,11 +12831,11 @@
       <c r="BN142" s="48"/>
     </row>
     <row r="143" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A143" s="86"/>
+      <c r="A143" s="90"/>
       <c r="B143" s="67"/>
-      <c r="C143" s="89"/>
-      <c r="D143" s="90"/>
-      <c r="E143" s="92"/>
+      <c r="C143" s="98"/>
+      <c r="D143" s="99"/>
+      <c r="E143" s="88"/>
       <c r="F143" s="37"/>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
@@ -12899,15 +12899,15 @@
       <c r="BN143" s="48"/>
     </row>
     <row r="144" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A144" s="85">
+      <c r="A144" s="89">
         <v>71</v>
       </c>
       <c r="B144" s="67"/>
-      <c r="C144" s="87" t="s">
+      <c r="C144" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="D144" s="88"/>
-      <c r="E144" s="91" t="s">
+      <c r="D144" s="97"/>
+      <c r="E144" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F144" s="37"/>
@@ -12977,11 +12977,11 @@
       <c r="BN144" s="48"/>
     </row>
     <row r="145" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A145" s="86"/>
+      <c r="A145" s="90"/>
       <c r="B145" s="67"/>
-      <c r="C145" s="89"/>
-      <c r="D145" s="90"/>
-      <c r="E145" s="92"/>
+      <c r="C145" s="98"/>
+      <c r="D145" s="99"/>
+      <c r="E145" s="88"/>
       <c r="F145" s="37"/>
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
@@ -13045,15 +13045,15 @@
       <c r="BN145" s="48"/>
     </row>
     <row r="146" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A146" s="85">
+      <c r="A146" s="89">
         <v>72</v>
       </c>
       <c r="B146" s="67"/>
-      <c r="C146" s="87" t="s">
+      <c r="C146" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="D146" s="88"/>
-      <c r="E146" s="91" t="s">
+      <c r="D146" s="97"/>
+      <c r="E146" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F146" s="37"/>
@@ -13123,11 +13123,11 @@
       <c r="BN146" s="48"/>
     </row>
     <row r="147" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A147" s="86"/>
+      <c r="A147" s="90"/>
       <c r="B147" s="67"/>
-      <c r="C147" s="89"/>
-      <c r="D147" s="90"/>
-      <c r="E147" s="92"/>
+      <c r="C147" s="98"/>
+      <c r="D147" s="99"/>
+      <c r="E147" s="88"/>
       <c r="F147" s="37"/>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
@@ -13191,15 +13191,15 @@
       <c r="BN147" s="48"/>
     </row>
     <row r="148" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A148" s="85">
+      <c r="A148" s="89">
         <v>73</v>
       </c>
       <c r="B148" s="67"/>
-      <c r="C148" s="87" t="s">
+      <c r="C148" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="D148" s="88"/>
-      <c r="E148" s="91" t="s">
+      <c r="D148" s="97"/>
+      <c r="E148" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F148" s="37"/>
@@ -13267,11 +13267,11 @@
       <c r="BN148" s="48"/>
     </row>
     <row r="149" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A149" s="86"/>
+      <c r="A149" s="90"/>
       <c r="B149" s="67"/>
-      <c r="C149" s="89"/>
-      <c r="D149" s="90"/>
-      <c r="E149" s="92"/>
+      <c r="C149" s="98"/>
+      <c r="D149" s="99"/>
+      <c r="E149" s="88"/>
       <c r="F149" s="37"/>
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
@@ -13335,15 +13335,15 @@
       <c r="BN149" s="48"/>
     </row>
     <row r="150" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A150" s="85">
+      <c r="A150" s="89">
         <v>74</v>
       </c>
       <c r="B150" s="67"/>
-      <c r="C150" s="87" t="s">
+      <c r="C150" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="D150" s="88"/>
-      <c r="E150" s="91" t="s">
+      <c r="D150" s="97"/>
+      <c r="E150" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F150" s="37"/>
@@ -13411,11 +13411,11 @@
       <c r="BN150" s="48"/>
     </row>
     <row r="151" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A151" s="86"/>
+      <c r="A151" s="90"/>
       <c r="B151" s="67"/>
-      <c r="C151" s="89"/>
-      <c r="D151" s="90"/>
-      <c r="E151" s="92"/>
+      <c r="C151" s="98"/>
+      <c r="D151" s="99"/>
+      <c r="E151" s="88"/>
       <c r="F151" s="37"/>
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
@@ -13479,15 +13479,15 @@
       <c r="BN151" s="48"/>
     </row>
     <row r="152" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A152" s="85">
+      <c r="A152" s="89">
         <v>75</v>
       </c>
       <c r="B152" s="67"/>
-      <c r="C152" s="87" t="s">
+      <c r="C152" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="D152" s="88"/>
-      <c r="E152" s="91" t="s">
+      <c r="D152" s="97"/>
+      <c r="E152" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F152" s="37"/>
@@ -13555,11 +13555,11 @@
       <c r="BN152" s="48"/>
     </row>
     <row r="153" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A153" s="86"/>
+      <c r="A153" s="90"/>
       <c r="B153" s="67"/>
-      <c r="C153" s="89"/>
-      <c r="D153" s="90"/>
-      <c r="E153" s="92"/>
+      <c r="C153" s="98"/>
+      <c r="D153" s="99"/>
+      <c r="E153" s="88"/>
       <c r="F153" s="37"/>
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
@@ -13623,15 +13623,15 @@
       <c r="BN153" s="48"/>
     </row>
     <row r="154" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A154" s="85">
+      <c r="A154" s="89">
         <v>76</v>
       </c>
       <c r="B154" s="67"/>
-      <c r="C154" s="87" t="s">
+      <c r="C154" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="D154" s="88"/>
-      <c r="E154" s="91" t="s">
+      <c r="D154" s="97"/>
+      <c r="E154" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F154" s="37"/>
@@ -13699,11 +13699,11 @@
       <c r="BN154" s="48"/>
     </row>
     <row r="155" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A155" s="86"/>
+      <c r="A155" s="90"/>
       <c r="B155" s="67"/>
-      <c r="C155" s="89"/>
-      <c r="D155" s="90"/>
-      <c r="E155" s="92"/>
+      <c r="C155" s="98"/>
+      <c r="D155" s="99"/>
+      <c r="E155" s="88"/>
       <c r="F155" s="37"/>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
@@ -13767,15 +13767,15 @@
       <c r="BN155" s="48"/>
     </row>
     <row r="156" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A156" s="85">
+      <c r="A156" s="89">
         <v>77</v>
       </c>
       <c r="B156" s="67"/>
-      <c r="C156" s="87" t="s">
+      <c r="C156" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="D156" s="88"/>
-      <c r="E156" s="91" t="s">
+      <c r="D156" s="97"/>
+      <c r="E156" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F156" s="37"/>
@@ -13843,11 +13843,11 @@
       <c r="BN156" s="48"/>
     </row>
     <row r="157" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A157" s="86"/>
+      <c r="A157" s="90"/>
       <c r="B157" s="67"/>
-      <c r="C157" s="89"/>
-      <c r="D157" s="90"/>
-      <c r="E157" s="92"/>
+      <c r="C157" s="98"/>
+      <c r="D157" s="99"/>
+      <c r="E157" s="88"/>
       <c r="F157" s="37"/>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
@@ -13911,15 +13911,15 @@
       <c r="BN157" s="48"/>
     </row>
     <row r="158" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A158" s="85">
+      <c r="A158" s="89">
         <v>78</v>
       </c>
       <c r="B158" s="67"/>
-      <c r="C158" s="87" t="s">
+      <c r="C158" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="D158" s="88"/>
-      <c r="E158" s="91" t="s">
+      <c r="D158" s="97"/>
+      <c r="E158" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F158" s="37"/>
@@ -13987,11 +13987,11 @@
       <c r="BN158" s="48"/>
     </row>
     <row r="159" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A159" s="86"/>
+      <c r="A159" s="90"/>
       <c r="B159" s="67"/>
-      <c r="C159" s="89"/>
-      <c r="D159" s="90"/>
-      <c r="E159" s="92"/>
+      <c r="C159" s="98"/>
+      <c r="D159" s="99"/>
+      <c r="E159" s="88"/>
       <c r="F159" s="37"/>
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
@@ -14055,15 +14055,15 @@
       <c r="BN159" s="48"/>
     </row>
     <row r="160" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A160" s="85">
+      <c r="A160" s="89">
         <v>79</v>
       </c>
       <c r="B160" s="67"/>
-      <c r="C160" s="87" t="s">
+      <c r="C160" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="D160" s="88"/>
-      <c r="E160" s="91" t="s">
+      <c r="D160" s="97"/>
+      <c r="E160" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F160" s="37"/>
@@ -14131,11 +14131,11 @@
       <c r="BN160" s="48"/>
     </row>
     <row r="161" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A161" s="86"/>
+      <c r="A161" s="90"/>
       <c r="B161" s="67"/>
-      <c r="C161" s="89"/>
-      <c r="D161" s="90"/>
-      <c r="E161" s="92"/>
+      <c r="C161" s="98"/>
+      <c r="D161" s="99"/>
+      <c r="E161" s="88"/>
       <c r="F161" s="37"/>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
@@ -14199,15 +14199,15 @@
       <c r="BN161" s="48"/>
     </row>
     <row r="162" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A162" s="85">
+      <c r="A162" s="89">
         <v>80</v>
       </c>
       <c r="B162" s="67"/>
-      <c r="C162" s="87" t="s">
+      <c r="C162" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="D162" s="88"/>
-      <c r="E162" s="91" t="s">
+      <c r="D162" s="97"/>
+      <c r="E162" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F162" s="37"/>
@@ -14275,11 +14275,11 @@
       <c r="BN162" s="48"/>
     </row>
     <row r="163" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A163" s="86"/>
+      <c r="A163" s="90"/>
       <c r="B163" s="67"/>
-      <c r="C163" s="89"/>
-      <c r="D163" s="90"/>
-      <c r="E163" s="92"/>
+      <c r="C163" s="98"/>
+      <c r="D163" s="99"/>
+      <c r="E163" s="88"/>
       <c r="F163" s="37"/>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
@@ -14343,15 +14343,15 @@
       <c r="BN163" s="48"/>
     </row>
     <row r="164" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A164" s="85">
+      <c r="A164" s="89">
         <v>81</v>
       </c>
       <c r="B164" s="67"/>
-      <c r="C164" s="87" t="s">
+      <c r="C164" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="D164" s="88"/>
-      <c r="E164" s="91" t="s">
+      <c r="D164" s="97"/>
+      <c r="E164" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F164" s="37"/>
@@ -14419,11 +14419,11 @@
       <c r="BN164" s="48"/>
     </row>
     <row r="165" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A165" s="86"/>
+      <c r="A165" s="90"/>
       <c r="B165" s="67"/>
-      <c r="C165" s="89"/>
-      <c r="D165" s="90"/>
-      <c r="E165" s="92"/>
+      <c r="C165" s="98"/>
+      <c r="D165" s="99"/>
+      <c r="E165" s="88"/>
       <c r="F165" s="37"/>
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
@@ -14487,15 +14487,15 @@
       <c r="BN165" s="48"/>
     </row>
     <row r="166" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A166" s="85">
+      <c r="A166" s="89">
         <v>82</v>
       </c>
       <c r="B166" s="67"/>
-      <c r="C166" s="87" t="s">
+      <c r="C166" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="D166" s="88"/>
-      <c r="E166" s="91" t="s">
+      <c r="D166" s="97"/>
+      <c r="E166" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F166" s="37"/>
@@ -14563,11 +14563,11 @@
       <c r="BN166" s="48"/>
     </row>
     <row r="167" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A167" s="86"/>
+      <c r="A167" s="90"/>
       <c r="B167" s="67"/>
-      <c r="C167" s="89"/>
-      <c r="D167" s="90"/>
-      <c r="E167" s="92"/>
+      <c r="C167" s="98"/>
+      <c r="D167" s="99"/>
+      <c r="E167" s="88"/>
       <c r="F167" s="37"/>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
@@ -14631,15 +14631,15 @@
       <c r="BN167" s="48"/>
     </row>
     <row r="168" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A168" s="85">
+      <c r="A168" s="89">
         <v>83</v>
       </c>
       <c r="B168" s="67"/>
-      <c r="C168" s="87" t="s">
+      <c r="C168" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="D168" s="88"/>
-      <c r="E168" s="91" t="s">
+      <c r="D168" s="97"/>
+      <c r="E168" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F168" s="37"/>
@@ -14707,11 +14707,11 @@
       <c r="BN168" s="48"/>
     </row>
     <row r="169" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A169" s="86"/>
+      <c r="A169" s="90"/>
       <c r="B169" s="67"/>
-      <c r="C169" s="89"/>
-      <c r="D169" s="90"/>
-      <c r="E169" s="92"/>
+      <c r="C169" s="98"/>
+      <c r="D169" s="99"/>
+      <c r="E169" s="88"/>
       <c r="F169" s="37"/>
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
@@ -14775,15 +14775,15 @@
       <c r="BN169" s="48"/>
     </row>
     <row r="170" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A170" s="85">
+      <c r="A170" s="89">
         <v>84</v>
       </c>
       <c r="B170" s="67"/>
-      <c r="C170" s="87" t="s">
+      <c r="C170" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="D170" s="88"/>
-      <c r="E170" s="91" t="s">
+      <c r="D170" s="97"/>
+      <c r="E170" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F170" s="38"/>
@@ -14851,11 +14851,11 @@
       <c r="BN170" s="45"/>
     </row>
     <row r="171" spans="1:66" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A171" s="86"/>
+      <c r="A171" s="90"/>
       <c r="B171" s="68"/>
-      <c r="C171" s="93"/>
-      <c r="D171" s="94"/>
-      <c r="E171" s="95"/>
+      <c r="C171" s="136"/>
+      <c r="D171" s="137"/>
+      <c r="E171" s="113"/>
       <c r="F171" s="40"/>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
@@ -14956,6 +14956,240 @@
     </row>
   </sheetData>
   <mergeCells count="258">
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="C160:D161"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="C162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="C170:D171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="C164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="C166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="C168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="C154:D155"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="C156:D157"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="C158:D159"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="C148:D149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="C150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="C152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="C142:D143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="C144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="C146:D147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="C120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="C112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="C140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="C138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="C136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="C124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="C126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="C128:D129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="C122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="C134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="C130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="C132:D133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="C118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="C114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="C108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="C110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="C116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="C106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="C102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="C98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="C100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="C104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="C94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="C96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="C90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="C92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="C86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="C88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="C84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="C74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="C76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="C78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="C80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="C72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="C68:D69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="F1:AI1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="AJ1:BM1"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="A20:A21"/>
@@ -14980,240 +15214,6 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F1:AI1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="C68:D69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="C72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="C70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="C82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="C74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="C76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="C78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="C80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="C86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="C88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="C84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="C94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="C96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="C90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="C92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="C106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="C102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="C98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="C100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="C104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="C118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="C114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="C108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="C110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="C116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="C122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="C134:D135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="C130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="C132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="C120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="C112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="C140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="C138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="C136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="C124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="C126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="C128:D129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="C142:D143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="C144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="C146:D147"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="C148:D149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="C150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="C152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="C154:D155"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="C156:D157"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="C158:D159"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="C160:D161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="C162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="C170:D171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="C164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="C166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="C168:D169"/>
-    <mergeCell ref="E168:E169"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
